--- a/設計書類_レビュー前/画面設計書/メニュー画面(飲み物).xlsx
+++ b/設計書類_レビュー前/画面設計書/メニュー画面(飲み物).xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
   <si>
     <t>改訂日</t>
     <rPh sb="0" eb="2">
@@ -90,10 +90,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>フィールド</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>必須</t>
     <rPh sb="0" eb="2">
       <t>ヒッス</t>
@@ -111,10 +107,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>画面イメージ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>画面設計書</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
@@ -125,10 +117,6 @@
     <rPh sb="4" eb="5">
       <t>ショ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ページNo</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -184,10 +172,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>○○ボタン[クリック]処理</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>鈴木海偉</t>
     <rPh sb="0" eb="4">
       <t>スズキウミイ</t>
@@ -223,45 +207,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>カテゴリー画面まで戻る</t>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>履歴画面に遷移する</t>
-    <rPh sb="0" eb="2">
-      <t>リレキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>注文確定画面に遷移する</t>
-    <rPh sb="0" eb="2">
-      <t>チュウモン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カクテイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>飲み物</t>
     <rPh sb="0" eb="1">
       <t>ノ</t>
@@ -282,39 +227,22 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>メニュー名</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
+    <t>drink</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テキスト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メニュー画面(ドリンク)</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>画像を押して個数入力できる</t>
-    <rPh sb="0" eb="2">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>コスウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>メニュー画面(飲み物)</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ノ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>モノ</t>
-    </rPh>
+    <t>ページNo</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -322,11 +250,34 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>drink</t>
+    <t>画面イメージ</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>drinkitem</t>
+    <t>モーダル画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フィールド</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>drink_item</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボタン</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -334,7 +285,23 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボタン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>history</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボタン</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -342,15 +309,211 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>テキスト</t>
+    <t>商品(画像)</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ボタン</t>
+    <t>drink_img</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ボタン</t>
+    <t>画像</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>数量ボタン(モーダル)</t>
+    <rPh sb="0" eb="2">
+      <t>スウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>numbtn_modal</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>戻るボタン(モーダル)</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>back_modal</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確定ボタン(モーダル)</t>
+    <rPh sb="0" eb="2">
+      <t>カクテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>history_modal</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品ボタン[クリック]処理</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モーダル画面を呼び出す</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>対応する商品の画像をモーダルに表示する</t>
+    <rPh sb="0" eb="2">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>戻るボタン[クリック]処理</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カテゴリー画面に遷移する</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>履歴ボタン[クリック]処理</t>
+    <rPh sb="0" eb="2">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>履歴画面に遷移する</t>
+    <rPh sb="0" eb="4">
+      <t>リレキガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確定ボタン[クリック]処理</t>
+    <rPh sb="0" eb="2">
+      <t>カクテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>注文確定画面に遷移する</t>
+    <rPh sb="0" eb="4">
+      <t>チュウモンカクテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>数量ボタン(モーダル)[クリック]処理</t>
+    <rPh sb="0" eb="2">
+      <t>スウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品の注文数をテーブルに登録する</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウモンスウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>戻るボタン(モーダル)[クリック]処理</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モーダルを閉じてメニュー画面に戻る</t>
+    <rPh sb="5" eb="6">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確定ボタン(モーダル)[クリック]処理</t>
+    <rPh sb="0" eb="2">
+      <t>カクテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>注文を確定しテーブルに登録する</t>
+    <rPh sb="0" eb="2">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -361,7 +524,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -411,8 +574,26 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -422,6 +603,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="23"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,7 +939,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -800,6 +987,69 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -839,69 +1089,38 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2707,6 +2926,2675 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="正方形/長方形 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="129540" y="1653540"/>
+          <a:ext cx="2598420" cy="1211580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000"/>
+            <a:t>商品画像１</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="正方形/長方形 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3307080" y="1699260"/>
+          <a:ext cx="2674620" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000"/>
+            <a:t>商品画像２</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="228600" y="6263640"/>
+          <a:ext cx="876300" cy="411480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4206240" y="6286500"/>
+          <a:ext cx="876300" cy="411480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>履歴</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="正方形/長方形 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8321040" y="6263640"/>
+          <a:ext cx="876300" cy="411480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>確定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>94488</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="四角形吹き出し 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6644640" y="533400"/>
+          <a:ext cx="350520" cy="460248"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -244746"/>
+            <a:gd name="adj2" fmla="val 76199"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>86868</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="四角形吹き出し 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2796540" y="1280160"/>
+          <a:ext cx="350520" cy="445008"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -244746"/>
+            <a:gd name="adj2" fmla="val 76199"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>86868</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="四角形吹き出し 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6515100" y="1280160"/>
+          <a:ext cx="350520" cy="445008"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -244746"/>
+            <a:gd name="adj2" fmla="val 76199"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>102108</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="四角形吹き出し 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1661160" y="5814060"/>
+          <a:ext cx="350520" cy="445008"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -244746"/>
+            <a:gd name="adj2" fmla="val 76199"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>③</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>109728</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="四角形吹き出し 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5722620" y="5821680"/>
+          <a:ext cx="350520" cy="445008"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -244746"/>
+            <a:gd name="adj2" fmla="val 76199"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>④</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>94488</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="四角形吹き出し 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7833360" y="5806440"/>
+          <a:ext cx="350520" cy="445008"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 113950"/>
+            <a:gd name="adj2" fmla="val 122432"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>⑤</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="正方形/長方形 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6454140" y="1676400"/>
+          <a:ext cx="2674620" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000"/>
+            <a:t>商品画像３</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>102108</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="四角形吹き出し 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9547860" y="1295400"/>
+          <a:ext cx="0" cy="445008"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -244746"/>
+            <a:gd name="adj2" fmla="val 76199"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="正方形/長方形 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="137160" y="3261360"/>
+          <a:ext cx="2598420" cy="845820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000"/>
+            <a:t>同上</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="正方形/長方形 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3314700" y="3307080"/>
+          <a:ext cx="2674620" cy="777240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="4000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>同上</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="4000">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>109728</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="四角形吹き出し 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2804160" y="2887980"/>
+          <a:ext cx="350520" cy="445008"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -244746"/>
+            <a:gd name="adj2" fmla="val 76199"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>109728</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="四角形吹き出し 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6522720" y="2887980"/>
+          <a:ext cx="350520" cy="445008"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -244746"/>
+            <a:gd name="adj2" fmla="val 76199"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="正方形/長方形 48"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6461760" y="3284220"/>
+          <a:ext cx="2674620" cy="777240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="4000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>同上</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="4000">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>3048</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="四角形吹き出し 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9547860" y="2903220"/>
+          <a:ext cx="0" cy="445008"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -244746"/>
+            <a:gd name="adj2" fmla="val 76199"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="正方形/長方形 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="129540" y="4503420"/>
+          <a:ext cx="2598420" cy="845820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="4000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>同上</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="4000">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="正方形/長方形 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3276600" y="4541520"/>
+          <a:ext cx="2674620" cy="777240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="4000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>同上</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="4000">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>10668</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="四角形吹き出し 52"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2796540" y="4130040"/>
+          <a:ext cx="350520" cy="445008"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -244746"/>
+            <a:gd name="adj2" fmla="val 76199"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>10668</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="四角形吹き出し 53"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6515100" y="4130040"/>
+          <a:ext cx="350520" cy="445008"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -244746"/>
+            <a:gd name="adj2" fmla="val 76199"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="正方形/長方形 54"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6454140" y="4526280"/>
+          <a:ext cx="2674620" cy="777240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="4000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>同上</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="4000">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>25908</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="四角形吹き出し 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9547860" y="4145280"/>
+          <a:ext cx="0" cy="445008"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -244746"/>
+            <a:gd name="adj2" fmla="val 76199"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="正方形/長方形 56"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10607040" y="1600200"/>
+          <a:ext cx="2560320" cy="2583180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000"/>
+            <a:t>商品画像</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="正方形/長方形 57"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13807440" y="3756660"/>
+          <a:ext cx="830580" cy="411480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>90</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>95</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="正方形/長方形 58"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16619220" y="3718560"/>
+          <a:ext cx="830580" cy="411480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>確定</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>10668</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="四角形吹き出し 59"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12633960" y="1257300"/>
+          <a:ext cx="350520" cy="391668"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -151268"/>
+            <a:gd name="adj2" fmla="val 122432"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>109728</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="四角形吹き出し 60"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13853160" y="2194560"/>
+          <a:ext cx="350520" cy="406908"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -114311"/>
+            <a:gd name="adj2" fmla="val 98459"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>109728</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="四角形吹き出し 61"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14599920" y="4472940"/>
+          <a:ext cx="350520" cy="445008"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -144746"/>
+            <a:gd name="adj2" fmla="val -141267"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>8</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>94</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>96</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>33528</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="四角形吹き出し 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17251680" y="4274820"/>
+          <a:ext cx="350520" cy="445008"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -144746"/>
+            <a:gd name="adj2" fmla="val -100171"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>9</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="正方形/長方形 63"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13281660" y="2659380"/>
+          <a:ext cx="640080" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="正方形/長方形 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14196060" y="2659380"/>
+          <a:ext cx="640080" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>91</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="正方形/長方形 65"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16116300" y="2659380"/>
+          <a:ext cx="640080" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="正方形/長方形 66"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15163800" y="2651760"/>
+          <a:ext cx="640080" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>93</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>96</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="正方形/長方形 67"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17076420" y="2644140"/>
+          <a:ext cx="640080" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>92</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="正方形/長方形 68"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13952220" y="1432560"/>
+          <a:ext cx="3048000" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ご注文数を入力してください</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>33528</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>111252</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="右矢印 69"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9334500" y="1996440"/>
+          <a:ext cx="978408" cy="484632"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF5050"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3095,10 +5983,10 @@
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="A1:AZ90"/>
+  <dimension ref="A1:CS110"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7:AG10"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BO51" sqref="BO51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6" x14ac:dyDescent="0.15"/>
@@ -3109,140 +5997,140 @@
     <col min="53" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="10.199999999999999" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
-        <v>13</v>
+    <row r="1" spans="1:97" ht="10.199999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="44" t="s">
+        <v>11</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="27" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="28" t="s">
-        <v>32</v>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="49" t="s">
+        <v>25</v>
       </c>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="27" t="s">
-        <v>14</v>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="48" t="s">
+        <v>26</v>
       </c>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="29"/>
-      <c r="AJ1" s="29"/>
-      <c r="AK1" s="29"/>
-      <c r="AL1" s="29"/>
-      <c r="AM1" s="27" t="s">
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="50"/>
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="50"/>
+      <c r="AK1" s="50"/>
+      <c r="AL1" s="50"/>
+      <c r="AM1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="AN1" s="27"/>
-      <c r="AO1" s="27"/>
-      <c r="AP1" s="27"/>
-      <c r="AQ1" s="17"/>
-      <c r="AR1" s="17"/>
-      <c r="AS1" s="17"/>
-      <c r="AT1" s="17"/>
-      <c r="AU1" s="17"/>
-      <c r="AV1" s="17"/>
-      <c r="AW1" s="17"/>
-      <c r="AX1" s="17"/>
-      <c r="AY1" s="17"/>
-      <c r="AZ1" s="18"/>
+      <c r="AN1" s="48"/>
+      <c r="AO1" s="48"/>
+      <c r="AP1" s="48"/>
+      <c r="AQ1" s="38"/>
+      <c r="AR1" s="38"/>
+      <c r="AS1" s="38"/>
+      <c r="AT1" s="38"/>
+      <c r="AU1" s="38"/>
+      <c r="AV1" s="38"/>
+      <c r="AW1" s="38"/>
+      <c r="AX1" s="38"/>
+      <c r="AY1" s="38"/>
+      <c r="AZ1" s="39"/>
     </row>
-    <row r="2" spans="1:52" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="19" t="s">
+    <row r="2" spans="1:97" ht="10.199999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="46"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="20" t="s">
-        <v>33</v>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="41" t="s">
+        <v>27</v>
       </c>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="19" t="s">
-        <v>15</v>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="40" t="s">
+        <v>12</v>
       </c>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="21"/>
-      <c r="AM2" s="19" t="s">
-        <v>11</v>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="42"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="40" t="s">
+        <v>10</v>
       </c>
-      <c r="AN2" s="19"/>
-      <c r="AO2" s="19"/>
-      <c r="AP2" s="19"/>
-      <c r="AQ2" s="21" t="s">
-        <v>20</v>
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="42" t="s">
+        <v>16</v>
       </c>
-      <c r="AR2" s="21"/>
-      <c r="AS2" s="21"/>
-      <c r="AT2" s="21"/>
-      <c r="AU2" s="21"/>
-      <c r="AV2" s="21"/>
-      <c r="AW2" s="21"/>
-      <c r="AX2" s="21"/>
-      <c r="AY2" s="21"/>
-      <c r="AZ2" s="22"/>
+      <c r="AR2" s="42"/>
+      <c r="AS2" s="42"/>
+      <c r="AT2" s="42"/>
+      <c r="AU2" s="42"/>
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="42"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="42"/>
+      <c r="AZ2" s="43"/>
     </row>
-    <row r="3" spans="1:52" ht="10.199999999999999" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:97" ht="10.199999999999999" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -3296,7 +6184,7 @@
       <c r="AY4" s="4"/>
       <c r="AZ4" s="5"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:97" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -3350,7 +6238,7 @@
       <c r="AY5" s="7"/>
       <c r="AZ5" s="8"/>
     </row>
-    <row r="6" spans="1:52" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:97" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -3384,8 +6272,50 @@
       <c r="AX6" s="10"/>
       <c r="AY6" s="10"/>
       <c r="AZ6" s="11"/>
+      <c r="BF6" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="BG6" s="52"/>
+      <c r="BH6" s="52"/>
+      <c r="BI6" s="52"/>
+      <c r="BJ6" s="52"/>
+      <c r="BK6" s="52"/>
+      <c r="BL6" s="52"/>
+      <c r="BM6" s="52"/>
+      <c r="BN6" s="52"/>
+      <c r="BO6" s="52"/>
+      <c r="BP6" s="52"/>
+      <c r="BQ6" s="52"/>
+      <c r="BR6" s="52"/>
+      <c r="BS6" s="52"/>
+      <c r="BT6" s="53"/>
+      <c r="BU6" s="54"/>
+      <c r="BV6" s="54"/>
+      <c r="BW6" s="54"/>
+      <c r="BX6" s="54"/>
+      <c r="BY6" s="54"/>
+      <c r="BZ6" s="54"/>
+      <c r="CA6" s="54"/>
+      <c r="CB6" s="54"/>
+      <c r="CC6" s="54"/>
+      <c r="CD6" s="54"/>
+      <c r="CE6" s="54"/>
+      <c r="CF6" s="54"/>
+      <c r="CG6" s="54"/>
+      <c r="CH6" s="54"/>
+      <c r="CI6" s="54"/>
+      <c r="CJ6" s="54"/>
+      <c r="CK6" s="54"/>
+      <c r="CL6" s="54"/>
+      <c r="CM6" s="54"/>
+      <c r="CN6" s="54"/>
+      <c r="CO6" s="54"/>
+      <c r="CP6" s="54"/>
+      <c r="CQ6" s="54"/>
+      <c r="CR6" s="54"/>
+      <c r="CS6" s="54"/>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:97" ht="9.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -3399,24 +6329,24 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
-      <c r="R7" s="42" t="s">
-        <v>28</v>
+      <c r="R7" s="17" t="s">
+        <v>21</v>
       </c>
-      <c r="S7" s="43"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="43"/>
-      <c r="W7" s="43"/>
-      <c r="X7" s="43"/>
-      <c r="Y7" s="43"/>
-      <c r="Z7" s="43"/>
-      <c r="AA7" s="43"/>
-      <c r="AB7" s="43"/>
-      <c r="AC7" s="43"/>
-      <c r="AD7" s="43"/>
-      <c r="AE7" s="43"/>
-      <c r="AF7" s="43"/>
-      <c r="AG7" s="44"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="19"/>
       <c r="AH7" s="10"/>
       <c r="AI7" s="10"/>
       <c r="AK7" s="10"/>
@@ -3435,8 +6365,48 @@
       <c r="AX7" s="10"/>
       <c r="AY7" s="10"/>
       <c r="AZ7" s="11"/>
+      <c r="BF7" s="55"/>
+      <c r="BG7" s="56"/>
+      <c r="BH7" s="56"/>
+      <c r="BI7" s="56"/>
+      <c r="BJ7" s="56"/>
+      <c r="BK7" s="56"/>
+      <c r="BL7" s="56"/>
+      <c r="BM7" s="56"/>
+      <c r="BN7" s="56"/>
+      <c r="BO7" s="56"/>
+      <c r="BP7" s="56"/>
+      <c r="BQ7" s="56"/>
+      <c r="BR7" s="56"/>
+      <c r="BS7" s="56"/>
+      <c r="BT7" s="57"/>
+      <c r="BU7" s="54"/>
+      <c r="BV7" s="54"/>
+      <c r="BW7" s="54"/>
+      <c r="BX7" s="54"/>
+      <c r="BY7" s="54"/>
+      <c r="BZ7" s="54"/>
+      <c r="CA7" s="54"/>
+      <c r="CB7" s="54"/>
+      <c r="CC7" s="54"/>
+      <c r="CD7" s="54"/>
+      <c r="CE7" s="54"/>
+      <c r="CF7" s="54"/>
+      <c r="CG7" s="54"/>
+      <c r="CH7" s="54"/>
+      <c r="CI7" s="54"/>
+      <c r="CJ7" s="54"/>
+      <c r="CK7" s="54"/>
+      <c r="CL7" s="54"/>
+      <c r="CM7" s="54"/>
+      <c r="CN7" s="54"/>
+      <c r="CO7" s="54"/>
+      <c r="CP7" s="54"/>
+      <c r="CQ7" s="54"/>
+      <c r="CR7" s="54"/>
+      <c r="CS7" s="54"/>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -3450,22 +6420,22 @@
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="46"/>
-      <c r="T8" s="46"/>
-      <c r="U8" s="46"/>
-      <c r="V8" s="46"/>
-      <c r="W8" s="46"/>
-      <c r="X8" s="46"/>
-      <c r="Y8" s="46"/>
-      <c r="Z8" s="46"/>
-      <c r="AA8" s="46"/>
-      <c r="AB8" s="46"/>
-      <c r="AC8" s="46"/>
-      <c r="AD8" s="46"/>
-      <c r="AE8" s="46"/>
-      <c r="AF8" s="46"/>
-      <c r="AG8" s="47"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="21"/>
+      <c r="AD8" s="21"/>
+      <c r="AE8" s="21"/>
+      <c r="AF8" s="21"/>
+      <c r="AG8" s="22"/>
       <c r="AH8" s="10"/>
       <c r="AI8" s="10"/>
       <c r="AK8" s="10"/>
@@ -3484,8 +6454,48 @@
       <c r="AX8" s="10"/>
       <c r="AY8" s="10"/>
       <c r="AZ8" s="11"/>
+      <c r="BF8" s="58"/>
+      <c r="BG8" s="59"/>
+      <c r="BH8" s="59"/>
+      <c r="BI8" s="59"/>
+      <c r="BJ8" s="59"/>
+      <c r="BK8" s="59"/>
+      <c r="BL8" s="59"/>
+      <c r="BM8" s="59"/>
+      <c r="BN8" s="59"/>
+      <c r="BO8" s="59"/>
+      <c r="BP8" s="59"/>
+      <c r="BQ8" s="59"/>
+      <c r="BR8" s="59"/>
+      <c r="BS8" s="59"/>
+      <c r="BT8" s="59"/>
+      <c r="BU8" s="59"/>
+      <c r="BV8" s="59"/>
+      <c r="BW8" s="59"/>
+      <c r="BX8" s="59"/>
+      <c r="BY8" s="59"/>
+      <c r="BZ8" s="59"/>
+      <c r="CA8" s="59"/>
+      <c r="CB8" s="59"/>
+      <c r="CC8" s="59"/>
+      <c r="CD8" s="59"/>
+      <c r="CE8" s="59"/>
+      <c r="CF8" s="59"/>
+      <c r="CG8" s="59"/>
+      <c r="CH8" s="59"/>
+      <c r="CI8" s="59"/>
+      <c r="CJ8" s="59"/>
+      <c r="CK8" s="59"/>
+      <c r="CL8" s="59"/>
+      <c r="CM8" s="59"/>
+      <c r="CN8" s="59"/>
+      <c r="CO8" s="59"/>
+      <c r="CP8" s="59"/>
+      <c r="CQ8" s="59"/>
+      <c r="CR8" s="59"/>
+      <c r="CS8" s="60"/>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -3499,22 +6509,22 @@
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="46"/>
-      <c r="T9" s="46"/>
-      <c r="U9" s="46"/>
-      <c r="V9" s="46"/>
-      <c r="W9" s="46"/>
-      <c r="X9" s="46"/>
-      <c r="Y9" s="46"/>
-      <c r="Z9" s="46"/>
-      <c r="AA9" s="46"/>
-      <c r="AB9" s="46"/>
-      <c r="AC9" s="46"/>
-      <c r="AD9" s="46"/>
-      <c r="AE9" s="46"/>
-      <c r="AF9" s="46"/>
-      <c r="AG9" s="47"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="22"/>
       <c r="AH9" s="10"/>
       <c r="AI9" s="10"/>
       <c r="AK9" s="10"/>
@@ -3533,8 +6543,48 @@
       <c r="AX9" s="10"/>
       <c r="AY9" s="10"/>
       <c r="AZ9" s="11"/>
+      <c r="BF9" s="61"/>
+      <c r="BG9" s="62"/>
+      <c r="BH9" s="62"/>
+      <c r="BI9" s="62"/>
+      <c r="BJ9" s="62"/>
+      <c r="BK9" s="62"/>
+      <c r="BL9" s="62"/>
+      <c r="BM9" s="62"/>
+      <c r="BN9" s="62"/>
+      <c r="BO9" s="62"/>
+      <c r="BP9" s="62"/>
+      <c r="BQ9" s="62"/>
+      <c r="BR9" s="62"/>
+      <c r="BS9" s="62"/>
+      <c r="BT9" s="62"/>
+      <c r="BU9" s="62"/>
+      <c r="BV9" s="62"/>
+      <c r="BW9" s="62"/>
+      <c r="BX9" s="62"/>
+      <c r="BY9" s="62"/>
+      <c r="BZ9" s="62"/>
+      <c r="CA9" s="62"/>
+      <c r="CB9" s="62"/>
+      <c r="CC9" s="62"/>
+      <c r="CD9" s="62"/>
+      <c r="CE9" s="62"/>
+      <c r="CF9" s="62"/>
+      <c r="CG9" s="62"/>
+      <c r="CH9" s="62"/>
+      <c r="CI9" s="62"/>
+      <c r="CJ9" s="62"/>
+      <c r="CK9" s="62"/>
+      <c r="CL9" s="62"/>
+      <c r="CM9" s="62"/>
+      <c r="CN9" s="62"/>
+      <c r="CO9" s="62"/>
+      <c r="CP9" s="62"/>
+      <c r="CQ9" s="62"/>
+      <c r="CR9" s="62"/>
+      <c r="CS9" s="63"/>
     </row>
-    <row r="10" spans="1:52" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:97" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -3550,22 +6600,22 @@
       <c r="M10" s="10"/>
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="49"/>
-      <c r="T10" s="49"/>
-      <c r="U10" s="49"/>
-      <c r="V10" s="49"/>
-      <c r="W10" s="49"/>
-      <c r="X10" s="49"/>
-      <c r="Y10" s="49"/>
-      <c r="Z10" s="49"/>
-      <c r="AA10" s="49"/>
-      <c r="AB10" s="49"/>
-      <c r="AC10" s="49"/>
-      <c r="AD10" s="49"/>
-      <c r="AE10" s="49"/>
-      <c r="AF10" s="49"/>
-      <c r="AG10" s="50"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="24"/>
+      <c r="AA10" s="24"/>
+      <c r="AB10" s="24"/>
+      <c r="AC10" s="24"/>
+      <c r="AD10" s="24"/>
+      <c r="AE10" s="24"/>
+      <c r="AF10" s="24"/>
+      <c r="AG10" s="25"/>
       <c r="AH10" s="10"/>
       <c r="AI10" s="10"/>
       <c r="AK10" s="10"/>
@@ -3584,8 +6634,48 @@
       <c r="AX10" s="10"/>
       <c r="AY10" s="10"/>
       <c r="AZ10" s="11"/>
+      <c r="BF10" s="61"/>
+      <c r="BG10" s="62"/>
+      <c r="BH10" s="62"/>
+      <c r="BI10" s="62"/>
+      <c r="BJ10" s="62"/>
+      <c r="BK10" s="62"/>
+      <c r="BL10" s="62"/>
+      <c r="BM10" s="62"/>
+      <c r="BN10" s="62"/>
+      <c r="BO10" s="62"/>
+      <c r="BP10" s="62"/>
+      <c r="BQ10" s="62"/>
+      <c r="BR10" s="62"/>
+      <c r="BS10" s="62"/>
+      <c r="BT10" s="62"/>
+      <c r="BU10" s="62"/>
+      <c r="BV10" s="62"/>
+      <c r="BW10" s="62"/>
+      <c r="BX10" s="62"/>
+      <c r="BY10" s="62"/>
+      <c r="BZ10" s="62"/>
+      <c r="CA10" s="62"/>
+      <c r="CB10" s="62"/>
+      <c r="CC10" s="62"/>
+      <c r="CD10" s="62"/>
+      <c r="CE10" s="62"/>
+      <c r="CF10" s="62"/>
+      <c r="CG10" s="62"/>
+      <c r="CH10" s="62"/>
+      <c r="CI10" s="62"/>
+      <c r="CJ10" s="62"/>
+      <c r="CK10" s="62"/>
+      <c r="CL10" s="62"/>
+      <c r="CM10" s="62"/>
+      <c r="CN10" s="62"/>
+      <c r="CO10" s="62"/>
+      <c r="CP10" s="62"/>
+      <c r="CQ10" s="62"/>
+      <c r="CR10" s="62"/>
+      <c r="CS10" s="63"/>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -3615,8 +6705,48 @@
       <c r="AX11" s="10"/>
       <c r="AY11" s="10"/>
       <c r="AZ11" s="11"/>
+      <c r="BF11" s="61"/>
+      <c r="BG11" s="62"/>
+      <c r="BH11" s="62"/>
+      <c r="BI11" s="62"/>
+      <c r="BJ11" s="62"/>
+      <c r="BK11" s="62"/>
+      <c r="BL11" s="62"/>
+      <c r="BM11" s="62"/>
+      <c r="BN11" s="62"/>
+      <c r="BO11" s="62"/>
+      <c r="BP11" s="62"/>
+      <c r="BQ11" s="62"/>
+      <c r="BR11" s="62"/>
+      <c r="BS11" s="62"/>
+      <c r="BT11" s="62"/>
+      <c r="BU11" s="62"/>
+      <c r="BV11" s="62"/>
+      <c r="BW11" s="62"/>
+      <c r="BX11" s="62"/>
+      <c r="BY11" s="62"/>
+      <c r="BZ11" s="62"/>
+      <c r="CA11" s="62"/>
+      <c r="CB11" s="62"/>
+      <c r="CC11" s="62"/>
+      <c r="CD11" s="62"/>
+      <c r="CE11" s="62"/>
+      <c r="CF11" s="62"/>
+      <c r="CG11" s="62"/>
+      <c r="CH11" s="62"/>
+      <c r="CI11" s="62"/>
+      <c r="CJ11" s="62"/>
+      <c r="CK11" s="62"/>
+      <c r="CL11" s="62"/>
+      <c r="CM11" s="62"/>
+      <c r="CN11" s="62"/>
+      <c r="CO11" s="62"/>
+      <c r="CP11" s="62"/>
+      <c r="CQ11" s="62"/>
+      <c r="CR11" s="62"/>
+      <c r="CS11" s="63"/>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -3669,8 +6799,48 @@
       <c r="AX12" s="10"/>
       <c r="AY12" s="10"/>
       <c r="AZ12" s="11"/>
+      <c r="BF12" s="61"/>
+      <c r="BG12" s="62"/>
+      <c r="BH12" s="62"/>
+      <c r="BI12" s="62"/>
+      <c r="BJ12" s="62"/>
+      <c r="BK12" s="62"/>
+      <c r="BL12" s="62"/>
+      <c r="BM12" s="62"/>
+      <c r="BN12" s="62"/>
+      <c r="BO12" s="62"/>
+      <c r="BP12" s="62"/>
+      <c r="BQ12" s="62"/>
+      <c r="BR12" s="62"/>
+      <c r="BS12" s="62"/>
+      <c r="BT12" s="62"/>
+      <c r="BU12" s="62"/>
+      <c r="BV12" s="62"/>
+      <c r="BW12" s="62"/>
+      <c r="BX12" s="62"/>
+      <c r="BY12" s="62"/>
+      <c r="BZ12" s="62"/>
+      <c r="CA12" s="62"/>
+      <c r="CB12" s="62"/>
+      <c r="CC12" s="62"/>
+      <c r="CD12" s="62"/>
+      <c r="CE12" s="62"/>
+      <c r="CF12" s="62"/>
+      <c r="CG12" s="62"/>
+      <c r="CH12" s="62"/>
+      <c r="CI12" s="62"/>
+      <c r="CJ12" s="62"/>
+      <c r="CK12" s="62"/>
+      <c r="CL12" s="62"/>
+      <c r="CM12" s="62"/>
+      <c r="CN12" s="62"/>
+      <c r="CO12" s="62"/>
+      <c r="CP12" s="62"/>
+      <c r="CQ12" s="62"/>
+      <c r="CR12" s="62"/>
+      <c r="CS12" s="63"/>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -3723,8 +6893,48 @@
       <c r="AX13" s="10"/>
       <c r="AY13" s="10"/>
       <c r="AZ13" s="11"/>
+      <c r="BF13" s="61"/>
+      <c r="BG13" s="62"/>
+      <c r="BH13" s="62"/>
+      <c r="BI13" s="62"/>
+      <c r="BJ13" s="62"/>
+      <c r="BK13" s="62"/>
+      <c r="BL13" s="62"/>
+      <c r="BM13" s="62"/>
+      <c r="BN13" s="62"/>
+      <c r="BO13" s="62"/>
+      <c r="BP13" s="62"/>
+      <c r="BQ13" s="62"/>
+      <c r="BR13" s="62"/>
+      <c r="BS13" s="62"/>
+      <c r="BT13" s="62"/>
+      <c r="BU13" s="62"/>
+      <c r="BV13" s="62"/>
+      <c r="BW13" s="62"/>
+      <c r="BX13" s="62"/>
+      <c r="BY13" s="62"/>
+      <c r="BZ13" s="62"/>
+      <c r="CA13" s="62"/>
+      <c r="CB13" s="62"/>
+      <c r="CC13" s="62"/>
+      <c r="CD13" s="62"/>
+      <c r="CE13" s="62"/>
+      <c r="CF13" s="62"/>
+      <c r="CG13" s="62"/>
+      <c r="CH13" s="62"/>
+      <c r="CI13" s="62"/>
+      <c r="CJ13" s="62"/>
+      <c r="CK13" s="62"/>
+      <c r="CL13" s="62"/>
+      <c r="CM13" s="62"/>
+      <c r="CN13" s="62"/>
+      <c r="CO13" s="62"/>
+      <c r="CP13" s="62"/>
+      <c r="CQ13" s="62"/>
+      <c r="CR13" s="62"/>
+      <c r="CS13" s="63"/>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:97" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -3777,8 +6987,48 @@
       <c r="AX14" s="10"/>
       <c r="AY14" s="10"/>
       <c r="AZ14" s="11"/>
+      <c r="BF14" s="61"/>
+      <c r="BG14" s="62"/>
+      <c r="BH14" s="62"/>
+      <c r="BI14" s="62"/>
+      <c r="BJ14" s="62"/>
+      <c r="BK14" s="62"/>
+      <c r="BL14" s="62"/>
+      <c r="BM14" s="62"/>
+      <c r="BN14" s="62"/>
+      <c r="BO14" s="62"/>
+      <c r="BP14" s="62"/>
+      <c r="BQ14" s="62"/>
+      <c r="BR14" s="62"/>
+      <c r="BS14" s="62"/>
+      <c r="BT14" s="62"/>
+      <c r="BU14" s="62"/>
+      <c r="BV14" s="62"/>
+      <c r="BW14" s="64"/>
+      <c r="BX14" s="62"/>
+      <c r="BY14" s="65"/>
+      <c r="BZ14" s="65"/>
+      <c r="CA14" s="62"/>
+      <c r="CB14" s="64"/>
+      <c r="CC14" s="64"/>
+      <c r="CD14" s="62"/>
+      <c r="CE14" s="64"/>
+      <c r="CF14" s="64"/>
+      <c r="CG14" s="62"/>
+      <c r="CH14" s="64"/>
+      <c r="CI14" s="64"/>
+      <c r="CJ14" s="62"/>
+      <c r="CK14" s="62"/>
+      <c r="CL14" s="62"/>
+      <c r="CM14" s="62"/>
+      <c r="CN14" s="62"/>
+      <c r="CO14" s="62"/>
+      <c r="CP14" s="62"/>
+      <c r="CQ14" s="62"/>
+      <c r="CR14" s="62"/>
+      <c r="CS14" s="63"/>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:97" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -3831,8 +7081,48 @@
       <c r="AX15" s="10"/>
       <c r="AY15" s="10"/>
       <c r="AZ15" s="11"/>
+      <c r="BF15" s="61"/>
+      <c r="BG15" s="62"/>
+      <c r="BH15" s="62"/>
+      <c r="BI15" s="62"/>
+      <c r="BJ15" s="62"/>
+      <c r="BK15" s="62"/>
+      <c r="BL15" s="62"/>
+      <c r="BM15" s="62"/>
+      <c r="BN15" s="62"/>
+      <c r="BO15" s="62"/>
+      <c r="BP15" s="62"/>
+      <c r="BQ15" s="62"/>
+      <c r="BR15" s="62"/>
+      <c r="BS15" s="62"/>
+      <c r="BT15" s="62"/>
+      <c r="BU15" s="62"/>
+      <c r="BV15" s="64"/>
+      <c r="BW15" s="64"/>
+      <c r="BX15" s="62"/>
+      <c r="BY15" s="65"/>
+      <c r="BZ15" s="65"/>
+      <c r="CA15" s="62"/>
+      <c r="CB15" s="64"/>
+      <c r="CC15" s="64"/>
+      <c r="CD15" s="62"/>
+      <c r="CE15" s="64"/>
+      <c r="CF15" s="64"/>
+      <c r="CG15" s="62"/>
+      <c r="CH15" s="64"/>
+      <c r="CI15" s="64"/>
+      <c r="CJ15" s="62"/>
+      <c r="CK15" s="62"/>
+      <c r="CL15" s="62"/>
+      <c r="CM15" s="62"/>
+      <c r="CN15" s="62"/>
+      <c r="CO15" s="62"/>
+      <c r="CP15" s="62"/>
+      <c r="CQ15" s="62"/>
+      <c r="CR15" s="62"/>
+      <c r="CS15" s="63"/>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:97" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -3885,8 +7175,48 @@
       <c r="AX16" s="10"/>
       <c r="AY16" s="10"/>
       <c r="AZ16" s="11"/>
+      <c r="BF16" s="61"/>
+      <c r="BG16" s="62"/>
+      <c r="BH16" s="62"/>
+      <c r="BI16" s="62"/>
+      <c r="BJ16" s="62"/>
+      <c r="BK16" s="62"/>
+      <c r="BL16" s="62"/>
+      <c r="BM16" s="62"/>
+      <c r="BN16" s="62"/>
+      <c r="BO16" s="62"/>
+      <c r="BP16" s="62"/>
+      <c r="BQ16" s="62"/>
+      <c r="BR16" s="62"/>
+      <c r="BS16" s="62"/>
+      <c r="BT16" s="62"/>
+      <c r="BU16" s="62"/>
+      <c r="BV16" s="64"/>
+      <c r="BW16" s="64"/>
+      <c r="BX16" s="62"/>
+      <c r="BY16" s="65"/>
+      <c r="BZ16" s="65"/>
+      <c r="CA16" s="62"/>
+      <c r="CB16" s="64"/>
+      <c r="CC16" s="64"/>
+      <c r="CD16" s="62"/>
+      <c r="CE16" s="64"/>
+      <c r="CF16" s="64"/>
+      <c r="CG16" s="62"/>
+      <c r="CH16" s="64"/>
+      <c r="CI16" s="64"/>
+      <c r="CJ16" s="62"/>
+      <c r="CK16" s="62"/>
+      <c r="CL16" s="62"/>
+      <c r="CM16" s="62"/>
+      <c r="CN16" s="62"/>
+      <c r="CO16" s="62"/>
+      <c r="CP16" s="62"/>
+      <c r="CQ16" s="62"/>
+      <c r="CR16" s="62"/>
+      <c r="CS16" s="63"/>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A17" s="9"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -3939,8 +7269,48 @@
       <c r="AX17" s="10"/>
       <c r="AY17" s="10"/>
       <c r="AZ17" s="11"/>
+      <c r="BF17" s="61"/>
+      <c r="BG17" s="62"/>
+      <c r="BH17" s="62"/>
+      <c r="BI17" s="62"/>
+      <c r="BJ17" s="62"/>
+      <c r="BK17" s="62"/>
+      <c r="BL17" s="62"/>
+      <c r="BM17" s="62"/>
+      <c r="BN17" s="62"/>
+      <c r="BO17" s="62"/>
+      <c r="BP17" s="62"/>
+      <c r="BQ17" s="62"/>
+      <c r="BR17" s="62"/>
+      <c r="BS17" s="62"/>
+      <c r="BT17" s="62"/>
+      <c r="BU17" s="62"/>
+      <c r="BV17" s="62"/>
+      <c r="BW17" s="62"/>
+      <c r="BX17" s="62"/>
+      <c r="BY17" s="62"/>
+      <c r="BZ17" s="62"/>
+      <c r="CA17" s="62"/>
+      <c r="CB17" s="62"/>
+      <c r="CC17" s="62"/>
+      <c r="CD17" s="62"/>
+      <c r="CE17" s="62"/>
+      <c r="CF17" s="62"/>
+      <c r="CG17" s="62"/>
+      <c r="CH17" s="62"/>
+      <c r="CI17" s="62"/>
+      <c r="CJ17" s="62"/>
+      <c r="CK17" s="62"/>
+      <c r="CL17" s="62"/>
+      <c r="CM17" s="62"/>
+      <c r="CN17" s="62"/>
+      <c r="CO17" s="62"/>
+      <c r="CP17" s="62"/>
+      <c r="CQ17" s="62"/>
+      <c r="CR17" s="62"/>
+      <c r="CS17" s="63"/>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A18" s="9"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -3993,8 +7363,48 @@
       <c r="AX18" s="10"/>
       <c r="AY18" s="10"/>
       <c r="AZ18" s="11"/>
+      <c r="BF18" s="61"/>
+      <c r="BG18" s="62"/>
+      <c r="BH18" s="62"/>
+      <c r="BI18" s="62"/>
+      <c r="BJ18" s="62"/>
+      <c r="BK18" s="62"/>
+      <c r="BL18" s="62"/>
+      <c r="BM18" s="62"/>
+      <c r="BN18" s="62"/>
+      <c r="BO18" s="62"/>
+      <c r="BP18" s="62"/>
+      <c r="BQ18" s="62"/>
+      <c r="BR18" s="62"/>
+      <c r="BS18" s="62"/>
+      <c r="BT18" s="62"/>
+      <c r="BU18" s="62"/>
+      <c r="BV18" s="62"/>
+      <c r="BW18" s="62"/>
+      <c r="BX18" s="62"/>
+      <c r="BY18" s="62"/>
+      <c r="BZ18" s="62"/>
+      <c r="CA18" s="62"/>
+      <c r="CB18" s="62"/>
+      <c r="CC18" s="62"/>
+      <c r="CD18" s="62"/>
+      <c r="CE18" s="62"/>
+      <c r="CF18" s="62"/>
+      <c r="CG18" s="62"/>
+      <c r="CH18" s="62"/>
+      <c r="CI18" s="62"/>
+      <c r="CJ18" s="62"/>
+      <c r="CK18" s="62"/>
+      <c r="CL18" s="62"/>
+      <c r="CM18" s="62"/>
+      <c r="CN18" s="62"/>
+      <c r="CO18" s="62"/>
+      <c r="CP18" s="62"/>
+      <c r="CQ18" s="62"/>
+      <c r="CR18" s="62"/>
+      <c r="CS18" s="63"/>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A19" s="9"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -4047,8 +7457,48 @@
       <c r="AX19" s="10"/>
       <c r="AY19" s="10"/>
       <c r="AZ19" s="11"/>
+      <c r="BF19" s="61"/>
+      <c r="BG19" s="62"/>
+      <c r="BH19" s="62"/>
+      <c r="BI19" s="62"/>
+      <c r="BJ19" s="62"/>
+      <c r="BK19" s="62"/>
+      <c r="BL19" s="62"/>
+      <c r="BM19" s="62"/>
+      <c r="BN19" s="62"/>
+      <c r="BO19" s="62"/>
+      <c r="BP19" s="62"/>
+      <c r="BQ19" s="62"/>
+      <c r="BR19" s="62"/>
+      <c r="BS19" s="62"/>
+      <c r="BT19" s="62"/>
+      <c r="BU19" s="62"/>
+      <c r="BV19" s="62"/>
+      <c r="BW19" s="62"/>
+      <c r="BX19" s="62"/>
+      <c r="BY19" s="62"/>
+      <c r="BZ19" s="62"/>
+      <c r="CA19" s="62"/>
+      <c r="CB19" s="62"/>
+      <c r="CC19" s="62"/>
+      <c r="CD19" s="62"/>
+      <c r="CE19" s="62"/>
+      <c r="CF19" s="62"/>
+      <c r="CG19" s="62"/>
+      <c r="CH19" s="62"/>
+      <c r="CI19" s="62"/>
+      <c r="CJ19" s="62"/>
+      <c r="CK19" s="62"/>
+      <c r="CL19" s="62"/>
+      <c r="CM19" s="62"/>
+      <c r="CN19" s="62"/>
+      <c r="CO19" s="62"/>
+      <c r="CP19" s="62"/>
+      <c r="CQ19" s="62"/>
+      <c r="CR19" s="62"/>
+      <c r="CS19" s="63"/>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A20" s="9"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -4101,8 +7551,48 @@
       <c r="AX20" s="10"/>
       <c r="AY20" s="10"/>
       <c r="AZ20" s="11"/>
+      <c r="BF20" s="61"/>
+      <c r="BG20" s="62"/>
+      <c r="BH20" s="62"/>
+      <c r="BI20" s="62"/>
+      <c r="BJ20" s="62"/>
+      <c r="BK20" s="62"/>
+      <c r="BL20" s="62"/>
+      <c r="BM20" s="62"/>
+      <c r="BN20" s="62"/>
+      <c r="BO20" s="62"/>
+      <c r="BP20" s="62"/>
+      <c r="BQ20" s="62"/>
+      <c r="BR20" s="62"/>
+      <c r="BS20" s="62"/>
+      <c r="BT20" s="62"/>
+      <c r="BU20" s="62"/>
+      <c r="BV20" s="62"/>
+      <c r="BW20" s="62"/>
+      <c r="BX20" s="62"/>
+      <c r="BY20" s="62"/>
+      <c r="BZ20" s="62"/>
+      <c r="CA20" s="62"/>
+      <c r="CB20" s="62"/>
+      <c r="CC20" s="62"/>
+      <c r="CD20" s="62"/>
+      <c r="CE20" s="62"/>
+      <c r="CF20" s="62"/>
+      <c r="CG20" s="62"/>
+      <c r="CH20" s="62"/>
+      <c r="CI20" s="62"/>
+      <c r="CJ20" s="62"/>
+      <c r="CK20" s="62"/>
+      <c r="CL20" s="62"/>
+      <c r="CM20" s="62"/>
+      <c r="CN20" s="62"/>
+      <c r="CO20" s="62"/>
+      <c r="CP20" s="62"/>
+      <c r="CQ20" s="62"/>
+      <c r="CR20" s="62"/>
+      <c r="CS20" s="63"/>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A21" s="9"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -4155,8 +7645,48 @@
       <c r="AX21" s="10"/>
       <c r="AY21" s="10"/>
       <c r="AZ21" s="11"/>
+      <c r="BF21" s="61"/>
+      <c r="BG21" s="62"/>
+      <c r="BH21" s="62"/>
+      <c r="BI21" s="62"/>
+      <c r="BJ21" s="62"/>
+      <c r="BK21" s="62"/>
+      <c r="BL21" s="62"/>
+      <c r="BM21" s="62"/>
+      <c r="BN21" s="62"/>
+      <c r="BO21" s="62"/>
+      <c r="BP21" s="62"/>
+      <c r="BQ21" s="62"/>
+      <c r="BR21" s="62"/>
+      <c r="BS21" s="62"/>
+      <c r="BT21" s="62"/>
+      <c r="BU21" s="62"/>
+      <c r="BV21" s="62"/>
+      <c r="BW21" s="62"/>
+      <c r="BX21" s="62"/>
+      <c r="BY21" s="62"/>
+      <c r="BZ21" s="62"/>
+      <c r="CA21" s="62"/>
+      <c r="CB21" s="62"/>
+      <c r="CC21" s="62"/>
+      <c r="CD21" s="62"/>
+      <c r="CE21" s="62"/>
+      <c r="CF21" s="62"/>
+      <c r="CG21" s="62"/>
+      <c r="CH21" s="62"/>
+      <c r="CI21" s="62"/>
+      <c r="CJ21" s="62"/>
+      <c r="CK21" s="62"/>
+      <c r="CL21" s="62"/>
+      <c r="CM21" s="62"/>
+      <c r="CN21" s="62"/>
+      <c r="CO21" s="62"/>
+      <c r="CP21" s="62"/>
+      <c r="CQ21" s="62"/>
+      <c r="CR21" s="62"/>
+      <c r="CS21" s="63"/>
     </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A22" s="9"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -4209,8 +7739,48 @@
       <c r="AX22" s="10"/>
       <c r="AY22" s="10"/>
       <c r="AZ22" s="11"/>
+      <c r="BF22" s="61"/>
+      <c r="BG22" s="62"/>
+      <c r="BH22" s="62"/>
+      <c r="BI22" s="62"/>
+      <c r="BJ22" s="62"/>
+      <c r="BK22" s="62"/>
+      <c r="BL22" s="62"/>
+      <c r="BM22" s="62"/>
+      <c r="BN22" s="62"/>
+      <c r="BO22" s="62"/>
+      <c r="BP22" s="62"/>
+      <c r="BQ22" s="62"/>
+      <c r="BR22" s="62"/>
+      <c r="BS22" s="62"/>
+      <c r="BT22" s="62"/>
+      <c r="BU22" s="62"/>
+      <c r="BV22" s="62"/>
+      <c r="BW22" s="62"/>
+      <c r="BX22" s="62"/>
+      <c r="BY22" s="62"/>
+      <c r="BZ22" s="62"/>
+      <c r="CA22" s="62"/>
+      <c r="CB22" s="62"/>
+      <c r="CC22" s="62"/>
+      <c r="CD22" s="62"/>
+      <c r="CE22" s="62"/>
+      <c r="CF22" s="62"/>
+      <c r="CG22" s="62"/>
+      <c r="CH22" s="62"/>
+      <c r="CI22" s="62"/>
+      <c r="CJ22" s="62"/>
+      <c r="CK22" s="62"/>
+      <c r="CL22" s="62"/>
+      <c r="CM22" s="62"/>
+      <c r="CN22" s="62"/>
+      <c r="CO22" s="62"/>
+      <c r="CP22" s="62"/>
+      <c r="CQ22" s="62"/>
+      <c r="CR22" s="62"/>
+      <c r="CS22" s="63"/>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A23" s="9"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -4263,8 +7833,48 @@
       <c r="AX23" s="10"/>
       <c r="AY23" s="10"/>
       <c r="AZ23" s="11"/>
+      <c r="BF23" s="61"/>
+      <c r="BG23" s="62"/>
+      <c r="BH23" s="62"/>
+      <c r="BI23" s="62"/>
+      <c r="BJ23" s="62"/>
+      <c r="BK23" s="62"/>
+      <c r="BL23" s="62"/>
+      <c r="BM23" s="62"/>
+      <c r="BN23" s="62"/>
+      <c r="BO23" s="62"/>
+      <c r="BP23" s="62"/>
+      <c r="BQ23" s="62"/>
+      <c r="BR23" s="62"/>
+      <c r="BS23" s="62"/>
+      <c r="BT23" s="62"/>
+      <c r="BU23" s="62"/>
+      <c r="BV23" s="62"/>
+      <c r="BW23" s="62"/>
+      <c r="BX23" s="62"/>
+      <c r="BY23" s="62"/>
+      <c r="BZ23" s="62"/>
+      <c r="CA23" s="62"/>
+      <c r="CB23" s="62"/>
+      <c r="CC23" s="62"/>
+      <c r="CD23" s="62"/>
+      <c r="CE23" s="62"/>
+      <c r="CF23" s="62"/>
+      <c r="CG23" s="62"/>
+      <c r="CH23" s="62"/>
+      <c r="CI23" s="62"/>
+      <c r="CJ23" s="62"/>
+      <c r="CK23" s="62"/>
+      <c r="CL23" s="62"/>
+      <c r="CM23" s="62"/>
+      <c r="CN23" s="62"/>
+      <c r="CO23" s="62"/>
+      <c r="CP23" s="62"/>
+      <c r="CQ23" s="62"/>
+      <c r="CR23" s="62"/>
+      <c r="CS23" s="63"/>
     </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A24" s="9"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -4317,8 +7927,48 @@
       <c r="AX24" s="10"/>
       <c r="AY24" s="10"/>
       <c r="AZ24" s="11"/>
+      <c r="BF24" s="61"/>
+      <c r="BG24" s="62"/>
+      <c r="BH24" s="62"/>
+      <c r="BI24" s="62"/>
+      <c r="BJ24" s="62"/>
+      <c r="BK24" s="62"/>
+      <c r="BL24" s="62"/>
+      <c r="BM24" s="62"/>
+      <c r="BN24" s="62"/>
+      <c r="BO24" s="62"/>
+      <c r="BP24" s="62"/>
+      <c r="BQ24" s="62"/>
+      <c r="BR24" s="62"/>
+      <c r="BS24" s="62"/>
+      <c r="BT24" s="62"/>
+      <c r="BU24" s="62"/>
+      <c r="BV24" s="62"/>
+      <c r="BW24" s="62"/>
+      <c r="BX24" s="62"/>
+      <c r="BY24" s="62"/>
+      <c r="BZ24" s="62"/>
+      <c r="CA24" s="62"/>
+      <c r="CB24" s="62"/>
+      <c r="CC24" s="62"/>
+      <c r="CD24" s="62"/>
+      <c r="CE24" s="62"/>
+      <c r="CF24" s="62"/>
+      <c r="CG24" s="62"/>
+      <c r="CH24" s="62"/>
+      <c r="CI24" s="62"/>
+      <c r="CJ24" s="62"/>
+      <c r="CK24" s="62"/>
+      <c r="CL24" s="62"/>
+      <c r="CM24" s="62"/>
+      <c r="CN24" s="62"/>
+      <c r="CO24" s="62"/>
+      <c r="CP24" s="62"/>
+      <c r="CQ24" s="62"/>
+      <c r="CR24" s="62"/>
+      <c r="CS24" s="63"/>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A25" s="9"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -4371,8 +8021,48 @@
       <c r="AX25" s="10"/>
       <c r="AY25" s="10"/>
       <c r="AZ25" s="11"/>
+      <c r="BF25" s="61"/>
+      <c r="BG25" s="62"/>
+      <c r="BH25" s="62"/>
+      <c r="BI25" s="62"/>
+      <c r="BJ25" s="62"/>
+      <c r="BK25" s="62"/>
+      <c r="BL25" s="62"/>
+      <c r="BM25" s="62"/>
+      <c r="BN25" s="62"/>
+      <c r="BO25" s="62"/>
+      <c r="BP25" s="62"/>
+      <c r="BQ25" s="62"/>
+      <c r="BR25" s="62"/>
+      <c r="BS25" s="62"/>
+      <c r="BT25" s="62"/>
+      <c r="BU25" s="62"/>
+      <c r="BV25" s="62"/>
+      <c r="BW25" s="62"/>
+      <c r="BX25" s="62"/>
+      <c r="BY25" s="62"/>
+      <c r="BZ25" s="62"/>
+      <c r="CA25" s="62"/>
+      <c r="CB25" s="62"/>
+      <c r="CC25" s="62"/>
+      <c r="CD25" s="62"/>
+      <c r="CE25" s="62"/>
+      <c r="CF25" s="62"/>
+      <c r="CG25" s="62"/>
+      <c r="CH25" s="62"/>
+      <c r="CI25" s="62"/>
+      <c r="CJ25" s="62"/>
+      <c r="CK25" s="62"/>
+      <c r="CL25" s="62"/>
+      <c r="CM25" s="62"/>
+      <c r="CN25" s="62"/>
+      <c r="CO25" s="62"/>
+      <c r="CP25" s="62"/>
+      <c r="CQ25" s="62"/>
+      <c r="CR25" s="62"/>
+      <c r="CS25" s="63"/>
     </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -4425,8 +8115,48 @@
       <c r="AX26" s="10"/>
       <c r="AY26" s="10"/>
       <c r="AZ26" s="11"/>
+      <c r="BF26" s="61"/>
+      <c r="BG26" s="62"/>
+      <c r="BH26" s="62"/>
+      <c r="BI26" s="62"/>
+      <c r="BJ26" s="62"/>
+      <c r="BK26" s="62"/>
+      <c r="BL26" s="62"/>
+      <c r="BM26" s="62"/>
+      <c r="BN26" s="62"/>
+      <c r="BO26" s="62"/>
+      <c r="BP26" s="62"/>
+      <c r="BQ26" s="62"/>
+      <c r="BR26" s="62"/>
+      <c r="BS26" s="62"/>
+      <c r="BT26" s="62"/>
+      <c r="BU26" s="62"/>
+      <c r="BV26" s="62"/>
+      <c r="BW26" s="62"/>
+      <c r="BX26" s="62"/>
+      <c r="BY26" s="62"/>
+      <c r="BZ26" s="62"/>
+      <c r="CA26" s="62"/>
+      <c r="CB26" s="62"/>
+      <c r="CC26" s="62"/>
+      <c r="CD26" s="62"/>
+      <c r="CE26" s="62"/>
+      <c r="CF26" s="62"/>
+      <c r="CG26" s="62"/>
+      <c r="CH26" s="62"/>
+      <c r="CI26" s="62"/>
+      <c r="CJ26" s="62"/>
+      <c r="CK26" s="62"/>
+      <c r="CL26" s="62"/>
+      <c r="CM26" s="62"/>
+      <c r="CN26" s="62"/>
+      <c r="CO26" s="62"/>
+      <c r="CP26" s="62"/>
+      <c r="CQ26" s="62"/>
+      <c r="CR26" s="62"/>
+      <c r="CS26" s="63"/>
     </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A27" s="9"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -4479,8 +8209,48 @@
       <c r="AX27" s="10"/>
       <c r="AY27" s="10"/>
       <c r="AZ27" s="11"/>
+      <c r="BF27" s="61"/>
+      <c r="BG27" s="62"/>
+      <c r="BH27" s="62"/>
+      <c r="BI27" s="62"/>
+      <c r="BJ27" s="62"/>
+      <c r="BK27" s="62"/>
+      <c r="BL27" s="62"/>
+      <c r="BM27" s="62"/>
+      <c r="BN27" s="62"/>
+      <c r="BO27" s="62"/>
+      <c r="BP27" s="62"/>
+      <c r="BQ27" s="62"/>
+      <c r="BR27" s="62"/>
+      <c r="BS27" s="62"/>
+      <c r="BT27" s="62"/>
+      <c r="BU27" s="62"/>
+      <c r="BV27" s="62"/>
+      <c r="BW27" s="62"/>
+      <c r="BX27" s="62"/>
+      <c r="BY27" s="62"/>
+      <c r="BZ27" s="62"/>
+      <c r="CA27" s="62"/>
+      <c r="CB27" s="62"/>
+      <c r="CC27" s="62"/>
+      <c r="CD27" s="62"/>
+      <c r="CE27" s="62"/>
+      <c r="CF27" s="62"/>
+      <c r="CG27" s="62"/>
+      <c r="CH27" s="62"/>
+      <c r="CI27" s="62"/>
+      <c r="CJ27" s="62"/>
+      <c r="CK27" s="62"/>
+      <c r="CL27" s="62"/>
+      <c r="CM27" s="62"/>
+      <c r="CN27" s="62"/>
+      <c r="CO27" s="62"/>
+      <c r="CP27" s="62"/>
+      <c r="CQ27" s="62"/>
+      <c r="CR27" s="62"/>
+      <c r="CS27" s="63"/>
     </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A28" s="9"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -4533,8 +8303,48 @@
       <c r="AX28" s="10"/>
       <c r="AY28" s="10"/>
       <c r="AZ28" s="11"/>
+      <c r="BF28" s="61"/>
+      <c r="BG28" s="62"/>
+      <c r="BH28" s="62"/>
+      <c r="BI28" s="62"/>
+      <c r="BJ28" s="62"/>
+      <c r="BK28" s="62"/>
+      <c r="BL28" s="62"/>
+      <c r="BM28" s="62"/>
+      <c r="BN28" s="62"/>
+      <c r="BO28" s="62"/>
+      <c r="BP28" s="62"/>
+      <c r="BQ28" s="62"/>
+      <c r="BR28" s="62"/>
+      <c r="BS28" s="62"/>
+      <c r="BT28" s="62"/>
+      <c r="BU28" s="62"/>
+      <c r="BV28" s="62"/>
+      <c r="BW28" s="62"/>
+      <c r="BX28" s="62"/>
+      <c r="BY28" s="62"/>
+      <c r="BZ28" s="62"/>
+      <c r="CA28" s="62"/>
+      <c r="CB28" s="62"/>
+      <c r="CC28" s="62"/>
+      <c r="CD28" s="62"/>
+      <c r="CE28" s="62"/>
+      <c r="CF28" s="62"/>
+      <c r="CG28" s="62"/>
+      <c r="CH28" s="62"/>
+      <c r="CI28" s="62"/>
+      <c r="CJ28" s="62"/>
+      <c r="CK28" s="62"/>
+      <c r="CL28" s="62"/>
+      <c r="CM28" s="62"/>
+      <c r="CN28" s="62"/>
+      <c r="CO28" s="62"/>
+      <c r="CP28" s="62"/>
+      <c r="CQ28" s="62"/>
+      <c r="CR28" s="62"/>
+      <c r="CS28" s="63"/>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A29" s="9"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -4587,8 +8397,48 @@
       <c r="AX29" s="10"/>
       <c r="AY29" s="10"/>
       <c r="AZ29" s="11"/>
+      <c r="BF29" s="61"/>
+      <c r="BG29" s="62"/>
+      <c r="BH29" s="62"/>
+      <c r="BI29" s="62"/>
+      <c r="BJ29" s="62"/>
+      <c r="BK29" s="62"/>
+      <c r="BL29" s="62"/>
+      <c r="BM29" s="62"/>
+      <c r="BN29" s="62"/>
+      <c r="BO29" s="62"/>
+      <c r="BP29" s="62"/>
+      <c r="BQ29" s="62"/>
+      <c r="BR29" s="62"/>
+      <c r="BS29" s="62"/>
+      <c r="BT29" s="62"/>
+      <c r="BU29" s="62"/>
+      <c r="BV29" s="62"/>
+      <c r="BW29" s="62"/>
+      <c r="BX29" s="62"/>
+      <c r="BY29" s="62"/>
+      <c r="BZ29" s="62"/>
+      <c r="CA29" s="62"/>
+      <c r="CB29" s="62"/>
+      <c r="CC29" s="62"/>
+      <c r="CD29" s="62"/>
+      <c r="CE29" s="62"/>
+      <c r="CF29" s="62"/>
+      <c r="CG29" s="62"/>
+      <c r="CH29" s="62"/>
+      <c r="CI29" s="62"/>
+      <c r="CJ29" s="62"/>
+      <c r="CK29" s="62"/>
+      <c r="CL29" s="62"/>
+      <c r="CM29" s="62"/>
+      <c r="CN29" s="62"/>
+      <c r="CO29" s="62"/>
+      <c r="CP29" s="62"/>
+      <c r="CQ29" s="62"/>
+      <c r="CR29" s="62"/>
+      <c r="CS29" s="63"/>
     </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A30" s="9"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -4641,8 +8491,48 @@
       <c r="AX30" s="10"/>
       <c r="AY30" s="10"/>
       <c r="AZ30" s="11"/>
+      <c r="BF30" s="61"/>
+      <c r="BG30" s="62"/>
+      <c r="BH30" s="62"/>
+      <c r="BI30" s="62"/>
+      <c r="BJ30" s="62"/>
+      <c r="BK30" s="62"/>
+      <c r="BL30" s="62"/>
+      <c r="BM30" s="62"/>
+      <c r="BN30" s="62"/>
+      <c r="BO30" s="62"/>
+      <c r="BP30" s="62"/>
+      <c r="BQ30" s="62"/>
+      <c r="BR30" s="62"/>
+      <c r="BS30" s="62"/>
+      <c r="BT30" s="62"/>
+      <c r="BU30" s="62"/>
+      <c r="BV30" s="62"/>
+      <c r="BW30" s="62"/>
+      <c r="BX30" s="62"/>
+      <c r="BY30" s="62"/>
+      <c r="BZ30" s="62"/>
+      <c r="CA30" s="62"/>
+      <c r="CB30" s="62"/>
+      <c r="CC30" s="62"/>
+      <c r="CD30" s="62"/>
+      <c r="CE30" s="62"/>
+      <c r="CF30" s="62"/>
+      <c r="CG30" s="62"/>
+      <c r="CH30" s="62"/>
+      <c r="CI30" s="62"/>
+      <c r="CJ30" s="62"/>
+      <c r="CK30" s="62"/>
+      <c r="CL30" s="62"/>
+      <c r="CM30" s="62"/>
+      <c r="CN30" s="62"/>
+      <c r="CO30" s="62"/>
+      <c r="CP30" s="62"/>
+      <c r="CQ30" s="62"/>
+      <c r="CR30" s="62"/>
+      <c r="CS30" s="63"/>
     </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A31" s="9"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -4695,8 +8585,48 @@
       <c r="AX31" s="10"/>
       <c r="AY31" s="10"/>
       <c r="AZ31" s="11"/>
+      <c r="BF31" s="61"/>
+      <c r="BG31" s="62"/>
+      <c r="BH31" s="62"/>
+      <c r="BI31" s="62"/>
+      <c r="BJ31" s="62"/>
+      <c r="BK31" s="62"/>
+      <c r="BL31" s="62"/>
+      <c r="BM31" s="62"/>
+      <c r="BN31" s="62"/>
+      <c r="BO31" s="62"/>
+      <c r="BP31" s="62"/>
+      <c r="BQ31" s="62"/>
+      <c r="BR31" s="62"/>
+      <c r="BS31" s="62"/>
+      <c r="BT31" s="62"/>
+      <c r="BU31" s="62"/>
+      <c r="BV31" s="62"/>
+      <c r="BW31" s="62"/>
+      <c r="BX31" s="62"/>
+      <c r="BY31" s="62"/>
+      <c r="BZ31" s="62"/>
+      <c r="CA31" s="62"/>
+      <c r="CB31" s="62"/>
+      <c r="CC31" s="62"/>
+      <c r="CD31" s="62"/>
+      <c r="CE31" s="62"/>
+      <c r="CF31" s="62"/>
+      <c r="CG31" s="62"/>
+      <c r="CH31" s="62"/>
+      <c r="CI31" s="62"/>
+      <c r="CJ31" s="62"/>
+      <c r="CK31" s="62"/>
+      <c r="CL31" s="62"/>
+      <c r="CM31" s="62"/>
+      <c r="CN31" s="62"/>
+      <c r="CO31" s="62"/>
+      <c r="CP31" s="62"/>
+      <c r="CQ31" s="62"/>
+      <c r="CR31" s="62"/>
+      <c r="CS31" s="63"/>
     </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A32" s="9"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -4749,8 +8679,48 @@
       <c r="AX32" s="10"/>
       <c r="AY32" s="10"/>
       <c r="AZ32" s="11"/>
+      <c r="BF32" s="61"/>
+      <c r="BG32" s="62"/>
+      <c r="BH32" s="62"/>
+      <c r="BI32" s="62"/>
+      <c r="BJ32" s="62"/>
+      <c r="BK32" s="62"/>
+      <c r="BL32" s="62"/>
+      <c r="BM32" s="62"/>
+      <c r="BN32" s="62"/>
+      <c r="BO32" s="62"/>
+      <c r="BP32" s="62"/>
+      <c r="BQ32" s="62"/>
+      <c r="BR32" s="62"/>
+      <c r="BS32" s="62"/>
+      <c r="BT32" s="62"/>
+      <c r="BU32" s="62"/>
+      <c r="BV32" s="62"/>
+      <c r="BW32" s="62"/>
+      <c r="BX32" s="62"/>
+      <c r="BY32" s="62"/>
+      <c r="BZ32" s="62"/>
+      <c r="CA32" s="62"/>
+      <c r="CB32" s="62"/>
+      <c r="CC32" s="62"/>
+      <c r="CD32" s="62"/>
+      <c r="CE32" s="62"/>
+      <c r="CF32" s="62"/>
+      <c r="CG32" s="62"/>
+      <c r="CH32" s="62"/>
+      <c r="CI32" s="62"/>
+      <c r="CJ32" s="62"/>
+      <c r="CK32" s="62"/>
+      <c r="CL32" s="62"/>
+      <c r="CM32" s="62"/>
+      <c r="CN32" s="62"/>
+      <c r="CO32" s="62"/>
+      <c r="CP32" s="62"/>
+      <c r="CQ32" s="62"/>
+      <c r="CR32" s="62"/>
+      <c r="CS32" s="63"/>
     </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A33" s="9"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -4803,8 +8773,48 @@
       <c r="AX33" s="10"/>
       <c r="AY33" s="10"/>
       <c r="AZ33" s="11"/>
+      <c r="BF33" s="61"/>
+      <c r="BG33" s="62"/>
+      <c r="BH33" s="62"/>
+      <c r="BI33" s="62"/>
+      <c r="BJ33" s="62"/>
+      <c r="BK33" s="62"/>
+      <c r="BL33" s="62"/>
+      <c r="BM33" s="62"/>
+      <c r="BN33" s="62"/>
+      <c r="BO33" s="62"/>
+      <c r="BP33" s="62"/>
+      <c r="BQ33" s="62"/>
+      <c r="BR33" s="62"/>
+      <c r="BS33" s="62"/>
+      <c r="BT33" s="62"/>
+      <c r="BU33" s="62"/>
+      <c r="BV33" s="62"/>
+      <c r="BW33" s="62"/>
+      <c r="BX33" s="62"/>
+      <c r="BY33" s="62"/>
+      <c r="BZ33" s="62"/>
+      <c r="CA33" s="62"/>
+      <c r="CB33" s="62"/>
+      <c r="CC33" s="62"/>
+      <c r="CD33" s="62"/>
+      <c r="CE33" s="62"/>
+      <c r="CF33" s="62"/>
+      <c r="CG33" s="62"/>
+      <c r="CH33" s="62"/>
+      <c r="CI33" s="62"/>
+      <c r="CJ33" s="62"/>
+      <c r="CK33" s="62"/>
+      <c r="CL33" s="62"/>
+      <c r="CM33" s="62"/>
+      <c r="CN33" s="62"/>
+      <c r="CO33" s="62"/>
+      <c r="CP33" s="62"/>
+      <c r="CQ33" s="62"/>
+      <c r="CR33" s="62"/>
+      <c r="CS33" s="63"/>
     </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A34" s="9"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -4857,8 +8867,48 @@
       <c r="AX34" s="10"/>
       <c r="AY34" s="10"/>
       <c r="AZ34" s="11"/>
+      <c r="BF34" s="61"/>
+      <c r="BG34" s="62"/>
+      <c r="BH34" s="62"/>
+      <c r="BI34" s="62"/>
+      <c r="BJ34" s="62"/>
+      <c r="BK34" s="62"/>
+      <c r="BL34" s="62"/>
+      <c r="BM34" s="62"/>
+      <c r="BN34" s="62"/>
+      <c r="BO34" s="62"/>
+      <c r="BP34" s="62"/>
+      <c r="BQ34" s="62"/>
+      <c r="BR34" s="62"/>
+      <c r="BS34" s="62"/>
+      <c r="BT34" s="62"/>
+      <c r="BU34" s="62"/>
+      <c r="BV34" s="62"/>
+      <c r="BW34" s="62"/>
+      <c r="BX34" s="62"/>
+      <c r="BY34" s="62"/>
+      <c r="BZ34" s="62"/>
+      <c r="CA34" s="62"/>
+      <c r="CB34" s="62"/>
+      <c r="CC34" s="62"/>
+      <c r="CD34" s="62"/>
+      <c r="CE34" s="62"/>
+      <c r="CF34" s="62"/>
+      <c r="CG34" s="62"/>
+      <c r="CH34" s="62"/>
+      <c r="CI34" s="62"/>
+      <c r="CJ34" s="62"/>
+      <c r="CK34" s="62"/>
+      <c r="CL34" s="62"/>
+      <c r="CM34" s="62"/>
+      <c r="CN34" s="62"/>
+      <c r="CO34" s="62"/>
+      <c r="CP34" s="62"/>
+      <c r="CQ34" s="62"/>
+      <c r="CR34" s="62"/>
+      <c r="CS34" s="63"/>
     </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A35" s="9"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -4911,8 +8961,48 @@
       <c r="AX35" s="10"/>
       <c r="AY35" s="10"/>
       <c r="AZ35" s="11"/>
+      <c r="BF35" s="61"/>
+      <c r="BG35" s="62"/>
+      <c r="BH35" s="62"/>
+      <c r="BI35" s="62"/>
+      <c r="BJ35" s="62"/>
+      <c r="BK35" s="62"/>
+      <c r="BL35" s="62"/>
+      <c r="BM35" s="62"/>
+      <c r="BN35" s="62"/>
+      <c r="BO35" s="62"/>
+      <c r="BP35" s="62"/>
+      <c r="BQ35" s="62"/>
+      <c r="BR35" s="62"/>
+      <c r="BS35" s="62"/>
+      <c r="BT35" s="62"/>
+      <c r="BU35" s="62"/>
+      <c r="BV35" s="62"/>
+      <c r="BW35" s="62"/>
+      <c r="BX35" s="62"/>
+      <c r="BY35" s="62"/>
+      <c r="BZ35" s="62"/>
+      <c r="CA35" s="62"/>
+      <c r="CB35" s="62"/>
+      <c r="CC35" s="62"/>
+      <c r="CD35" s="62"/>
+      <c r="CE35" s="62"/>
+      <c r="CF35" s="62"/>
+      <c r="CG35" s="62"/>
+      <c r="CH35" s="62"/>
+      <c r="CI35" s="62"/>
+      <c r="CJ35" s="62"/>
+      <c r="CK35" s="62"/>
+      <c r="CL35" s="62"/>
+      <c r="CM35" s="62"/>
+      <c r="CN35" s="62"/>
+      <c r="CO35" s="62"/>
+      <c r="CP35" s="62"/>
+      <c r="CQ35" s="62"/>
+      <c r="CR35" s="62"/>
+      <c r="CS35" s="63"/>
     </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A36" s="9"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -4965,8 +9055,48 @@
       <c r="AX36" s="10"/>
       <c r="AY36" s="10"/>
       <c r="AZ36" s="11"/>
+      <c r="BF36" s="61"/>
+      <c r="BG36" s="62"/>
+      <c r="BH36" s="62"/>
+      <c r="BI36" s="62"/>
+      <c r="BJ36" s="62"/>
+      <c r="BK36" s="62"/>
+      <c r="BL36" s="62"/>
+      <c r="BM36" s="62"/>
+      <c r="BN36" s="62"/>
+      <c r="BO36" s="62"/>
+      <c r="BP36" s="62"/>
+      <c r="BQ36" s="62"/>
+      <c r="BR36" s="62"/>
+      <c r="BS36" s="62"/>
+      <c r="BT36" s="62"/>
+      <c r="BU36" s="62"/>
+      <c r="BV36" s="62"/>
+      <c r="BW36" s="62"/>
+      <c r="BX36" s="62"/>
+      <c r="BY36" s="62"/>
+      <c r="BZ36" s="62"/>
+      <c r="CA36" s="62"/>
+      <c r="CB36" s="62"/>
+      <c r="CC36" s="62"/>
+      <c r="CD36" s="62"/>
+      <c r="CE36" s="62"/>
+      <c r="CF36" s="62"/>
+      <c r="CG36" s="62"/>
+      <c r="CH36" s="62"/>
+      <c r="CI36" s="62"/>
+      <c r="CJ36" s="62"/>
+      <c r="CK36" s="62"/>
+      <c r="CL36" s="62"/>
+      <c r="CM36" s="62"/>
+      <c r="CN36" s="62"/>
+      <c r="CO36" s="62"/>
+      <c r="CP36" s="62"/>
+      <c r="CQ36" s="62"/>
+      <c r="CR36" s="62"/>
+      <c r="CS36" s="63"/>
     </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A37" s="9"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -5019,8 +9149,48 @@
       <c r="AX37" s="10"/>
       <c r="AY37" s="10"/>
       <c r="AZ37" s="11"/>
+      <c r="BF37" s="61"/>
+      <c r="BG37" s="62"/>
+      <c r="BH37" s="62"/>
+      <c r="BI37" s="62"/>
+      <c r="BJ37" s="62"/>
+      <c r="BK37" s="62"/>
+      <c r="BL37" s="62"/>
+      <c r="BM37" s="62"/>
+      <c r="BN37" s="62"/>
+      <c r="BO37" s="62"/>
+      <c r="BP37" s="62"/>
+      <c r="BQ37" s="62"/>
+      <c r="BR37" s="62"/>
+      <c r="BS37" s="62"/>
+      <c r="BT37" s="62"/>
+      <c r="BU37" s="62"/>
+      <c r="BV37" s="62"/>
+      <c r="BW37" s="62"/>
+      <c r="BX37" s="62"/>
+      <c r="BY37" s="62"/>
+      <c r="BZ37" s="62"/>
+      <c r="CA37" s="62"/>
+      <c r="CB37" s="62"/>
+      <c r="CC37" s="62"/>
+      <c r="CD37" s="62"/>
+      <c r="CE37" s="62"/>
+      <c r="CF37" s="62"/>
+      <c r="CG37" s="62"/>
+      <c r="CH37" s="62"/>
+      <c r="CI37" s="62"/>
+      <c r="CJ37" s="62"/>
+      <c r="CK37" s="62"/>
+      <c r="CL37" s="62"/>
+      <c r="CM37" s="62"/>
+      <c r="CN37" s="62"/>
+      <c r="CO37" s="62"/>
+      <c r="CP37" s="62"/>
+      <c r="CQ37" s="62"/>
+      <c r="CR37" s="62"/>
+      <c r="CS37" s="63"/>
     </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A38" s="9"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -5073,8 +9243,48 @@
       <c r="AX38" s="10"/>
       <c r="AY38" s="10"/>
       <c r="AZ38" s="11"/>
+      <c r="BF38" s="61"/>
+      <c r="BG38" s="62"/>
+      <c r="BH38" s="62"/>
+      <c r="BI38" s="62"/>
+      <c r="BJ38" s="62"/>
+      <c r="BK38" s="62"/>
+      <c r="BL38" s="62"/>
+      <c r="BM38" s="62"/>
+      <c r="BN38" s="62"/>
+      <c r="BO38" s="62"/>
+      <c r="BP38" s="62"/>
+      <c r="BQ38" s="62"/>
+      <c r="BR38" s="62"/>
+      <c r="BS38" s="62"/>
+      <c r="BT38" s="62"/>
+      <c r="BU38" s="62"/>
+      <c r="BV38" s="62"/>
+      <c r="BW38" s="62"/>
+      <c r="BX38" s="62"/>
+      <c r="BY38" s="62"/>
+      <c r="BZ38" s="62"/>
+      <c r="CA38" s="62"/>
+      <c r="CB38" s="62"/>
+      <c r="CC38" s="62"/>
+      <c r="CD38" s="62"/>
+      <c r="CE38" s="62"/>
+      <c r="CF38" s="62"/>
+      <c r="CG38" s="62"/>
+      <c r="CH38" s="62"/>
+      <c r="CI38" s="62"/>
+      <c r="CJ38" s="62"/>
+      <c r="CK38" s="62"/>
+      <c r="CL38" s="62"/>
+      <c r="CM38" s="62"/>
+      <c r="CN38" s="62"/>
+      <c r="CO38" s="62"/>
+      <c r="CP38" s="62"/>
+      <c r="CQ38" s="62"/>
+      <c r="CR38" s="62"/>
+      <c r="CS38" s="63"/>
     </row>
-    <row r="39" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A39" s="9"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -5127,8 +9337,48 @@
       <c r="AX39" s="10"/>
       <c r="AY39" s="10"/>
       <c r="AZ39" s="11"/>
+      <c r="BF39" s="61"/>
+      <c r="BG39" s="62"/>
+      <c r="BH39" s="62"/>
+      <c r="BI39" s="62"/>
+      <c r="BJ39" s="62"/>
+      <c r="BK39" s="62"/>
+      <c r="BL39" s="62"/>
+      <c r="BM39" s="62"/>
+      <c r="BN39" s="62"/>
+      <c r="BO39" s="62"/>
+      <c r="BP39" s="62"/>
+      <c r="BQ39" s="62"/>
+      <c r="BR39" s="62"/>
+      <c r="BS39" s="62"/>
+      <c r="BT39" s="62"/>
+      <c r="BU39" s="62"/>
+      <c r="BV39" s="62"/>
+      <c r="BW39" s="62"/>
+      <c r="BX39" s="62"/>
+      <c r="BY39" s="62"/>
+      <c r="BZ39" s="62"/>
+      <c r="CA39" s="62"/>
+      <c r="CB39" s="62"/>
+      <c r="CC39" s="62"/>
+      <c r="CD39" s="62"/>
+      <c r="CE39" s="62"/>
+      <c r="CF39" s="62"/>
+      <c r="CG39" s="62"/>
+      <c r="CH39" s="62"/>
+      <c r="CI39" s="62"/>
+      <c r="CJ39" s="62"/>
+      <c r="CK39" s="62"/>
+      <c r="CL39" s="62"/>
+      <c r="CM39" s="62"/>
+      <c r="CN39" s="62"/>
+      <c r="CO39" s="62"/>
+      <c r="CP39" s="62"/>
+      <c r="CQ39" s="62"/>
+      <c r="CR39" s="62"/>
+      <c r="CS39" s="63"/>
     </row>
-    <row r="40" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A40" s="9"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -5181,8 +9431,48 @@
       <c r="AX40" s="10"/>
       <c r="AY40" s="10"/>
       <c r="AZ40" s="11"/>
+      <c r="BF40" s="61"/>
+      <c r="BG40" s="62"/>
+      <c r="BH40" s="62"/>
+      <c r="BI40" s="62"/>
+      <c r="BJ40" s="62"/>
+      <c r="BK40" s="62"/>
+      <c r="BL40" s="62"/>
+      <c r="BM40" s="62"/>
+      <c r="BN40" s="62"/>
+      <c r="BO40" s="62"/>
+      <c r="BP40" s="62"/>
+      <c r="BQ40" s="62"/>
+      <c r="BR40" s="62"/>
+      <c r="BS40" s="62"/>
+      <c r="BT40" s="62"/>
+      <c r="BU40" s="62"/>
+      <c r="BV40" s="62"/>
+      <c r="BW40" s="62"/>
+      <c r="BX40" s="62"/>
+      <c r="BY40" s="62"/>
+      <c r="BZ40" s="62"/>
+      <c r="CA40" s="62"/>
+      <c r="CB40" s="62"/>
+      <c r="CC40" s="62"/>
+      <c r="CD40" s="62"/>
+      <c r="CE40" s="62"/>
+      <c r="CF40" s="62"/>
+      <c r="CG40" s="62"/>
+      <c r="CH40" s="62"/>
+      <c r="CI40" s="62"/>
+      <c r="CJ40" s="62"/>
+      <c r="CK40" s="62"/>
+      <c r="CL40" s="62"/>
+      <c r="CM40" s="62"/>
+      <c r="CN40" s="62"/>
+      <c r="CO40" s="62"/>
+      <c r="CP40" s="62"/>
+      <c r="CQ40" s="62"/>
+      <c r="CR40" s="62"/>
+      <c r="CS40" s="63"/>
     </row>
-    <row r="41" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A41" s="9"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -5235,8 +9525,48 @@
       <c r="AX41" s="10"/>
       <c r="AY41" s="10"/>
       <c r="AZ41" s="11"/>
+      <c r="BF41" s="61"/>
+      <c r="BG41" s="62"/>
+      <c r="BH41" s="62"/>
+      <c r="BI41" s="62"/>
+      <c r="BJ41" s="62"/>
+      <c r="BK41" s="62"/>
+      <c r="BL41" s="62"/>
+      <c r="BM41" s="62"/>
+      <c r="BN41" s="62"/>
+      <c r="BO41" s="62"/>
+      <c r="BP41" s="62"/>
+      <c r="BQ41" s="62"/>
+      <c r="BR41" s="62"/>
+      <c r="BS41" s="62"/>
+      <c r="BT41" s="62"/>
+      <c r="BU41" s="62"/>
+      <c r="BV41" s="62"/>
+      <c r="BW41" s="62"/>
+      <c r="BX41" s="62"/>
+      <c r="BY41" s="62"/>
+      <c r="BZ41" s="62"/>
+      <c r="CA41" s="62"/>
+      <c r="CB41" s="62"/>
+      <c r="CC41" s="62"/>
+      <c r="CD41" s="62"/>
+      <c r="CE41" s="62"/>
+      <c r="CF41" s="62"/>
+      <c r="CG41" s="62"/>
+      <c r="CH41" s="62"/>
+      <c r="CI41" s="62"/>
+      <c r="CJ41" s="62"/>
+      <c r="CK41" s="62"/>
+      <c r="CL41" s="62"/>
+      <c r="CM41" s="62"/>
+      <c r="CN41" s="62"/>
+      <c r="CO41" s="62"/>
+      <c r="CP41" s="62"/>
+      <c r="CQ41" s="62"/>
+      <c r="CR41" s="62"/>
+      <c r="CS41" s="63"/>
     </row>
-    <row r="42" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A42" s="9"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -5289,8 +9619,48 @@
       <c r="AX42" s="10"/>
       <c r="AY42" s="10"/>
       <c r="AZ42" s="11"/>
+      <c r="BF42" s="61"/>
+      <c r="BG42" s="62"/>
+      <c r="BH42" s="62"/>
+      <c r="BI42" s="62"/>
+      <c r="BJ42" s="62"/>
+      <c r="BK42" s="62"/>
+      <c r="BL42" s="62"/>
+      <c r="BM42" s="62"/>
+      <c r="BN42" s="62"/>
+      <c r="BO42" s="62"/>
+      <c r="BP42" s="62"/>
+      <c r="BQ42" s="62"/>
+      <c r="BR42" s="62"/>
+      <c r="BS42" s="62"/>
+      <c r="BT42" s="62"/>
+      <c r="BU42" s="62"/>
+      <c r="BV42" s="62"/>
+      <c r="BW42" s="62"/>
+      <c r="BX42" s="62"/>
+      <c r="BY42" s="62"/>
+      <c r="BZ42" s="62"/>
+      <c r="CA42" s="62"/>
+      <c r="CB42" s="62"/>
+      <c r="CC42" s="62"/>
+      <c r="CD42" s="62"/>
+      <c r="CE42" s="62"/>
+      <c r="CF42" s="62"/>
+      <c r="CG42" s="62"/>
+      <c r="CH42" s="62"/>
+      <c r="CI42" s="62"/>
+      <c r="CJ42" s="62"/>
+      <c r="CK42" s="62"/>
+      <c r="CL42" s="62"/>
+      <c r="CM42" s="62"/>
+      <c r="CN42" s="62"/>
+      <c r="CO42" s="62"/>
+      <c r="CP42" s="62"/>
+      <c r="CQ42" s="62"/>
+      <c r="CR42" s="62"/>
+      <c r="CS42" s="63"/>
     </row>
-    <row r="43" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:97" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -5343,8 +9713,48 @@
       <c r="AX43" s="10"/>
       <c r="AY43" s="10"/>
       <c r="AZ43" s="11"/>
+      <c r="BF43" s="66"/>
+      <c r="BG43" s="67"/>
+      <c r="BH43" s="67"/>
+      <c r="BI43" s="67"/>
+      <c r="BJ43" s="67"/>
+      <c r="BK43" s="67"/>
+      <c r="BL43" s="67"/>
+      <c r="BM43" s="67"/>
+      <c r="BN43" s="67"/>
+      <c r="BO43" s="67"/>
+      <c r="BP43" s="67"/>
+      <c r="BQ43" s="67"/>
+      <c r="BR43" s="67"/>
+      <c r="BS43" s="67"/>
+      <c r="BT43" s="67"/>
+      <c r="BU43" s="67"/>
+      <c r="BV43" s="67"/>
+      <c r="BW43" s="67"/>
+      <c r="BX43" s="67"/>
+      <c r="BY43" s="67"/>
+      <c r="BZ43" s="67"/>
+      <c r="CA43" s="67"/>
+      <c r="CB43" s="67"/>
+      <c r="CC43" s="67"/>
+      <c r="CD43" s="67"/>
+      <c r="CE43" s="67"/>
+      <c r="CF43" s="67"/>
+      <c r="CG43" s="67"/>
+      <c r="CH43" s="67"/>
+      <c r="CI43" s="67"/>
+      <c r="CJ43" s="67"/>
+      <c r="CK43" s="67"/>
+      <c r="CL43" s="67"/>
+      <c r="CM43" s="67"/>
+      <c r="CN43" s="67"/>
+      <c r="CO43" s="67"/>
+      <c r="CP43" s="67"/>
+      <c r="CQ43" s="67"/>
+      <c r="CR43" s="67"/>
+      <c r="CS43" s="68"/>
     </row>
-    <row r="44" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A44" s="9"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -5398,7 +9808,7 @@
       <c r="AY44" s="10"/>
       <c r="AZ44" s="11"/>
     </row>
-    <row r="45" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A45" s="9"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -5452,7 +9862,7 @@
       <c r="AY45" s="10"/>
       <c r="AZ45" s="11"/>
     </row>
-    <row r="46" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A46" s="9"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -5506,7 +9916,7 @@
       <c r="AY46" s="10"/>
       <c r="AZ46" s="11"/>
     </row>
-    <row r="47" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A47" s="9"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -5560,7 +9970,7 @@
       <c r="AY47" s="10"/>
       <c r="AZ47" s="11"/>
     </row>
-    <row r="48" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A48" s="9"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -5947,1293 +10357,1321 @@
       <c r="A56" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B56" s="31" t="s">
-        <v>16</v>
+      <c r="B56" s="35" t="s">
+        <v>13</v>
       </c>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="32"/>
-      <c r="J56" s="32"/>
-      <c r="K56" s="33"/>
-      <c r="L56" s="31" t="s">
-        <v>17</v>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="36"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="35" t="s">
+        <v>14</v>
       </c>
-      <c r="M56" s="32"/>
-      <c r="N56" s="32"/>
-      <c r="O56" s="32"/>
-      <c r="P56" s="32"/>
-      <c r="Q56" s="32"/>
-      <c r="R56" s="32"/>
-      <c r="S56" s="32"/>
-      <c r="T56" s="32"/>
-      <c r="U56" s="33"/>
-      <c r="V56" s="30" t="s">
-        <v>10</v>
+      <c r="M56" s="36"/>
+      <c r="N56" s="36"/>
+      <c r="O56" s="36"/>
+      <c r="P56" s="36"/>
+      <c r="Q56" s="36"/>
+      <c r="R56" s="36"/>
+      <c r="S56" s="36"/>
+      <c r="T56" s="36"/>
+      <c r="U56" s="37"/>
+      <c r="V56" s="34" t="s">
+        <v>9</v>
       </c>
-      <c r="W56" s="30"/>
-      <c r="X56" s="30" t="s">
+      <c r="W56" s="34"/>
+      <c r="X56" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="Y56" s="30"/>
-      <c r="Z56" s="30" t="s">
+      <c r="Y56" s="34"/>
+      <c r="Z56" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="AA56" s="30"/>
-      <c r="AB56" s="30"/>
-      <c r="AC56" s="30"/>
-      <c r="AD56" s="30"/>
-      <c r="AE56" s="30"/>
-      <c r="AF56" s="30"/>
-      <c r="AG56" s="30" t="s">
+      <c r="AA56" s="34"/>
+      <c r="AB56" s="34"/>
+      <c r="AC56" s="34"/>
+      <c r="AD56" s="34"/>
+      <c r="AE56" s="34"/>
+      <c r="AF56" s="34"/>
+      <c r="AG56" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="AH56" s="30"/>
-      <c r="AI56" s="30"/>
-      <c r="AJ56" s="30"/>
-      <c r="AK56" s="30"/>
-      <c r="AL56" s="30"/>
-      <c r="AM56" s="30"/>
-      <c r="AN56" s="30"/>
-      <c r="AO56" s="30" t="s">
-        <v>9</v>
+      <c r="AH56" s="34"/>
+      <c r="AI56" s="34"/>
+      <c r="AJ56" s="34"/>
+      <c r="AK56" s="34"/>
+      <c r="AL56" s="34"/>
+      <c r="AM56" s="34"/>
+      <c r="AN56" s="34"/>
+      <c r="AO56" s="34" t="s">
+        <v>30</v>
       </c>
-      <c r="AP56" s="30"/>
-      <c r="AQ56" s="30"/>
-      <c r="AR56" s="30"/>
-      <c r="AS56" s="30"/>
-      <c r="AT56" s="30"/>
-      <c r="AU56" s="30"/>
-      <c r="AV56" s="30"/>
-      <c r="AW56" s="31" t="s">
+      <c r="AP56" s="34"/>
+      <c r="AQ56" s="34"/>
+      <c r="AR56" s="34"/>
+      <c r="AS56" s="34"/>
+      <c r="AT56" s="34"/>
+      <c r="AU56" s="34"/>
+      <c r="AV56" s="34"/>
+      <c r="AW56" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="AX56" s="32"/>
-      <c r="AY56" s="32"/>
-      <c r="AZ56" s="33"/>
+      <c r="AX56" s="36"/>
+      <c r="AY56" s="36"/>
+      <c r="AZ56" s="37"/>
     </row>
     <row r="57" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A57" s="16">
         <v>1</v>
       </c>
-      <c r="B57" s="34" t="s">
-        <v>29</v>
+      <c r="B57" s="30" t="s">
+        <v>22</v>
       </c>
-      <c r="C57" s="35"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="35"/>
-      <c r="I57" s="35"/>
-      <c r="J57" s="35"/>
-      <c r="K57" s="36"/>
-      <c r="L57" s="34" t="s">
-        <v>34</v>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="32"/>
+      <c r="L57" s="30" t="s">
+        <v>23</v>
       </c>
-      <c r="M57" s="35"/>
-      <c r="N57" s="35"/>
-      <c r="O57" s="35"/>
-      <c r="P57" s="35"/>
-      <c r="Q57" s="35"/>
-      <c r="R57" s="35"/>
-      <c r="S57" s="35"/>
-      <c r="T57" s="35"/>
-      <c r="U57" s="36"/>
-      <c r="V57" s="37"/>
-      <c r="W57" s="37"/>
-      <c r="X57" s="38"/>
-      <c r="Y57" s="38"/>
-      <c r="Z57" s="38" t="s">
-        <v>39</v>
+      <c r="M57" s="31"/>
+      <c r="N57" s="31"/>
+      <c r="O57" s="31"/>
+      <c r="P57" s="31"/>
+      <c r="Q57" s="31"/>
+      <c r="R57" s="31"/>
+      <c r="S57" s="31"/>
+      <c r="T57" s="31"/>
+      <c r="U57" s="32"/>
+      <c r="V57" s="33"/>
+      <c r="W57" s="33"/>
+      <c r="X57" s="26"/>
+      <c r="Y57" s="26"/>
+      <c r="Z57" s="26" t="s">
+        <v>24</v>
       </c>
-      <c r="AA57" s="38"/>
-      <c r="AB57" s="38"/>
-      <c r="AC57" s="38"/>
-      <c r="AD57" s="38"/>
-      <c r="AE57" s="38"/>
-      <c r="AF57" s="38"/>
-      <c r="AG57" s="38"/>
-      <c r="AH57" s="38"/>
-      <c r="AI57" s="38"/>
-      <c r="AJ57" s="38"/>
-      <c r="AK57" s="38"/>
-      <c r="AL57" s="38"/>
-      <c r="AM57" s="38"/>
-      <c r="AN57" s="38"/>
-      <c r="AO57" s="38"/>
-      <c r="AP57" s="38"/>
-      <c r="AQ57" s="38"/>
-      <c r="AR57" s="38"/>
-      <c r="AS57" s="38"/>
-      <c r="AT57" s="38"/>
-      <c r="AU57" s="38"/>
-      <c r="AV57" s="38"/>
-      <c r="AW57" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="AX57" s="40"/>
-      <c r="AY57" s="40"/>
-      <c r="AZ57" s="41"/>
+      <c r="AA57" s="26"/>
+      <c r="AB57" s="26"/>
+      <c r="AC57" s="26"/>
+      <c r="AD57" s="26"/>
+      <c r="AE57" s="26"/>
+      <c r="AF57" s="26"/>
+      <c r="AG57" s="26"/>
+      <c r="AH57" s="26"/>
+      <c r="AI57" s="26"/>
+      <c r="AJ57" s="26"/>
+      <c r="AK57" s="26"/>
+      <c r="AL57" s="26"/>
+      <c r="AM57" s="26"/>
+      <c r="AN57" s="26"/>
+      <c r="AO57" s="26"/>
+      <c r="AP57" s="26"/>
+      <c r="AQ57" s="26"/>
+      <c r="AR57" s="26"/>
+      <c r="AS57" s="26"/>
+      <c r="AT57" s="26"/>
+      <c r="AU57" s="26"/>
+      <c r="AV57" s="26"/>
+      <c r="AW57" s="27"/>
+      <c r="AX57" s="28"/>
+      <c r="AY57" s="28"/>
+      <c r="AZ57" s="29"/>
     </row>
     <row r="58" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A58" s="16">
         <v>2</v>
       </c>
-      <c r="B58" s="34" t="s">
-        <v>21</v>
+      <c r="B58" s="30" t="s">
+        <v>17</v>
       </c>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="35"/>
-      <c r="J58" s="35"/>
-      <c r="K58" s="36"/>
-      <c r="L58" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="M58" s="35"/>
-      <c r="N58" s="35"/>
-      <c r="O58" s="35"/>
-      <c r="P58" s="35"/>
-      <c r="Q58" s="35"/>
-      <c r="R58" s="35"/>
-      <c r="S58" s="35"/>
-      <c r="T58" s="35"/>
-      <c r="U58" s="36"/>
-      <c r="V58" s="37"/>
-      <c r="W58" s="37"/>
-      <c r="X58" s="38"/>
-      <c r="Y58" s="38"/>
-      <c r="Z58" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA58" s="38"/>
-      <c r="AB58" s="38"/>
-      <c r="AC58" s="38"/>
-      <c r="AD58" s="38"/>
-      <c r="AE58" s="38"/>
-      <c r="AF58" s="38"/>
-      <c r="AG58" s="38"/>
-      <c r="AH58" s="38"/>
-      <c r="AI58" s="38"/>
-      <c r="AJ58" s="38"/>
-      <c r="AK58" s="38"/>
-      <c r="AL58" s="38"/>
-      <c r="AM58" s="38"/>
-      <c r="AN58" s="38"/>
-      <c r="AO58" s="38"/>
-      <c r="AP58" s="38"/>
-      <c r="AQ58" s="38"/>
-      <c r="AR58" s="38"/>
-      <c r="AS58" s="38"/>
-      <c r="AT58" s="38"/>
-      <c r="AU58" s="38"/>
-      <c r="AV58" s="38"/>
-      <c r="AW58" s="39" t="s">
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="31"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="AX58" s="40"/>
-      <c r="AY58" s="40"/>
-      <c r="AZ58" s="41"/>
+      <c r="M58" s="31"/>
+      <c r="N58" s="31"/>
+      <c r="O58" s="31"/>
+      <c r="P58" s="31"/>
+      <c r="Q58" s="31"/>
+      <c r="R58" s="31"/>
+      <c r="S58" s="31"/>
+      <c r="T58" s="31"/>
+      <c r="U58" s="32"/>
+      <c r="V58" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="W58" s="33"/>
+      <c r="X58" s="26"/>
+      <c r="Y58" s="26"/>
+      <c r="Z58" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA58" s="26"/>
+      <c r="AB58" s="26"/>
+      <c r="AC58" s="26"/>
+      <c r="AD58" s="26"/>
+      <c r="AE58" s="26"/>
+      <c r="AF58" s="26"/>
+      <c r="AG58" s="26"/>
+      <c r="AH58" s="26"/>
+      <c r="AI58" s="26"/>
+      <c r="AJ58" s="26"/>
+      <c r="AK58" s="26"/>
+      <c r="AL58" s="26"/>
+      <c r="AM58" s="26"/>
+      <c r="AN58" s="26"/>
+      <c r="AO58" s="26"/>
+      <c r="AP58" s="26"/>
+      <c r="AQ58" s="26"/>
+      <c r="AR58" s="26"/>
+      <c r="AS58" s="26"/>
+      <c r="AT58" s="26"/>
+      <c r="AU58" s="26"/>
+      <c r="AV58" s="26"/>
+      <c r="AW58" s="27"/>
+      <c r="AX58" s="28"/>
+      <c r="AY58" s="28"/>
+      <c r="AZ58" s="29"/>
     </row>
     <row r="59" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A59" s="16">
         <v>3</v>
       </c>
-      <c r="B59" s="34" t="s">
-        <v>22</v>
+      <c r="B59" s="30" t="s">
+        <v>18</v>
       </c>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="35"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="35"/>
-      <c r="I59" s="35"/>
-      <c r="J59" s="35"/>
-      <c r="K59" s="36"/>
-      <c r="L59" s="34" t="s">
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="32"/>
+      <c r="L59" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="M59" s="31"/>
+      <c r="N59" s="31"/>
+      <c r="O59" s="31"/>
+      <c r="P59" s="31"/>
+      <c r="Q59" s="31"/>
+      <c r="R59" s="31"/>
+      <c r="S59" s="31"/>
+      <c r="T59" s="31"/>
+      <c r="U59" s="32"/>
+      <c r="V59" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="M59" s="35"/>
-      <c r="N59" s="35"/>
-      <c r="O59" s="35"/>
-      <c r="P59" s="35"/>
-      <c r="Q59" s="35"/>
-      <c r="R59" s="35"/>
-      <c r="S59" s="35"/>
-      <c r="T59" s="35"/>
-      <c r="U59" s="36"/>
-      <c r="V59" s="37"/>
-      <c r="W59" s="37"/>
-      <c r="X59" s="38"/>
-      <c r="Y59" s="38"/>
-      <c r="Z59" s="38" t="s">
-        <v>41</v>
+      <c r="W59" s="33"/>
+      <c r="X59" s="26"/>
+      <c r="Y59" s="26"/>
+      <c r="Z59" s="26" t="s">
+        <v>37</v>
       </c>
-      <c r="AA59" s="38"/>
-      <c r="AB59" s="38"/>
-      <c r="AC59" s="38"/>
-      <c r="AD59" s="38"/>
-      <c r="AE59" s="38"/>
-      <c r="AF59" s="38"/>
-      <c r="AG59" s="38"/>
-      <c r="AH59" s="38"/>
-      <c r="AI59" s="38"/>
-      <c r="AJ59" s="38"/>
-      <c r="AK59" s="38"/>
-      <c r="AL59" s="38"/>
-      <c r="AM59" s="38"/>
-      <c r="AN59" s="38"/>
-      <c r="AO59" s="34"/>
-      <c r="AP59" s="35"/>
-      <c r="AQ59" s="35"/>
-      <c r="AR59" s="35"/>
-      <c r="AS59" s="35"/>
-      <c r="AT59" s="35"/>
-      <c r="AU59" s="35"/>
-      <c r="AV59" s="36"/>
-      <c r="AW59" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="AX59" s="40"/>
-      <c r="AY59" s="40"/>
-      <c r="AZ59" s="41"/>
+      <c r="AA59" s="26"/>
+      <c r="AB59" s="26"/>
+      <c r="AC59" s="26"/>
+      <c r="AD59" s="26"/>
+      <c r="AE59" s="26"/>
+      <c r="AF59" s="26"/>
+      <c r="AG59" s="26"/>
+      <c r="AH59" s="26"/>
+      <c r="AI59" s="26"/>
+      <c r="AJ59" s="26"/>
+      <c r="AK59" s="26"/>
+      <c r="AL59" s="26"/>
+      <c r="AM59" s="26"/>
+      <c r="AN59" s="26"/>
+      <c r="AO59" s="30"/>
+      <c r="AP59" s="31"/>
+      <c r="AQ59" s="31"/>
+      <c r="AR59" s="31"/>
+      <c r="AS59" s="31"/>
+      <c r="AT59" s="31"/>
+      <c r="AU59" s="31"/>
+      <c r="AV59" s="32"/>
+      <c r="AW59" s="27"/>
+      <c r="AX59" s="28"/>
+      <c r="AY59" s="28"/>
+      <c r="AZ59" s="29"/>
     </row>
     <row r="60" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A60" s="16">
         <v>4</v>
       </c>
-      <c r="B60" s="34" t="s">
-        <v>23</v>
+      <c r="B60" s="30" t="s">
+        <v>19</v>
       </c>
-      <c r="C60" s="35"/>
-      <c r="D60" s="35"/>
-      <c r="E60" s="35"/>
-      <c r="F60" s="35"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="35"/>
-      <c r="I60" s="35"/>
-      <c r="J60" s="35"/>
-      <c r="K60" s="36"/>
-      <c r="L60" s="34" t="s">
-        <v>37</v>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="30" t="s">
+        <v>38</v>
       </c>
-      <c r="M60" s="35"/>
-      <c r="N60" s="35"/>
-      <c r="O60" s="35"/>
-      <c r="P60" s="35"/>
-      <c r="Q60" s="35"/>
-      <c r="R60" s="35"/>
-      <c r="S60" s="35"/>
-      <c r="T60" s="35"/>
-      <c r="U60" s="36"/>
-      <c r="V60" s="37"/>
-      <c r="W60" s="37"/>
-      <c r="X60" s="38"/>
-      <c r="Y60" s="38"/>
-      <c r="Z60" s="38" t="s">
-        <v>41</v>
+      <c r="M60" s="31"/>
+      <c r="N60" s="31"/>
+      <c r="O60" s="31"/>
+      <c r="P60" s="31"/>
+      <c r="Q60" s="31"/>
+      <c r="R60" s="31"/>
+      <c r="S60" s="31"/>
+      <c r="T60" s="31"/>
+      <c r="U60" s="32"/>
+      <c r="V60" s="33" t="s">
+        <v>39</v>
       </c>
-      <c r="AA60" s="38"/>
-      <c r="AB60" s="38"/>
-      <c r="AC60" s="38"/>
-      <c r="AD60" s="38"/>
-      <c r="AE60" s="38"/>
-      <c r="AF60" s="38"/>
-      <c r="AG60" s="38"/>
-      <c r="AH60" s="38"/>
-      <c r="AI60" s="38"/>
-      <c r="AJ60" s="38"/>
-      <c r="AK60" s="38"/>
-      <c r="AL60" s="38"/>
-      <c r="AM60" s="38"/>
-      <c r="AN60" s="38"/>
-      <c r="AO60" s="34"/>
-      <c r="AP60" s="35"/>
-      <c r="AQ60" s="35"/>
-      <c r="AR60" s="35"/>
-      <c r="AS60" s="35"/>
-      <c r="AT60" s="35"/>
-      <c r="AU60" s="35"/>
-      <c r="AV60" s="36"/>
-      <c r="AW60" s="39" t="s">
-        <v>26</v>
+      <c r="W60" s="33"/>
+      <c r="X60" s="26"/>
+      <c r="Y60" s="26"/>
+      <c r="Z60" s="26" t="s">
+        <v>40</v>
       </c>
-      <c r="AX60" s="40"/>
-      <c r="AY60" s="40"/>
-      <c r="AZ60" s="41"/>
+      <c r="AA60" s="26"/>
+      <c r="AB60" s="26"/>
+      <c r="AC60" s="26"/>
+      <c r="AD60" s="26"/>
+      <c r="AE60" s="26"/>
+      <c r="AF60" s="26"/>
+      <c r="AG60" s="26"/>
+      <c r="AH60" s="26"/>
+      <c r="AI60" s="26"/>
+      <c r="AJ60" s="26"/>
+      <c r="AK60" s="26"/>
+      <c r="AL60" s="26"/>
+      <c r="AM60" s="26"/>
+      <c r="AN60" s="26"/>
+      <c r="AO60" s="30"/>
+      <c r="AP60" s="31"/>
+      <c r="AQ60" s="31"/>
+      <c r="AR60" s="31"/>
+      <c r="AS60" s="31"/>
+      <c r="AT60" s="31"/>
+      <c r="AU60" s="31"/>
+      <c r="AV60" s="32"/>
+      <c r="AW60" s="27"/>
+      <c r="AX60" s="28"/>
+      <c r="AY60" s="28"/>
+      <c r="AZ60" s="29"/>
     </row>
     <row r="61" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A61" s="16">
         <v>5</v>
       </c>
-      <c r="B61" s="34" t="s">
-        <v>24</v>
+      <c r="B61" s="30" t="s">
+        <v>20</v>
       </c>
-      <c r="C61" s="35"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="35"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="35"/>
-      <c r="H61" s="35"/>
-      <c r="I61" s="35"/>
-      <c r="J61" s="35"/>
-      <c r="K61" s="36"/>
-      <c r="L61" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="M61" s="35"/>
-      <c r="N61" s="35"/>
-      <c r="O61" s="35"/>
-      <c r="P61" s="35"/>
-      <c r="Q61" s="35"/>
-      <c r="R61" s="35"/>
-      <c r="S61" s="35"/>
-      <c r="T61" s="35"/>
-      <c r="U61" s="36"/>
-      <c r="V61" s="37"/>
-      <c r="W61" s="37"/>
-      <c r="X61" s="38"/>
-      <c r="Y61" s="38"/>
-      <c r="Z61" s="38" t="s">
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="31"/>
+      <c r="K61" s="32"/>
+      <c r="L61" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="AA61" s="38"/>
-      <c r="AB61" s="38"/>
-      <c r="AC61" s="38"/>
-      <c r="AD61" s="38"/>
-      <c r="AE61" s="38"/>
-      <c r="AF61" s="38"/>
-      <c r="AG61" s="38"/>
-      <c r="AH61" s="38"/>
-      <c r="AI61" s="38"/>
-      <c r="AJ61" s="38"/>
-      <c r="AK61" s="38"/>
-      <c r="AL61" s="38"/>
-      <c r="AM61" s="38"/>
-      <c r="AN61" s="38"/>
-      <c r="AO61" s="34"/>
-      <c r="AP61" s="35"/>
-      <c r="AQ61" s="35"/>
-      <c r="AR61" s="35"/>
-      <c r="AS61" s="35"/>
-      <c r="AT61" s="35"/>
-      <c r="AU61" s="35"/>
-      <c r="AV61" s="36"/>
-      <c r="AW61" s="39" t="s">
-        <v>27</v>
+      <c r="M61" s="31"/>
+      <c r="N61" s="31"/>
+      <c r="O61" s="31"/>
+      <c r="P61" s="31"/>
+      <c r="Q61" s="31"/>
+      <c r="R61" s="31"/>
+      <c r="S61" s="31"/>
+      <c r="T61" s="31"/>
+      <c r="U61" s="32"/>
+      <c r="V61" s="33" t="s">
+        <v>36</v>
       </c>
-      <c r="AX61" s="40"/>
-      <c r="AY61" s="40"/>
-      <c r="AZ61" s="41"/>
+      <c r="W61" s="33"/>
+      <c r="X61" s="26"/>
+      <c r="Y61" s="26"/>
+      <c r="Z61" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA61" s="26"/>
+      <c r="AB61" s="26"/>
+      <c r="AC61" s="26"/>
+      <c r="AD61" s="26"/>
+      <c r="AE61" s="26"/>
+      <c r="AF61" s="26"/>
+      <c r="AG61" s="26"/>
+      <c r="AH61" s="26"/>
+      <c r="AI61" s="26"/>
+      <c r="AJ61" s="26"/>
+      <c r="AK61" s="26"/>
+      <c r="AL61" s="26"/>
+      <c r="AM61" s="26"/>
+      <c r="AN61" s="26"/>
+      <c r="AO61" s="30"/>
+      <c r="AP61" s="31"/>
+      <c r="AQ61" s="31"/>
+      <c r="AR61" s="31"/>
+      <c r="AS61" s="31"/>
+      <c r="AT61" s="31"/>
+      <c r="AU61" s="31"/>
+      <c r="AV61" s="32"/>
+      <c r="AW61" s="27"/>
+      <c r="AX61" s="28"/>
+      <c r="AY61" s="28"/>
+      <c r="AZ61" s="29"/>
     </row>
     <row r="62" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A62" s="16">
         <v>6</v>
       </c>
-      <c r="B62" s="34"/>
-      <c r="C62" s="35"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="35"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="35"/>
-      <c r="I62" s="35"/>
-      <c r="J62" s="35"/>
-      <c r="K62" s="36"/>
-      <c r="L62" s="34"/>
-      <c r="M62" s="35"/>
-      <c r="N62" s="35"/>
-      <c r="O62" s="35"/>
-      <c r="P62" s="35"/>
-      <c r="Q62" s="35"/>
-      <c r="R62" s="35"/>
-      <c r="S62" s="35"/>
-      <c r="T62" s="35"/>
-      <c r="U62" s="36"/>
-      <c r="V62" s="37"/>
-      <c r="W62" s="37"/>
-      <c r="X62" s="38"/>
-      <c r="Y62" s="38"/>
-      <c r="Z62" s="38"/>
-      <c r="AA62" s="38"/>
-      <c r="AB62" s="38"/>
-      <c r="AC62" s="38"/>
-      <c r="AD62" s="38"/>
-      <c r="AE62" s="38"/>
-      <c r="AF62" s="38"/>
-      <c r="AG62" s="38"/>
-      <c r="AH62" s="38"/>
-      <c r="AI62" s="38"/>
-      <c r="AJ62" s="38"/>
-      <c r="AK62" s="38"/>
-      <c r="AL62" s="38"/>
-      <c r="AM62" s="38"/>
-      <c r="AN62" s="38"/>
-      <c r="AO62" s="34"/>
-      <c r="AP62" s="35"/>
-      <c r="AQ62" s="35"/>
-      <c r="AR62" s="35"/>
-      <c r="AS62" s="35"/>
-      <c r="AT62" s="35"/>
-      <c r="AU62" s="35"/>
-      <c r="AV62" s="36"/>
-      <c r="AW62" s="39"/>
-      <c r="AX62" s="40"/>
-      <c r="AY62" s="40"/>
-      <c r="AZ62" s="41"/>
+      <c r="B62" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C62" s="31"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="31"/>
+      <c r="J62" s="31"/>
+      <c r="K62" s="32"/>
+      <c r="L62" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="M62" s="31"/>
+      <c r="N62" s="31"/>
+      <c r="O62" s="31"/>
+      <c r="P62" s="31"/>
+      <c r="Q62" s="31"/>
+      <c r="R62" s="31"/>
+      <c r="S62" s="31"/>
+      <c r="T62" s="31"/>
+      <c r="U62" s="32"/>
+      <c r="V62" s="33"/>
+      <c r="W62" s="33"/>
+      <c r="X62" s="26"/>
+      <c r="Y62" s="26"/>
+      <c r="Z62" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA62" s="26"/>
+      <c r="AB62" s="26"/>
+      <c r="AC62" s="26"/>
+      <c r="AD62" s="26"/>
+      <c r="AE62" s="26"/>
+      <c r="AF62" s="26"/>
+      <c r="AG62" s="26"/>
+      <c r="AH62" s="26"/>
+      <c r="AI62" s="26"/>
+      <c r="AJ62" s="26"/>
+      <c r="AK62" s="26"/>
+      <c r="AL62" s="26"/>
+      <c r="AM62" s="26"/>
+      <c r="AN62" s="26"/>
+      <c r="AO62" s="30"/>
+      <c r="AP62" s="31"/>
+      <c r="AQ62" s="31"/>
+      <c r="AR62" s="31"/>
+      <c r="AS62" s="31"/>
+      <c r="AT62" s="31"/>
+      <c r="AU62" s="31"/>
+      <c r="AV62" s="32"/>
+      <c r="AW62" s="27"/>
+      <c r="AX62" s="28"/>
+      <c r="AY62" s="28"/>
+      <c r="AZ62" s="29"/>
     </row>
     <row r="63" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A63" s="16">
         <v>7</v>
       </c>
-      <c r="B63" s="34"/>
-      <c r="C63" s="35"/>
-      <c r="D63" s="35"/>
-      <c r="E63" s="35"/>
-      <c r="F63" s="35"/>
-      <c r="G63" s="35"/>
-      <c r="H63" s="35"/>
-      <c r="I63" s="35"/>
-      <c r="J63" s="35"/>
-      <c r="K63" s="36"/>
-      <c r="L63" s="34"/>
-      <c r="M63" s="35"/>
-      <c r="N63" s="35"/>
-      <c r="O63" s="35"/>
-      <c r="P63" s="35"/>
-      <c r="Q63" s="35"/>
-      <c r="R63" s="35"/>
-      <c r="S63" s="35"/>
-      <c r="T63" s="35"/>
-      <c r="U63" s="36"/>
-      <c r="V63" s="37"/>
-      <c r="W63" s="37"/>
-      <c r="X63" s="38"/>
-      <c r="Y63" s="38"/>
-      <c r="Z63" s="38"/>
-      <c r="AA63" s="38"/>
-      <c r="AB63" s="38"/>
-      <c r="AC63" s="38"/>
-      <c r="AD63" s="38"/>
-      <c r="AE63" s="38"/>
-      <c r="AF63" s="38"/>
-      <c r="AG63" s="38"/>
-      <c r="AH63" s="38"/>
-      <c r="AI63" s="38"/>
-      <c r="AJ63" s="38"/>
-      <c r="AK63" s="38"/>
-      <c r="AL63" s="38"/>
-      <c r="AM63" s="38"/>
-      <c r="AN63" s="38"/>
-      <c r="AO63" s="34"/>
-      <c r="AP63" s="35"/>
-      <c r="AQ63" s="35"/>
-      <c r="AR63" s="35"/>
-      <c r="AS63" s="35"/>
-      <c r="AT63" s="35"/>
-      <c r="AU63" s="35"/>
-      <c r="AV63" s="36"/>
-      <c r="AW63" s="39"/>
-      <c r="AX63" s="40"/>
-      <c r="AY63" s="40"/>
-      <c r="AZ63" s="41"/>
+      <c r="B63" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C63" s="31"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="31"/>
+      <c r="K63" s="32"/>
+      <c r="L63" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="M63" s="31"/>
+      <c r="N63" s="31"/>
+      <c r="O63" s="31"/>
+      <c r="P63" s="31"/>
+      <c r="Q63" s="31"/>
+      <c r="R63" s="31"/>
+      <c r="S63" s="31"/>
+      <c r="T63" s="31"/>
+      <c r="U63" s="32"/>
+      <c r="V63" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="W63" s="33"/>
+      <c r="X63" s="26"/>
+      <c r="Y63" s="26"/>
+      <c r="Z63" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA63" s="26"/>
+      <c r="AB63" s="26"/>
+      <c r="AC63" s="26"/>
+      <c r="AD63" s="26"/>
+      <c r="AE63" s="26"/>
+      <c r="AF63" s="26"/>
+      <c r="AG63" s="26"/>
+      <c r="AH63" s="26"/>
+      <c r="AI63" s="26"/>
+      <c r="AJ63" s="26"/>
+      <c r="AK63" s="26"/>
+      <c r="AL63" s="26"/>
+      <c r="AM63" s="26"/>
+      <c r="AN63" s="26"/>
+      <c r="AO63" s="30"/>
+      <c r="AP63" s="31"/>
+      <c r="AQ63" s="31"/>
+      <c r="AR63" s="31"/>
+      <c r="AS63" s="31"/>
+      <c r="AT63" s="31"/>
+      <c r="AU63" s="31"/>
+      <c r="AV63" s="32"/>
+      <c r="AW63" s="27"/>
+      <c r="AX63" s="28"/>
+      <c r="AY63" s="28"/>
+      <c r="AZ63" s="29"/>
     </row>
     <row r="64" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A64" s="16">
         <v>8</v>
       </c>
-      <c r="B64" s="34"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="35"/>
-      <c r="J64" s="35"/>
-      <c r="K64" s="36"/>
-      <c r="L64" s="34"/>
-      <c r="M64" s="35"/>
-      <c r="N64" s="35"/>
-      <c r="O64" s="35"/>
-      <c r="P64" s="35"/>
-      <c r="Q64" s="35"/>
-      <c r="R64" s="35"/>
-      <c r="S64" s="35"/>
-      <c r="T64" s="35"/>
-      <c r="U64" s="36"/>
-      <c r="V64" s="37"/>
-      <c r="W64" s="37"/>
-      <c r="X64" s="38"/>
-      <c r="Y64" s="38"/>
-      <c r="Z64" s="38"/>
-      <c r="AA64" s="38"/>
-      <c r="AB64" s="38"/>
-      <c r="AC64" s="38"/>
-      <c r="AD64" s="38"/>
-      <c r="AE64" s="38"/>
-      <c r="AF64" s="38"/>
-      <c r="AG64" s="38"/>
-      <c r="AH64" s="38"/>
-      <c r="AI64" s="38"/>
-      <c r="AJ64" s="38"/>
-      <c r="AK64" s="38"/>
-      <c r="AL64" s="38"/>
-      <c r="AM64" s="38"/>
-      <c r="AN64" s="38"/>
-      <c r="AO64" s="34"/>
-      <c r="AP64" s="35"/>
-      <c r="AQ64" s="35"/>
-      <c r="AR64" s="35"/>
-      <c r="AS64" s="35"/>
-      <c r="AT64" s="35"/>
-      <c r="AU64" s="35"/>
-      <c r="AV64" s="36"/>
-      <c r="AW64" s="39"/>
-      <c r="AX64" s="40"/>
-      <c r="AY64" s="40"/>
-      <c r="AZ64" s="41"/>
+      <c r="B64" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C64" s="31"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="31"/>
+      <c r="K64" s="32"/>
+      <c r="L64" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="M64" s="31"/>
+      <c r="N64" s="31"/>
+      <c r="O64" s="31"/>
+      <c r="P64" s="31"/>
+      <c r="Q64" s="31"/>
+      <c r="R64" s="31"/>
+      <c r="S64" s="31"/>
+      <c r="T64" s="31"/>
+      <c r="U64" s="32"/>
+      <c r="V64" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="W64" s="33"/>
+      <c r="X64" s="26"/>
+      <c r="Y64" s="26"/>
+      <c r="Z64" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA64" s="26"/>
+      <c r="AB64" s="26"/>
+      <c r="AC64" s="26"/>
+      <c r="AD64" s="26"/>
+      <c r="AE64" s="26"/>
+      <c r="AF64" s="26"/>
+      <c r="AG64" s="26"/>
+      <c r="AH64" s="26"/>
+      <c r="AI64" s="26"/>
+      <c r="AJ64" s="26"/>
+      <c r="AK64" s="26"/>
+      <c r="AL64" s="26"/>
+      <c r="AM64" s="26"/>
+      <c r="AN64" s="26"/>
+      <c r="AO64" s="30"/>
+      <c r="AP64" s="31"/>
+      <c r="AQ64" s="31"/>
+      <c r="AR64" s="31"/>
+      <c r="AS64" s="31"/>
+      <c r="AT64" s="31"/>
+      <c r="AU64" s="31"/>
+      <c r="AV64" s="32"/>
+      <c r="AW64" s="27"/>
+      <c r="AX64" s="28"/>
+      <c r="AY64" s="28"/>
+      <c r="AZ64" s="29"/>
     </row>
     <row r="65" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A65" s="16">
         <v>9</v>
       </c>
-      <c r="B65" s="34"/>
-      <c r="C65" s="35"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="35"/>
-      <c r="F65" s="35"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="35"/>
-      <c r="I65" s="35"/>
-      <c r="J65" s="35"/>
-      <c r="K65" s="36"/>
-      <c r="L65" s="34"/>
-      <c r="M65" s="35"/>
-      <c r="N65" s="35"/>
-      <c r="O65" s="35"/>
-      <c r="P65" s="35"/>
-      <c r="Q65" s="35"/>
-      <c r="R65" s="35"/>
-      <c r="S65" s="35"/>
-      <c r="T65" s="35"/>
-      <c r="U65" s="36"/>
-      <c r="V65" s="37"/>
-      <c r="W65" s="37"/>
-      <c r="X65" s="38"/>
-      <c r="Y65" s="38"/>
-      <c r="Z65" s="38"/>
-      <c r="AA65" s="38"/>
-      <c r="AB65" s="38"/>
-      <c r="AC65" s="38"/>
-      <c r="AD65" s="38"/>
-      <c r="AE65" s="38"/>
-      <c r="AF65" s="38"/>
-      <c r="AG65" s="38"/>
-      <c r="AH65" s="38"/>
-      <c r="AI65" s="38"/>
-      <c r="AJ65" s="38"/>
-      <c r="AK65" s="38"/>
-      <c r="AL65" s="38"/>
-      <c r="AM65" s="38"/>
-      <c r="AN65" s="38"/>
-      <c r="AO65" s="34"/>
-      <c r="AP65" s="35"/>
-      <c r="AQ65" s="35"/>
-      <c r="AR65" s="35"/>
-      <c r="AS65" s="35"/>
-      <c r="AT65" s="35"/>
-      <c r="AU65" s="35"/>
-      <c r="AV65" s="36"/>
-      <c r="AW65" s="39"/>
-      <c r="AX65" s="40"/>
-      <c r="AY65" s="40"/>
-      <c r="AZ65" s="41"/>
+      <c r="B65" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="31"/>
+      <c r="K65" s="32"/>
+      <c r="L65" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="M65" s="31"/>
+      <c r="N65" s="31"/>
+      <c r="O65" s="31"/>
+      <c r="P65" s="31"/>
+      <c r="Q65" s="31"/>
+      <c r="R65" s="31"/>
+      <c r="S65" s="31"/>
+      <c r="T65" s="31"/>
+      <c r="U65" s="32"/>
+      <c r="V65" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="W65" s="33"/>
+      <c r="X65" s="26"/>
+      <c r="Y65" s="26"/>
+      <c r="Z65" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA65" s="26"/>
+      <c r="AB65" s="26"/>
+      <c r="AC65" s="26"/>
+      <c r="AD65" s="26"/>
+      <c r="AE65" s="26"/>
+      <c r="AF65" s="26"/>
+      <c r="AG65" s="26"/>
+      <c r="AH65" s="26"/>
+      <c r="AI65" s="26"/>
+      <c r="AJ65" s="26"/>
+      <c r="AK65" s="26"/>
+      <c r="AL65" s="26"/>
+      <c r="AM65" s="26"/>
+      <c r="AN65" s="26"/>
+      <c r="AO65" s="30"/>
+      <c r="AP65" s="31"/>
+      <c r="AQ65" s="31"/>
+      <c r="AR65" s="31"/>
+      <c r="AS65" s="31"/>
+      <c r="AT65" s="31"/>
+      <c r="AU65" s="31"/>
+      <c r="AV65" s="32"/>
+      <c r="AW65" s="27"/>
+      <c r="AX65" s="28"/>
+      <c r="AY65" s="28"/>
+      <c r="AZ65" s="29"/>
     </row>
     <row r="66" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A66" s="16">
         <v>10</v>
       </c>
-      <c r="B66" s="34"/>
-      <c r="C66" s="35"/>
-      <c r="D66" s="35"/>
-      <c r="E66" s="35"/>
-      <c r="F66" s="35"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="35"/>
-      <c r="I66" s="35"/>
-      <c r="J66" s="35"/>
-      <c r="K66" s="36"/>
-      <c r="L66" s="34"/>
-      <c r="M66" s="35"/>
-      <c r="N66" s="35"/>
-      <c r="O66" s="35"/>
-      <c r="P66" s="35"/>
-      <c r="Q66" s="35"/>
-      <c r="R66" s="35"/>
-      <c r="S66" s="35"/>
-      <c r="T66" s="35"/>
-      <c r="U66" s="36"/>
-      <c r="V66" s="37"/>
-      <c r="W66" s="37"/>
-      <c r="X66" s="38"/>
-      <c r="Y66" s="38"/>
-      <c r="Z66" s="38"/>
-      <c r="AA66" s="38"/>
-      <c r="AB66" s="38"/>
-      <c r="AC66" s="38"/>
-      <c r="AD66" s="38"/>
-      <c r="AE66" s="38"/>
-      <c r="AF66" s="38"/>
-      <c r="AG66" s="38"/>
-      <c r="AH66" s="38"/>
-      <c r="AI66" s="38"/>
-      <c r="AJ66" s="38"/>
-      <c r="AK66" s="38"/>
-      <c r="AL66" s="38"/>
-      <c r="AM66" s="38"/>
-      <c r="AN66" s="38"/>
-      <c r="AO66" s="34"/>
-      <c r="AP66" s="35"/>
-      <c r="AQ66" s="35"/>
-      <c r="AR66" s="35"/>
-      <c r="AS66" s="35"/>
-      <c r="AT66" s="35"/>
-      <c r="AU66" s="35"/>
-      <c r="AV66" s="36"/>
-      <c r="AW66" s="39"/>
-      <c r="AX66" s="40"/>
-      <c r="AY66" s="40"/>
-      <c r="AZ66" s="41"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="31"/>
+      <c r="K66" s="32"/>
+      <c r="L66" s="30"/>
+      <c r="M66" s="31"/>
+      <c r="N66" s="31"/>
+      <c r="O66" s="31"/>
+      <c r="P66" s="31"/>
+      <c r="Q66" s="31"/>
+      <c r="R66" s="31"/>
+      <c r="S66" s="31"/>
+      <c r="T66" s="31"/>
+      <c r="U66" s="32"/>
+      <c r="V66" s="33"/>
+      <c r="W66" s="33"/>
+      <c r="X66" s="26"/>
+      <c r="Y66" s="26"/>
+      <c r="Z66" s="26"/>
+      <c r="AA66" s="26"/>
+      <c r="AB66" s="26"/>
+      <c r="AC66" s="26"/>
+      <c r="AD66" s="26"/>
+      <c r="AE66" s="26"/>
+      <c r="AF66" s="26"/>
+      <c r="AG66" s="26"/>
+      <c r="AH66" s="26"/>
+      <c r="AI66" s="26"/>
+      <c r="AJ66" s="26"/>
+      <c r="AK66" s="26"/>
+      <c r="AL66" s="26"/>
+      <c r="AM66" s="26"/>
+      <c r="AN66" s="26"/>
+      <c r="AO66" s="30"/>
+      <c r="AP66" s="31"/>
+      <c r="AQ66" s="31"/>
+      <c r="AR66" s="31"/>
+      <c r="AS66" s="31"/>
+      <c r="AT66" s="31"/>
+      <c r="AU66" s="31"/>
+      <c r="AV66" s="32"/>
+      <c r="AW66" s="27"/>
+      <c r="AX66" s="28"/>
+      <c r="AY66" s="28"/>
+      <c r="AZ66" s="29"/>
     </row>
     <row r="67" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A67" s="16">
         <v>11</v>
       </c>
-      <c r="B67" s="34"/>
-      <c r="C67" s="35"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="35"/>
-      <c r="I67" s="35"/>
-      <c r="J67" s="35"/>
-      <c r="K67" s="36"/>
-      <c r="L67" s="34"/>
-      <c r="M67" s="35"/>
-      <c r="N67" s="35"/>
-      <c r="O67" s="35"/>
-      <c r="P67" s="35"/>
-      <c r="Q67" s="35"/>
-      <c r="R67" s="35"/>
-      <c r="S67" s="35"/>
-      <c r="T67" s="35"/>
-      <c r="U67" s="36"/>
-      <c r="V67" s="37"/>
-      <c r="W67" s="37"/>
-      <c r="X67" s="38"/>
-      <c r="Y67" s="38"/>
-      <c r="Z67" s="38"/>
-      <c r="AA67" s="38"/>
-      <c r="AB67" s="38"/>
-      <c r="AC67" s="38"/>
-      <c r="AD67" s="38"/>
-      <c r="AE67" s="38"/>
-      <c r="AF67" s="38"/>
-      <c r="AG67" s="38"/>
-      <c r="AH67" s="38"/>
-      <c r="AI67" s="38"/>
-      <c r="AJ67" s="38"/>
-      <c r="AK67" s="38"/>
-      <c r="AL67" s="38"/>
-      <c r="AM67" s="38"/>
-      <c r="AN67" s="38"/>
-      <c r="AO67" s="34"/>
-      <c r="AP67" s="35"/>
-      <c r="AQ67" s="35"/>
-      <c r="AR67" s="35"/>
-      <c r="AS67" s="35"/>
-      <c r="AT67" s="35"/>
-      <c r="AU67" s="35"/>
-      <c r="AV67" s="36"/>
-      <c r="AW67" s="39"/>
-      <c r="AX67" s="40"/>
-      <c r="AY67" s="40"/>
-      <c r="AZ67" s="41"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="31"/>
+      <c r="K67" s="32"/>
+      <c r="L67" s="30"/>
+      <c r="M67" s="31"/>
+      <c r="N67" s="31"/>
+      <c r="O67" s="31"/>
+      <c r="P67" s="31"/>
+      <c r="Q67" s="31"/>
+      <c r="R67" s="31"/>
+      <c r="S67" s="31"/>
+      <c r="T67" s="31"/>
+      <c r="U67" s="32"/>
+      <c r="V67" s="33"/>
+      <c r="W67" s="33"/>
+      <c r="X67" s="26"/>
+      <c r="Y67" s="26"/>
+      <c r="Z67" s="26"/>
+      <c r="AA67" s="26"/>
+      <c r="AB67" s="26"/>
+      <c r="AC67" s="26"/>
+      <c r="AD67" s="26"/>
+      <c r="AE67" s="26"/>
+      <c r="AF67" s="26"/>
+      <c r="AG67" s="26"/>
+      <c r="AH67" s="26"/>
+      <c r="AI67" s="26"/>
+      <c r="AJ67" s="26"/>
+      <c r="AK67" s="26"/>
+      <c r="AL67" s="26"/>
+      <c r="AM67" s="26"/>
+      <c r="AN67" s="26"/>
+      <c r="AO67" s="30"/>
+      <c r="AP67" s="31"/>
+      <c r="AQ67" s="31"/>
+      <c r="AR67" s="31"/>
+      <c r="AS67" s="31"/>
+      <c r="AT67" s="31"/>
+      <c r="AU67" s="31"/>
+      <c r="AV67" s="32"/>
+      <c r="AW67" s="27"/>
+      <c r="AX67" s="28"/>
+      <c r="AY67" s="28"/>
+      <c r="AZ67" s="29"/>
     </row>
     <row r="68" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A68" s="16">
         <v>12</v>
       </c>
-      <c r="B68" s="34"/>
-      <c r="C68" s="35"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="35"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="35"/>
-      <c r="I68" s="35"/>
-      <c r="J68" s="35"/>
-      <c r="K68" s="36"/>
-      <c r="L68" s="34"/>
-      <c r="M68" s="35"/>
-      <c r="N68" s="35"/>
-      <c r="O68" s="35"/>
-      <c r="P68" s="35"/>
-      <c r="Q68" s="35"/>
-      <c r="R68" s="35"/>
-      <c r="S68" s="35"/>
-      <c r="T68" s="35"/>
-      <c r="U68" s="36"/>
-      <c r="V68" s="37"/>
-      <c r="W68" s="37"/>
-      <c r="X68" s="38"/>
-      <c r="Y68" s="38"/>
-      <c r="Z68" s="38"/>
-      <c r="AA68" s="38"/>
-      <c r="AB68" s="38"/>
-      <c r="AC68" s="38"/>
-      <c r="AD68" s="38"/>
-      <c r="AE68" s="38"/>
-      <c r="AF68" s="38"/>
-      <c r="AG68" s="38"/>
-      <c r="AH68" s="38"/>
-      <c r="AI68" s="38"/>
-      <c r="AJ68" s="38"/>
-      <c r="AK68" s="38"/>
-      <c r="AL68" s="38"/>
-      <c r="AM68" s="38"/>
-      <c r="AN68" s="38"/>
-      <c r="AO68" s="38"/>
-      <c r="AP68" s="38"/>
-      <c r="AQ68" s="38"/>
-      <c r="AR68" s="38"/>
-      <c r="AS68" s="38"/>
-      <c r="AT68" s="38"/>
-      <c r="AU68" s="38"/>
-      <c r="AV68" s="38"/>
-      <c r="AW68" s="39"/>
-      <c r="AX68" s="40"/>
-      <c r="AY68" s="40"/>
-      <c r="AZ68" s="41"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="31"/>
+      <c r="G68" s="31"/>
+      <c r="H68" s="31"/>
+      <c r="I68" s="31"/>
+      <c r="J68" s="31"/>
+      <c r="K68" s="32"/>
+      <c r="L68" s="30"/>
+      <c r="M68" s="31"/>
+      <c r="N68" s="31"/>
+      <c r="O68" s="31"/>
+      <c r="P68" s="31"/>
+      <c r="Q68" s="31"/>
+      <c r="R68" s="31"/>
+      <c r="S68" s="31"/>
+      <c r="T68" s="31"/>
+      <c r="U68" s="32"/>
+      <c r="V68" s="33"/>
+      <c r="W68" s="33"/>
+      <c r="X68" s="26"/>
+      <c r="Y68" s="26"/>
+      <c r="Z68" s="26"/>
+      <c r="AA68" s="26"/>
+      <c r="AB68" s="26"/>
+      <c r="AC68" s="26"/>
+      <c r="AD68" s="26"/>
+      <c r="AE68" s="26"/>
+      <c r="AF68" s="26"/>
+      <c r="AG68" s="26"/>
+      <c r="AH68" s="26"/>
+      <c r="AI68" s="26"/>
+      <c r="AJ68" s="26"/>
+      <c r="AK68" s="26"/>
+      <c r="AL68" s="26"/>
+      <c r="AM68" s="26"/>
+      <c r="AN68" s="26"/>
+      <c r="AO68" s="26"/>
+      <c r="AP68" s="26"/>
+      <c r="AQ68" s="26"/>
+      <c r="AR68" s="26"/>
+      <c r="AS68" s="26"/>
+      <c r="AT68" s="26"/>
+      <c r="AU68" s="26"/>
+      <c r="AV68" s="26"/>
+      <c r="AW68" s="27"/>
+      <c r="AX68" s="28"/>
+      <c r="AY68" s="28"/>
+      <c r="AZ68" s="29"/>
     </row>
     <row r="69" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A69" s="16">
         <v>13</v>
       </c>
-      <c r="B69" s="34"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="35"/>
-      <c r="I69" s="35"/>
-      <c r="J69" s="35"/>
-      <c r="K69" s="36"/>
-      <c r="L69" s="34"/>
-      <c r="M69" s="35"/>
-      <c r="N69" s="35"/>
-      <c r="O69" s="35"/>
-      <c r="P69" s="35"/>
-      <c r="Q69" s="35"/>
-      <c r="R69" s="35"/>
-      <c r="S69" s="35"/>
-      <c r="T69" s="35"/>
-      <c r="U69" s="36"/>
-      <c r="V69" s="37"/>
-      <c r="W69" s="37"/>
-      <c r="X69" s="38"/>
-      <c r="Y69" s="38"/>
-      <c r="Z69" s="38"/>
-      <c r="AA69" s="38"/>
-      <c r="AB69" s="38"/>
-      <c r="AC69" s="38"/>
-      <c r="AD69" s="38"/>
-      <c r="AE69" s="38"/>
-      <c r="AF69" s="38"/>
-      <c r="AG69" s="38"/>
-      <c r="AH69" s="38"/>
-      <c r="AI69" s="38"/>
-      <c r="AJ69" s="38"/>
-      <c r="AK69" s="38"/>
-      <c r="AL69" s="38"/>
-      <c r="AM69" s="38"/>
-      <c r="AN69" s="38"/>
-      <c r="AO69" s="38"/>
-      <c r="AP69" s="38"/>
-      <c r="AQ69" s="38"/>
-      <c r="AR69" s="38"/>
-      <c r="AS69" s="38"/>
-      <c r="AT69" s="38"/>
-      <c r="AU69" s="38"/>
-      <c r="AV69" s="38"/>
-      <c r="AW69" s="39"/>
-      <c r="AX69" s="40"/>
-      <c r="AY69" s="40"/>
-      <c r="AZ69" s="41"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="31"/>
+      <c r="K69" s="32"/>
+      <c r="L69" s="30"/>
+      <c r="M69" s="31"/>
+      <c r="N69" s="31"/>
+      <c r="O69" s="31"/>
+      <c r="P69" s="31"/>
+      <c r="Q69" s="31"/>
+      <c r="R69" s="31"/>
+      <c r="S69" s="31"/>
+      <c r="T69" s="31"/>
+      <c r="U69" s="32"/>
+      <c r="V69" s="33"/>
+      <c r="W69" s="33"/>
+      <c r="X69" s="26"/>
+      <c r="Y69" s="26"/>
+      <c r="Z69" s="26"/>
+      <c r="AA69" s="26"/>
+      <c r="AB69" s="26"/>
+      <c r="AC69" s="26"/>
+      <c r="AD69" s="26"/>
+      <c r="AE69" s="26"/>
+      <c r="AF69" s="26"/>
+      <c r="AG69" s="26"/>
+      <c r="AH69" s="26"/>
+      <c r="AI69" s="26"/>
+      <c r="AJ69" s="26"/>
+      <c r="AK69" s="26"/>
+      <c r="AL69" s="26"/>
+      <c r="AM69" s="26"/>
+      <c r="AN69" s="26"/>
+      <c r="AO69" s="26"/>
+      <c r="AP69" s="26"/>
+      <c r="AQ69" s="26"/>
+      <c r="AR69" s="26"/>
+      <c r="AS69" s="26"/>
+      <c r="AT69" s="26"/>
+      <c r="AU69" s="26"/>
+      <c r="AV69" s="26"/>
+      <c r="AW69" s="27"/>
+      <c r="AX69" s="28"/>
+      <c r="AY69" s="28"/>
+      <c r="AZ69" s="29"/>
     </row>
     <row r="70" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A70" s="16">
         <v>14</v>
       </c>
-      <c r="B70" s="34"/>
-      <c r="C70" s="35"/>
-      <c r="D70" s="35"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="35"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="35"/>
-      <c r="I70" s="35"/>
-      <c r="J70" s="35"/>
-      <c r="K70" s="36"/>
-      <c r="L70" s="34"/>
-      <c r="M70" s="35"/>
-      <c r="N70" s="35"/>
-      <c r="O70" s="35"/>
-      <c r="P70" s="35"/>
-      <c r="Q70" s="35"/>
-      <c r="R70" s="35"/>
-      <c r="S70" s="35"/>
-      <c r="T70" s="35"/>
-      <c r="U70" s="36"/>
-      <c r="V70" s="37"/>
-      <c r="W70" s="37"/>
-      <c r="X70" s="38"/>
-      <c r="Y70" s="38"/>
-      <c r="Z70" s="38"/>
-      <c r="AA70" s="38"/>
-      <c r="AB70" s="38"/>
-      <c r="AC70" s="38"/>
-      <c r="AD70" s="38"/>
-      <c r="AE70" s="38"/>
-      <c r="AF70" s="38"/>
-      <c r="AG70" s="38"/>
-      <c r="AH70" s="38"/>
-      <c r="AI70" s="38"/>
-      <c r="AJ70" s="38"/>
-      <c r="AK70" s="38"/>
-      <c r="AL70" s="38"/>
-      <c r="AM70" s="38"/>
-      <c r="AN70" s="38"/>
-      <c r="AO70" s="38"/>
-      <c r="AP70" s="38"/>
-      <c r="AQ70" s="38"/>
-      <c r="AR70" s="38"/>
-      <c r="AS70" s="38"/>
-      <c r="AT70" s="38"/>
-      <c r="AU70" s="38"/>
-      <c r="AV70" s="38"/>
-      <c r="AW70" s="39"/>
-      <c r="AX70" s="40"/>
-      <c r="AY70" s="40"/>
-      <c r="AZ70" s="41"/>
+      <c r="B70" s="30"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="31"/>
+      <c r="K70" s="32"/>
+      <c r="L70" s="30"/>
+      <c r="M70" s="31"/>
+      <c r="N70" s="31"/>
+      <c r="O70" s="31"/>
+      <c r="P70" s="31"/>
+      <c r="Q70" s="31"/>
+      <c r="R70" s="31"/>
+      <c r="S70" s="31"/>
+      <c r="T70" s="31"/>
+      <c r="U70" s="32"/>
+      <c r="V70" s="33"/>
+      <c r="W70" s="33"/>
+      <c r="X70" s="26"/>
+      <c r="Y70" s="26"/>
+      <c r="Z70" s="26"/>
+      <c r="AA70" s="26"/>
+      <c r="AB70" s="26"/>
+      <c r="AC70" s="26"/>
+      <c r="AD70" s="26"/>
+      <c r="AE70" s="26"/>
+      <c r="AF70" s="26"/>
+      <c r="AG70" s="26"/>
+      <c r="AH70" s="26"/>
+      <c r="AI70" s="26"/>
+      <c r="AJ70" s="26"/>
+      <c r="AK70" s="26"/>
+      <c r="AL70" s="26"/>
+      <c r="AM70" s="26"/>
+      <c r="AN70" s="26"/>
+      <c r="AO70" s="26"/>
+      <c r="AP70" s="26"/>
+      <c r="AQ70" s="26"/>
+      <c r="AR70" s="26"/>
+      <c r="AS70" s="26"/>
+      <c r="AT70" s="26"/>
+      <c r="AU70" s="26"/>
+      <c r="AV70" s="26"/>
+      <c r="AW70" s="27"/>
+      <c r="AX70" s="28"/>
+      <c r="AY70" s="28"/>
+      <c r="AZ70" s="29"/>
     </row>
     <row r="71" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A71" s="16">
         <v>15</v>
       </c>
-      <c r="B71" s="34"/>
-      <c r="C71" s="35"/>
-      <c r="D71" s="35"/>
-      <c r="E71" s="35"/>
-      <c r="F71" s="35"/>
-      <c r="G71" s="35"/>
-      <c r="H71" s="35"/>
-      <c r="I71" s="35"/>
-      <c r="J71" s="35"/>
-      <c r="K71" s="36"/>
-      <c r="L71" s="34"/>
-      <c r="M71" s="35"/>
-      <c r="N71" s="35"/>
-      <c r="O71" s="35"/>
-      <c r="P71" s="35"/>
-      <c r="Q71" s="35"/>
-      <c r="R71" s="35"/>
-      <c r="S71" s="35"/>
-      <c r="T71" s="35"/>
-      <c r="U71" s="36"/>
-      <c r="V71" s="37"/>
-      <c r="W71" s="37"/>
-      <c r="X71" s="38"/>
-      <c r="Y71" s="38"/>
-      <c r="Z71" s="38"/>
-      <c r="AA71" s="38"/>
-      <c r="AB71" s="38"/>
-      <c r="AC71" s="38"/>
-      <c r="AD71" s="38"/>
-      <c r="AE71" s="38"/>
-      <c r="AF71" s="38"/>
-      <c r="AG71" s="38"/>
-      <c r="AH71" s="38"/>
-      <c r="AI71" s="38"/>
-      <c r="AJ71" s="38"/>
-      <c r="AK71" s="38"/>
-      <c r="AL71" s="38"/>
-      <c r="AM71" s="38"/>
-      <c r="AN71" s="38"/>
-      <c r="AO71" s="38"/>
-      <c r="AP71" s="38"/>
-      <c r="AQ71" s="38"/>
-      <c r="AR71" s="38"/>
-      <c r="AS71" s="38"/>
-      <c r="AT71" s="38"/>
-      <c r="AU71" s="38"/>
-      <c r="AV71" s="38"/>
-      <c r="AW71" s="39"/>
-      <c r="AX71" s="40"/>
-      <c r="AY71" s="40"/>
-      <c r="AZ71" s="41"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="31"/>
+      <c r="G71" s="31"/>
+      <c r="H71" s="31"/>
+      <c r="I71" s="31"/>
+      <c r="J71" s="31"/>
+      <c r="K71" s="32"/>
+      <c r="L71" s="30"/>
+      <c r="M71" s="31"/>
+      <c r="N71" s="31"/>
+      <c r="O71" s="31"/>
+      <c r="P71" s="31"/>
+      <c r="Q71" s="31"/>
+      <c r="R71" s="31"/>
+      <c r="S71" s="31"/>
+      <c r="T71" s="31"/>
+      <c r="U71" s="32"/>
+      <c r="V71" s="33"/>
+      <c r="W71" s="33"/>
+      <c r="X71" s="26"/>
+      <c r="Y71" s="26"/>
+      <c r="Z71" s="26"/>
+      <c r="AA71" s="26"/>
+      <c r="AB71" s="26"/>
+      <c r="AC71" s="26"/>
+      <c r="AD71" s="26"/>
+      <c r="AE71" s="26"/>
+      <c r="AF71" s="26"/>
+      <c r="AG71" s="26"/>
+      <c r="AH71" s="26"/>
+      <c r="AI71" s="26"/>
+      <c r="AJ71" s="26"/>
+      <c r="AK71" s="26"/>
+      <c r="AL71" s="26"/>
+      <c r="AM71" s="26"/>
+      <c r="AN71" s="26"/>
+      <c r="AO71" s="26"/>
+      <c r="AP71" s="26"/>
+      <c r="AQ71" s="26"/>
+      <c r="AR71" s="26"/>
+      <c r="AS71" s="26"/>
+      <c r="AT71" s="26"/>
+      <c r="AU71" s="26"/>
+      <c r="AV71" s="26"/>
+      <c r="AW71" s="27"/>
+      <c r="AX71" s="28"/>
+      <c r="AY71" s="28"/>
+      <c r="AZ71" s="29"/>
     </row>
     <row r="72" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A72" s="16">
         <v>16</v>
       </c>
-      <c r="B72" s="34"/>
-      <c r="C72" s="35"/>
-      <c r="D72" s="35"/>
-      <c r="E72" s="35"/>
-      <c r="F72" s="35"/>
-      <c r="G72" s="35"/>
-      <c r="H72" s="35"/>
-      <c r="I72" s="35"/>
-      <c r="J72" s="35"/>
-      <c r="K72" s="36"/>
-      <c r="L72" s="34"/>
-      <c r="M72" s="35"/>
-      <c r="N72" s="35"/>
-      <c r="O72" s="35"/>
-      <c r="P72" s="35"/>
-      <c r="Q72" s="35"/>
-      <c r="R72" s="35"/>
-      <c r="S72" s="35"/>
-      <c r="T72" s="35"/>
-      <c r="U72" s="36"/>
-      <c r="V72" s="37"/>
-      <c r="W72" s="37"/>
-      <c r="X72" s="38"/>
-      <c r="Y72" s="38"/>
-      <c r="Z72" s="38"/>
-      <c r="AA72" s="38"/>
-      <c r="AB72" s="38"/>
-      <c r="AC72" s="38"/>
-      <c r="AD72" s="38"/>
-      <c r="AE72" s="38"/>
-      <c r="AF72" s="38"/>
-      <c r="AG72" s="38"/>
-      <c r="AH72" s="38"/>
-      <c r="AI72" s="38"/>
-      <c r="AJ72" s="38"/>
-      <c r="AK72" s="38"/>
-      <c r="AL72" s="38"/>
-      <c r="AM72" s="38"/>
-      <c r="AN72" s="38"/>
-      <c r="AO72" s="38"/>
-      <c r="AP72" s="38"/>
-      <c r="AQ72" s="38"/>
-      <c r="AR72" s="38"/>
-      <c r="AS72" s="38"/>
-      <c r="AT72" s="38"/>
-      <c r="AU72" s="38"/>
-      <c r="AV72" s="38"/>
-      <c r="AW72" s="39"/>
-      <c r="AX72" s="40"/>
-      <c r="AY72" s="40"/>
-      <c r="AZ72" s="41"/>
+      <c r="B72" s="30"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="31"/>
+      <c r="E72" s="31"/>
+      <c r="F72" s="31"/>
+      <c r="G72" s="31"/>
+      <c r="H72" s="31"/>
+      <c r="I72" s="31"/>
+      <c r="J72" s="31"/>
+      <c r="K72" s="32"/>
+      <c r="L72" s="30"/>
+      <c r="M72" s="31"/>
+      <c r="N72" s="31"/>
+      <c r="O72" s="31"/>
+      <c r="P72" s="31"/>
+      <c r="Q72" s="31"/>
+      <c r="R72" s="31"/>
+      <c r="S72" s="31"/>
+      <c r="T72" s="31"/>
+      <c r="U72" s="32"/>
+      <c r="V72" s="33"/>
+      <c r="W72" s="33"/>
+      <c r="X72" s="26"/>
+      <c r="Y72" s="26"/>
+      <c r="Z72" s="26"/>
+      <c r="AA72" s="26"/>
+      <c r="AB72" s="26"/>
+      <c r="AC72" s="26"/>
+      <c r="AD72" s="26"/>
+      <c r="AE72" s="26"/>
+      <c r="AF72" s="26"/>
+      <c r="AG72" s="26"/>
+      <c r="AH72" s="26"/>
+      <c r="AI72" s="26"/>
+      <c r="AJ72" s="26"/>
+      <c r="AK72" s="26"/>
+      <c r="AL72" s="26"/>
+      <c r="AM72" s="26"/>
+      <c r="AN72" s="26"/>
+      <c r="AO72" s="26"/>
+      <c r="AP72" s="26"/>
+      <c r="AQ72" s="26"/>
+      <c r="AR72" s="26"/>
+      <c r="AS72" s="26"/>
+      <c r="AT72" s="26"/>
+      <c r="AU72" s="26"/>
+      <c r="AV72" s="26"/>
+      <c r="AW72" s="27"/>
+      <c r="AX72" s="28"/>
+      <c r="AY72" s="28"/>
+      <c r="AZ72" s="29"/>
     </row>
     <row r="73" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A73" s="16">
         <v>17</v>
       </c>
-      <c r="B73" s="34"/>
-      <c r="C73" s="35"/>
-      <c r="D73" s="35"/>
-      <c r="E73" s="35"/>
-      <c r="F73" s="35"/>
-      <c r="G73" s="35"/>
-      <c r="H73" s="35"/>
-      <c r="I73" s="35"/>
-      <c r="J73" s="35"/>
-      <c r="K73" s="36"/>
-      <c r="L73" s="34"/>
-      <c r="M73" s="35"/>
-      <c r="N73" s="35"/>
-      <c r="O73" s="35"/>
-      <c r="P73" s="35"/>
-      <c r="Q73" s="35"/>
-      <c r="R73" s="35"/>
-      <c r="S73" s="35"/>
-      <c r="T73" s="35"/>
-      <c r="U73" s="36"/>
-      <c r="V73" s="37"/>
-      <c r="W73" s="37"/>
-      <c r="X73" s="38"/>
-      <c r="Y73" s="38"/>
-      <c r="Z73" s="38"/>
-      <c r="AA73" s="38"/>
-      <c r="AB73" s="38"/>
-      <c r="AC73" s="38"/>
-      <c r="AD73" s="38"/>
-      <c r="AE73" s="38"/>
-      <c r="AF73" s="38"/>
-      <c r="AG73" s="38"/>
-      <c r="AH73" s="38"/>
-      <c r="AI73" s="38"/>
-      <c r="AJ73" s="38"/>
-      <c r="AK73" s="38"/>
-      <c r="AL73" s="38"/>
-      <c r="AM73" s="38"/>
-      <c r="AN73" s="38"/>
-      <c r="AO73" s="38"/>
-      <c r="AP73" s="38"/>
-      <c r="AQ73" s="38"/>
-      <c r="AR73" s="38"/>
-      <c r="AS73" s="38"/>
-      <c r="AT73" s="38"/>
-      <c r="AU73" s="38"/>
-      <c r="AV73" s="38"/>
-      <c r="AW73" s="39"/>
-      <c r="AX73" s="40"/>
-      <c r="AY73" s="40"/>
-      <c r="AZ73" s="41"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="31"/>
+      <c r="F73" s="31"/>
+      <c r="G73" s="31"/>
+      <c r="H73" s="31"/>
+      <c r="I73" s="31"/>
+      <c r="J73" s="31"/>
+      <c r="K73" s="32"/>
+      <c r="L73" s="30"/>
+      <c r="M73" s="31"/>
+      <c r="N73" s="31"/>
+      <c r="O73" s="31"/>
+      <c r="P73" s="31"/>
+      <c r="Q73" s="31"/>
+      <c r="R73" s="31"/>
+      <c r="S73" s="31"/>
+      <c r="T73" s="31"/>
+      <c r="U73" s="32"/>
+      <c r="V73" s="33"/>
+      <c r="W73" s="33"/>
+      <c r="X73" s="26"/>
+      <c r="Y73" s="26"/>
+      <c r="Z73" s="26"/>
+      <c r="AA73" s="26"/>
+      <c r="AB73" s="26"/>
+      <c r="AC73" s="26"/>
+      <c r="AD73" s="26"/>
+      <c r="AE73" s="26"/>
+      <c r="AF73" s="26"/>
+      <c r="AG73" s="26"/>
+      <c r="AH73" s="26"/>
+      <c r="AI73" s="26"/>
+      <c r="AJ73" s="26"/>
+      <c r="AK73" s="26"/>
+      <c r="AL73" s="26"/>
+      <c r="AM73" s="26"/>
+      <c r="AN73" s="26"/>
+      <c r="AO73" s="26"/>
+      <c r="AP73" s="26"/>
+      <c r="AQ73" s="26"/>
+      <c r="AR73" s="26"/>
+      <c r="AS73" s="26"/>
+      <c r="AT73" s="26"/>
+      <c r="AU73" s="26"/>
+      <c r="AV73" s="26"/>
+      <c r="AW73" s="27"/>
+      <c r="AX73" s="28"/>
+      <c r="AY73" s="28"/>
+      <c r="AZ73" s="29"/>
     </row>
     <row r="74" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A74" s="16">
         <v>18</v>
       </c>
-      <c r="B74" s="34"/>
-      <c r="C74" s="35"/>
-      <c r="D74" s="35"/>
-      <c r="E74" s="35"/>
-      <c r="F74" s="35"/>
-      <c r="G74" s="35"/>
-      <c r="H74" s="35"/>
-      <c r="I74" s="35"/>
-      <c r="J74" s="35"/>
-      <c r="K74" s="36"/>
-      <c r="L74" s="34"/>
-      <c r="M74" s="35"/>
-      <c r="N74" s="35"/>
-      <c r="O74" s="35"/>
-      <c r="P74" s="35"/>
-      <c r="Q74" s="35"/>
-      <c r="R74" s="35"/>
-      <c r="S74" s="35"/>
-      <c r="T74" s="35"/>
-      <c r="U74" s="36"/>
-      <c r="V74" s="37"/>
-      <c r="W74" s="37"/>
-      <c r="X74" s="38"/>
-      <c r="Y74" s="38"/>
-      <c r="Z74" s="38"/>
-      <c r="AA74" s="38"/>
-      <c r="AB74" s="38"/>
-      <c r="AC74" s="38"/>
-      <c r="AD74" s="38"/>
-      <c r="AE74" s="38"/>
-      <c r="AF74" s="38"/>
-      <c r="AG74" s="38"/>
-      <c r="AH74" s="38"/>
-      <c r="AI74" s="38"/>
-      <c r="AJ74" s="38"/>
-      <c r="AK74" s="38"/>
-      <c r="AL74" s="38"/>
-      <c r="AM74" s="38"/>
-      <c r="AN74" s="38"/>
-      <c r="AO74" s="38"/>
-      <c r="AP74" s="38"/>
-      <c r="AQ74" s="38"/>
-      <c r="AR74" s="38"/>
-      <c r="AS74" s="38"/>
-      <c r="AT74" s="38"/>
-      <c r="AU74" s="38"/>
-      <c r="AV74" s="38"/>
-      <c r="AW74" s="39"/>
-      <c r="AX74" s="40"/>
-      <c r="AY74" s="40"/>
-      <c r="AZ74" s="41"/>
+      <c r="B74" s="30"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="31"/>
+      <c r="K74" s="32"/>
+      <c r="L74" s="30"/>
+      <c r="M74" s="31"/>
+      <c r="N74" s="31"/>
+      <c r="O74" s="31"/>
+      <c r="P74" s="31"/>
+      <c r="Q74" s="31"/>
+      <c r="R74" s="31"/>
+      <c r="S74" s="31"/>
+      <c r="T74" s="31"/>
+      <c r="U74" s="32"/>
+      <c r="V74" s="33"/>
+      <c r="W74" s="33"/>
+      <c r="X74" s="26"/>
+      <c r="Y74" s="26"/>
+      <c r="Z74" s="26"/>
+      <c r="AA74" s="26"/>
+      <c r="AB74" s="26"/>
+      <c r="AC74" s="26"/>
+      <c r="AD74" s="26"/>
+      <c r="AE74" s="26"/>
+      <c r="AF74" s="26"/>
+      <c r="AG74" s="26"/>
+      <c r="AH74" s="26"/>
+      <c r="AI74" s="26"/>
+      <c r="AJ74" s="26"/>
+      <c r="AK74" s="26"/>
+      <c r="AL74" s="26"/>
+      <c r="AM74" s="26"/>
+      <c r="AN74" s="26"/>
+      <c r="AO74" s="26"/>
+      <c r="AP74" s="26"/>
+      <c r="AQ74" s="26"/>
+      <c r="AR74" s="26"/>
+      <c r="AS74" s="26"/>
+      <c r="AT74" s="26"/>
+      <c r="AU74" s="26"/>
+      <c r="AV74" s="26"/>
+      <c r="AW74" s="27"/>
+      <c r="AX74" s="28"/>
+      <c r="AY74" s="28"/>
+      <c r="AZ74" s="29"/>
     </row>
     <row r="75" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A75" s="16">
         <v>19</v>
       </c>
-      <c r="B75" s="34"/>
-      <c r="C75" s="35"/>
-      <c r="D75" s="35"/>
-      <c r="E75" s="35"/>
-      <c r="F75" s="35"/>
-      <c r="G75" s="35"/>
-      <c r="H75" s="35"/>
-      <c r="I75" s="35"/>
-      <c r="J75" s="35"/>
-      <c r="K75" s="36"/>
-      <c r="L75" s="34"/>
-      <c r="M75" s="35"/>
-      <c r="N75" s="35"/>
-      <c r="O75" s="35"/>
-      <c r="P75" s="35"/>
-      <c r="Q75" s="35"/>
-      <c r="R75" s="35"/>
-      <c r="S75" s="35"/>
-      <c r="T75" s="35"/>
-      <c r="U75" s="36"/>
-      <c r="V75" s="37"/>
-      <c r="W75" s="37"/>
-      <c r="X75" s="38"/>
-      <c r="Y75" s="38"/>
-      <c r="Z75" s="38"/>
-      <c r="AA75" s="38"/>
-      <c r="AB75" s="38"/>
-      <c r="AC75" s="38"/>
-      <c r="AD75" s="38"/>
-      <c r="AE75" s="38"/>
-      <c r="AF75" s="38"/>
-      <c r="AG75" s="38"/>
-      <c r="AH75" s="38"/>
-      <c r="AI75" s="38"/>
-      <c r="AJ75" s="38"/>
-      <c r="AK75" s="38"/>
-      <c r="AL75" s="38"/>
-      <c r="AM75" s="38"/>
-      <c r="AN75" s="38"/>
-      <c r="AO75" s="38"/>
-      <c r="AP75" s="38"/>
-      <c r="AQ75" s="38"/>
-      <c r="AR75" s="38"/>
-      <c r="AS75" s="38"/>
-      <c r="AT75" s="38"/>
-      <c r="AU75" s="38"/>
-      <c r="AV75" s="38"/>
-      <c r="AW75" s="39"/>
-      <c r="AX75" s="40"/>
-      <c r="AY75" s="40"/>
-      <c r="AZ75" s="41"/>
+      <c r="B75" s="30"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="31"/>
+      <c r="E75" s="31"/>
+      <c r="F75" s="31"/>
+      <c r="G75" s="31"/>
+      <c r="H75" s="31"/>
+      <c r="I75" s="31"/>
+      <c r="J75" s="31"/>
+      <c r="K75" s="32"/>
+      <c r="L75" s="30"/>
+      <c r="M75" s="31"/>
+      <c r="N75" s="31"/>
+      <c r="O75" s="31"/>
+      <c r="P75" s="31"/>
+      <c r="Q75" s="31"/>
+      <c r="R75" s="31"/>
+      <c r="S75" s="31"/>
+      <c r="T75" s="31"/>
+      <c r="U75" s="32"/>
+      <c r="V75" s="33"/>
+      <c r="W75" s="33"/>
+      <c r="X75" s="26"/>
+      <c r="Y75" s="26"/>
+      <c r="Z75" s="26"/>
+      <c r="AA75" s="26"/>
+      <c r="AB75" s="26"/>
+      <c r="AC75" s="26"/>
+      <c r="AD75" s="26"/>
+      <c r="AE75" s="26"/>
+      <c r="AF75" s="26"/>
+      <c r="AG75" s="26"/>
+      <c r="AH75" s="26"/>
+      <c r="AI75" s="26"/>
+      <c r="AJ75" s="26"/>
+      <c r="AK75" s="26"/>
+      <c r="AL75" s="26"/>
+      <c r="AM75" s="26"/>
+      <c r="AN75" s="26"/>
+      <c r="AO75" s="26"/>
+      <c r="AP75" s="26"/>
+      <c r="AQ75" s="26"/>
+      <c r="AR75" s="26"/>
+      <c r="AS75" s="26"/>
+      <c r="AT75" s="26"/>
+      <c r="AU75" s="26"/>
+      <c r="AV75" s="26"/>
+      <c r="AW75" s="27"/>
+      <c r="AX75" s="28"/>
+      <c r="AY75" s="28"/>
+      <c r="AZ75" s="29"/>
     </row>
     <row r="76" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A76" s="16">
         <v>20</v>
       </c>
-      <c r="B76" s="34"/>
-      <c r="C76" s="35"/>
-      <c r="D76" s="35"/>
-      <c r="E76" s="35"/>
-      <c r="F76" s="35"/>
-      <c r="G76" s="35"/>
-      <c r="H76" s="35"/>
-      <c r="I76" s="35"/>
-      <c r="J76" s="35"/>
-      <c r="K76" s="36"/>
-      <c r="L76" s="34"/>
-      <c r="M76" s="35"/>
-      <c r="N76" s="35"/>
-      <c r="O76" s="35"/>
-      <c r="P76" s="35"/>
-      <c r="Q76" s="35"/>
-      <c r="R76" s="35"/>
-      <c r="S76" s="35"/>
-      <c r="T76" s="35"/>
-      <c r="U76" s="36"/>
-      <c r="V76" s="37"/>
-      <c r="W76" s="37"/>
-      <c r="X76" s="38"/>
-      <c r="Y76" s="38"/>
-      <c r="Z76" s="38"/>
-      <c r="AA76" s="38"/>
-      <c r="AB76" s="38"/>
-      <c r="AC76" s="38"/>
-      <c r="AD76" s="38"/>
-      <c r="AE76" s="38"/>
-      <c r="AF76" s="38"/>
-      <c r="AG76" s="38"/>
-      <c r="AH76" s="38"/>
-      <c r="AI76" s="38"/>
-      <c r="AJ76" s="38"/>
-      <c r="AK76" s="38"/>
-      <c r="AL76" s="38"/>
-      <c r="AM76" s="38"/>
-      <c r="AN76" s="38"/>
-      <c r="AO76" s="38"/>
-      <c r="AP76" s="38"/>
-      <c r="AQ76" s="38"/>
-      <c r="AR76" s="38"/>
-      <c r="AS76" s="38"/>
-      <c r="AT76" s="38"/>
-      <c r="AU76" s="38"/>
-      <c r="AV76" s="38"/>
-      <c r="AW76" s="39"/>
-      <c r="AX76" s="40"/>
-      <c r="AY76" s="40"/>
-      <c r="AZ76" s="41"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="31"/>
+      <c r="F76" s="31"/>
+      <c r="G76" s="31"/>
+      <c r="H76" s="31"/>
+      <c r="I76" s="31"/>
+      <c r="J76" s="31"/>
+      <c r="K76" s="32"/>
+      <c r="L76" s="30"/>
+      <c r="M76" s="31"/>
+      <c r="N76" s="31"/>
+      <c r="O76" s="31"/>
+      <c r="P76" s="31"/>
+      <c r="Q76" s="31"/>
+      <c r="R76" s="31"/>
+      <c r="S76" s="31"/>
+      <c r="T76" s="31"/>
+      <c r="U76" s="32"/>
+      <c r="V76" s="33"/>
+      <c r="W76" s="33"/>
+      <c r="X76" s="26"/>
+      <c r="Y76" s="26"/>
+      <c r="Z76" s="26"/>
+      <c r="AA76" s="26"/>
+      <c r="AB76" s="26"/>
+      <c r="AC76" s="26"/>
+      <c r="AD76" s="26"/>
+      <c r="AE76" s="26"/>
+      <c r="AF76" s="26"/>
+      <c r="AG76" s="26"/>
+      <c r="AH76" s="26"/>
+      <c r="AI76" s="26"/>
+      <c r="AJ76" s="26"/>
+      <c r="AK76" s="26"/>
+      <c r="AL76" s="26"/>
+      <c r="AM76" s="26"/>
+      <c r="AN76" s="26"/>
+      <c r="AO76" s="26"/>
+      <c r="AP76" s="26"/>
+      <c r="AQ76" s="26"/>
+      <c r="AR76" s="26"/>
+      <c r="AS76" s="26"/>
+      <c r="AT76" s="26"/>
+      <c r="AU76" s="26"/>
+      <c r="AV76" s="26"/>
+      <c r="AW76" s="27"/>
+      <c r="AX76" s="28"/>
+      <c r="AY76" s="28"/>
+      <c r="AZ76" s="29"/>
     </row>
     <row r="77" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A77" s="16">
         <v>21</v>
       </c>
-      <c r="B77" s="34"/>
-      <c r="C77" s="35"/>
-      <c r="D77" s="35"/>
-      <c r="E77" s="35"/>
-      <c r="F77" s="35"/>
-      <c r="G77" s="35"/>
-      <c r="H77" s="35"/>
-      <c r="I77" s="35"/>
-      <c r="J77" s="35"/>
-      <c r="K77" s="36"/>
-      <c r="L77" s="34"/>
-      <c r="M77" s="35"/>
-      <c r="N77" s="35"/>
-      <c r="O77" s="35"/>
-      <c r="P77" s="35"/>
-      <c r="Q77" s="35"/>
-      <c r="R77" s="35"/>
-      <c r="S77" s="35"/>
-      <c r="T77" s="35"/>
-      <c r="U77" s="36"/>
-      <c r="V77" s="37"/>
-      <c r="W77" s="37"/>
-      <c r="X77" s="38"/>
-      <c r="Y77" s="38"/>
-      <c r="Z77" s="38"/>
-      <c r="AA77" s="38"/>
-      <c r="AB77" s="38"/>
-      <c r="AC77" s="38"/>
-      <c r="AD77" s="38"/>
-      <c r="AE77" s="38"/>
-      <c r="AF77" s="38"/>
-      <c r="AG77" s="38"/>
-      <c r="AH77" s="38"/>
-      <c r="AI77" s="38"/>
-      <c r="AJ77" s="38"/>
-      <c r="AK77" s="38"/>
-      <c r="AL77" s="38"/>
-      <c r="AM77" s="38"/>
-      <c r="AN77" s="38"/>
-      <c r="AO77" s="38"/>
-      <c r="AP77" s="38"/>
-      <c r="AQ77" s="38"/>
-      <c r="AR77" s="38"/>
-      <c r="AS77" s="38"/>
-      <c r="AT77" s="38"/>
-      <c r="AU77" s="38"/>
-      <c r="AV77" s="38"/>
-      <c r="AW77" s="39"/>
-      <c r="AX77" s="40"/>
-      <c r="AY77" s="40"/>
-      <c r="AZ77" s="41"/>
+      <c r="B77" s="30"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="31"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="31"/>
+      <c r="H77" s="31"/>
+      <c r="I77" s="31"/>
+      <c r="J77" s="31"/>
+      <c r="K77" s="32"/>
+      <c r="L77" s="30"/>
+      <c r="M77" s="31"/>
+      <c r="N77" s="31"/>
+      <c r="O77" s="31"/>
+      <c r="P77" s="31"/>
+      <c r="Q77" s="31"/>
+      <c r="R77" s="31"/>
+      <c r="S77" s="31"/>
+      <c r="T77" s="31"/>
+      <c r="U77" s="32"/>
+      <c r="V77" s="33"/>
+      <c r="W77" s="33"/>
+      <c r="X77" s="26"/>
+      <c r="Y77" s="26"/>
+      <c r="Z77" s="26"/>
+      <c r="AA77" s="26"/>
+      <c r="AB77" s="26"/>
+      <c r="AC77" s="26"/>
+      <c r="AD77" s="26"/>
+      <c r="AE77" s="26"/>
+      <c r="AF77" s="26"/>
+      <c r="AG77" s="26"/>
+      <c r="AH77" s="26"/>
+      <c r="AI77" s="26"/>
+      <c r="AJ77" s="26"/>
+      <c r="AK77" s="26"/>
+      <c r="AL77" s="26"/>
+      <c r="AM77" s="26"/>
+      <c r="AN77" s="26"/>
+      <c r="AO77" s="26"/>
+      <c r="AP77" s="26"/>
+      <c r="AQ77" s="26"/>
+      <c r="AR77" s="26"/>
+      <c r="AS77" s="26"/>
+      <c r="AT77" s="26"/>
+      <c r="AU77" s="26"/>
+      <c r="AV77" s="26"/>
+      <c r="AW77" s="27"/>
+      <c r="AX77" s="28"/>
+      <c r="AY77" s="28"/>
+      <c r="AZ77" s="29"/>
     </row>
     <row r="79" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A79" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -7451,7 +11889,7 @@
     </row>
     <row r="83" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A83" s="3" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -7506,7 +11944,9 @@
       <c r="AZ83" s="5"/>
     </row>
     <row r="84" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A84" s="6"/>
+      <c r="A84" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -7560,7 +12000,9 @@
       <c r="AZ84" s="8"/>
     </row>
     <row r="85" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A85" s="9"/>
+      <c r="A85" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
       <c r="D85" s="10"/>
@@ -7669,7 +12111,7 @@
     </row>
     <row r="87" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A87" s="3" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -7724,7 +12166,9 @@
       <c r="AZ87" s="5"/>
     </row>
     <row r="88" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A88" s="6"/>
+      <c r="A88" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -7885,8 +12329,1276 @@
       <c r="AY90" s="13"/>
       <c r="AZ90" s="14"/>
     </row>
+    <row r="91" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A91" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="4"/>
+      <c r="O91" s="4"/>
+      <c r="P91" s="4"/>
+      <c r="Q91" s="4"/>
+      <c r="R91" s="4"/>
+      <c r="S91" s="4"/>
+      <c r="T91" s="4"/>
+      <c r="U91" s="4"/>
+      <c r="V91" s="4"/>
+      <c r="W91" s="4"/>
+      <c r="X91" s="4"/>
+      <c r="Y91" s="4"/>
+      <c r="Z91" s="4"/>
+      <c r="AA91" s="4"/>
+      <c r="AB91" s="4"/>
+      <c r="AC91" s="4"/>
+      <c r="AD91" s="4"/>
+      <c r="AE91" s="4"/>
+      <c r="AF91" s="4"/>
+      <c r="AG91" s="4"/>
+      <c r="AH91" s="4"/>
+      <c r="AI91" s="4"/>
+      <c r="AJ91" s="4"/>
+      <c r="AK91" s="4"/>
+      <c r="AL91" s="4"/>
+      <c r="AM91" s="4"/>
+      <c r="AN91" s="4"/>
+      <c r="AO91" s="4"/>
+      <c r="AP91" s="4"/>
+      <c r="AQ91" s="4"/>
+      <c r="AR91" s="4"/>
+      <c r="AS91" s="4"/>
+      <c r="AT91" s="4"/>
+      <c r="AU91" s="4"/>
+      <c r="AV91" s="4"/>
+      <c r="AW91" s="4"/>
+      <c r="AX91" s="4"/>
+      <c r="AY91" s="4"/>
+      <c r="AZ91" s="5"/>
+    </row>
+    <row r="92" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A92" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="7"/>
+      <c r="K92" s="7"/>
+      <c r="L92" s="7"/>
+      <c r="M92" s="7"/>
+      <c r="N92" s="7"/>
+      <c r="O92" s="7"/>
+      <c r="P92" s="7"/>
+      <c r="Q92" s="7"/>
+      <c r="R92" s="7"/>
+      <c r="S92" s="7"/>
+      <c r="T92" s="7"/>
+      <c r="U92" s="7"/>
+      <c r="V92" s="7"/>
+      <c r="W92" s="7"/>
+      <c r="X92" s="7"/>
+      <c r="Y92" s="7"/>
+      <c r="Z92" s="7"/>
+      <c r="AA92" s="7"/>
+      <c r="AB92" s="7"/>
+      <c r="AC92" s="7"/>
+      <c r="AD92" s="7"/>
+      <c r="AE92" s="7"/>
+      <c r="AF92" s="7"/>
+      <c r="AG92" s="7"/>
+      <c r="AH92" s="7"/>
+      <c r="AI92" s="7"/>
+      <c r="AJ92" s="7"/>
+      <c r="AK92" s="7"/>
+      <c r="AL92" s="7"/>
+      <c r="AM92" s="7"/>
+      <c r="AN92" s="7"/>
+      <c r="AO92" s="7"/>
+      <c r="AP92" s="7"/>
+      <c r="AQ92" s="7"/>
+      <c r="AR92" s="7"/>
+      <c r="AS92" s="7"/>
+      <c r="AT92" s="7"/>
+      <c r="AU92" s="7"/>
+      <c r="AV92" s="7"/>
+      <c r="AW92" s="7"/>
+      <c r="AX92" s="7"/>
+      <c r="AY92" s="7"/>
+      <c r="AZ92" s="8"/>
+    </row>
+    <row r="93" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A93" s="9"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="10"/>
+      <c r="J93" s="10"/>
+      <c r="K93" s="10"/>
+      <c r="L93" s="10"/>
+      <c r="M93" s="10"/>
+      <c r="N93" s="10"/>
+      <c r="O93" s="10"/>
+      <c r="P93" s="10"/>
+      <c r="Q93" s="10"/>
+      <c r="R93" s="10"/>
+      <c r="S93" s="10"/>
+      <c r="T93" s="10"/>
+      <c r="U93" s="10"/>
+      <c r="V93" s="10"/>
+      <c r="W93" s="10"/>
+      <c r="X93" s="10"/>
+      <c r="Y93" s="10"/>
+      <c r="Z93" s="10"/>
+      <c r="AA93" s="10"/>
+      <c r="AB93" s="10"/>
+      <c r="AC93" s="10"/>
+      <c r="AD93" s="10"/>
+      <c r="AE93" s="10"/>
+      <c r="AF93" s="10"/>
+      <c r="AG93" s="10"/>
+      <c r="AH93" s="10"/>
+      <c r="AI93" s="10"/>
+      <c r="AJ93" s="10"/>
+      <c r="AK93" s="10"/>
+      <c r="AL93" s="10"/>
+      <c r="AM93" s="10"/>
+      <c r="AN93" s="10"/>
+      <c r="AO93" s="10"/>
+      <c r="AP93" s="10"/>
+      <c r="AQ93" s="10"/>
+      <c r="AR93" s="10"/>
+      <c r="AS93" s="10"/>
+      <c r="AT93" s="10"/>
+      <c r="AU93" s="10"/>
+      <c r="AV93" s="10"/>
+      <c r="AW93" s="10"/>
+      <c r="AX93" s="10"/>
+      <c r="AY93" s="10"/>
+      <c r="AZ93" s="11"/>
+    </row>
+    <row r="94" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A94" s="12"/>
+      <c r="B94" s="13"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="13"/>
+      <c r="I94" s="13"/>
+      <c r="J94" s="13"/>
+      <c r="K94" s="13"/>
+      <c r="L94" s="13"/>
+      <c r="M94" s="13"/>
+      <c r="N94" s="13"/>
+      <c r="O94" s="13"/>
+      <c r="P94" s="13"/>
+      <c r="Q94" s="13"/>
+      <c r="R94" s="13"/>
+      <c r="S94" s="13"/>
+      <c r="T94" s="13"/>
+      <c r="U94" s="13"/>
+      <c r="V94" s="13"/>
+      <c r="W94" s="13"/>
+      <c r="X94" s="13"/>
+      <c r="Y94" s="13"/>
+      <c r="Z94" s="13"/>
+      <c r="AA94" s="13"/>
+      <c r="AB94" s="13"/>
+      <c r="AC94" s="13"/>
+      <c r="AD94" s="13"/>
+      <c r="AE94" s="13"/>
+      <c r="AF94" s="13"/>
+      <c r="AG94" s="13"/>
+      <c r="AH94" s="13"/>
+      <c r="AI94" s="13"/>
+      <c r="AJ94" s="13"/>
+      <c r="AK94" s="13"/>
+      <c r="AL94" s="13"/>
+      <c r="AM94" s="13"/>
+      <c r="AN94" s="13"/>
+      <c r="AO94" s="13"/>
+      <c r="AP94" s="13"/>
+      <c r="AQ94" s="13"/>
+      <c r="AR94" s="13"/>
+      <c r="AS94" s="13"/>
+      <c r="AT94" s="13"/>
+      <c r="AU94" s="13"/>
+      <c r="AV94" s="13"/>
+      <c r="AW94" s="13"/>
+      <c r="AX94" s="13"/>
+      <c r="AY94" s="13"/>
+      <c r="AZ94" s="14"/>
+    </row>
+    <row r="95" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A95" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4"/>
+      <c r="O95" s="4"/>
+      <c r="P95" s="4"/>
+      <c r="Q95" s="4"/>
+      <c r="R95" s="4"/>
+      <c r="S95" s="4"/>
+      <c r="T95" s="4"/>
+      <c r="U95" s="4"/>
+      <c r="V95" s="4"/>
+      <c r="W95" s="4"/>
+      <c r="X95" s="4"/>
+      <c r="Y95" s="4"/>
+      <c r="Z95" s="4"/>
+      <c r="AA95" s="4"/>
+      <c r="AB95" s="4"/>
+      <c r="AC95" s="4"/>
+      <c r="AD95" s="4"/>
+      <c r="AE95" s="4"/>
+      <c r="AF95" s="4"/>
+      <c r="AG95" s="4"/>
+      <c r="AH95" s="4"/>
+      <c r="AI95" s="4"/>
+      <c r="AJ95" s="4"/>
+      <c r="AK95" s="4"/>
+      <c r="AL95" s="4"/>
+      <c r="AM95" s="4"/>
+      <c r="AN95" s="4"/>
+      <c r="AO95" s="4"/>
+      <c r="AP95" s="4"/>
+      <c r="AQ95" s="4"/>
+      <c r="AR95" s="4"/>
+      <c r="AS95" s="4"/>
+      <c r="AT95" s="4"/>
+      <c r="AU95" s="4"/>
+      <c r="AV95" s="4"/>
+      <c r="AW95" s="4"/>
+      <c r="AX95" s="4"/>
+      <c r="AY95" s="4"/>
+      <c r="AZ95" s="5"/>
+    </row>
+    <row r="96" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A96" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="7"/>
+      <c r="K96" s="7"/>
+      <c r="L96" s="7"/>
+      <c r="M96" s="7"/>
+      <c r="N96" s="7"/>
+      <c r="O96" s="7"/>
+      <c r="P96" s="7"/>
+      <c r="Q96" s="7"/>
+      <c r="R96" s="7"/>
+      <c r="S96" s="7"/>
+      <c r="T96" s="7"/>
+      <c r="U96" s="7"/>
+      <c r="V96" s="7"/>
+      <c r="W96" s="7"/>
+      <c r="X96" s="7"/>
+      <c r="Y96" s="7"/>
+      <c r="Z96" s="7"/>
+      <c r="AA96" s="7"/>
+      <c r="AB96" s="7"/>
+      <c r="AC96" s="7"/>
+      <c r="AD96" s="7"/>
+      <c r="AE96" s="7"/>
+      <c r="AF96" s="7"/>
+      <c r="AG96" s="7"/>
+      <c r="AH96" s="7"/>
+      <c r="AI96" s="7"/>
+      <c r="AJ96" s="7"/>
+      <c r="AK96" s="7"/>
+      <c r="AL96" s="7"/>
+      <c r="AM96" s="7"/>
+      <c r="AN96" s="7"/>
+      <c r="AO96" s="7"/>
+      <c r="AP96" s="7"/>
+      <c r="AQ96" s="7"/>
+      <c r="AR96" s="7"/>
+      <c r="AS96" s="7"/>
+      <c r="AT96" s="7"/>
+      <c r="AU96" s="7"/>
+      <c r="AV96" s="7"/>
+      <c r="AW96" s="7"/>
+      <c r="AX96" s="7"/>
+      <c r="AY96" s="7"/>
+      <c r="AZ96" s="8"/>
+    </row>
+    <row r="97" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A97" s="9"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="10"/>
+      <c r="I97" s="10"/>
+      <c r="J97" s="10"/>
+      <c r="K97" s="10"/>
+      <c r="L97" s="10"/>
+      <c r="M97" s="10"/>
+      <c r="N97" s="10"/>
+      <c r="O97" s="10"/>
+      <c r="P97" s="10"/>
+      <c r="Q97" s="10"/>
+      <c r="R97" s="10"/>
+      <c r="S97" s="10"/>
+      <c r="T97" s="10"/>
+      <c r="U97" s="10"/>
+      <c r="V97" s="10"/>
+      <c r="W97" s="10"/>
+      <c r="X97" s="10"/>
+      <c r="Y97" s="10"/>
+      <c r="Z97" s="10"/>
+      <c r="AA97" s="10"/>
+      <c r="AB97" s="10"/>
+      <c r="AC97" s="10"/>
+      <c r="AD97" s="10"/>
+      <c r="AE97" s="10"/>
+      <c r="AF97" s="10"/>
+      <c r="AG97" s="10"/>
+      <c r="AH97" s="10"/>
+      <c r="AI97" s="10"/>
+      <c r="AJ97" s="10"/>
+      <c r="AK97" s="10"/>
+      <c r="AL97" s="10"/>
+      <c r="AM97" s="10"/>
+      <c r="AN97" s="10"/>
+      <c r="AO97" s="10"/>
+      <c r="AP97" s="10"/>
+      <c r="AQ97" s="10"/>
+      <c r="AR97" s="10"/>
+      <c r="AS97" s="10"/>
+      <c r="AT97" s="10"/>
+      <c r="AU97" s="10"/>
+      <c r="AV97" s="10"/>
+      <c r="AW97" s="10"/>
+      <c r="AX97" s="10"/>
+      <c r="AY97" s="10"/>
+      <c r="AZ97" s="11"/>
+    </row>
+    <row r="98" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A98" s="12"/>
+      <c r="B98" s="13"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="13"/>
+      <c r="I98" s="13"/>
+      <c r="J98" s="13"/>
+      <c r="K98" s="13"/>
+      <c r="L98" s="13"/>
+      <c r="M98" s="13"/>
+      <c r="N98" s="13"/>
+      <c r="O98" s="13"/>
+      <c r="P98" s="13"/>
+      <c r="Q98" s="13"/>
+      <c r="R98" s="13"/>
+      <c r="S98" s="13"/>
+      <c r="T98" s="13"/>
+      <c r="U98" s="13"/>
+      <c r="V98" s="13"/>
+      <c r="W98" s="13"/>
+      <c r="X98" s="13"/>
+      <c r="Y98" s="13"/>
+      <c r="Z98" s="13"/>
+      <c r="AA98" s="13"/>
+      <c r="AB98" s="13"/>
+      <c r="AC98" s="13"/>
+      <c r="AD98" s="13"/>
+      <c r="AE98" s="13"/>
+      <c r="AF98" s="13"/>
+      <c r="AG98" s="13"/>
+      <c r="AH98" s="13"/>
+      <c r="AI98" s="13"/>
+      <c r="AJ98" s="13"/>
+      <c r="AK98" s="13"/>
+      <c r="AL98" s="13"/>
+      <c r="AM98" s="13"/>
+      <c r="AN98" s="13"/>
+      <c r="AO98" s="13"/>
+      <c r="AP98" s="13"/>
+      <c r="AQ98" s="13"/>
+      <c r="AR98" s="13"/>
+      <c r="AS98" s="13"/>
+      <c r="AT98" s="13"/>
+      <c r="AU98" s="13"/>
+      <c r="AV98" s="13"/>
+      <c r="AW98" s="13"/>
+      <c r="AX98" s="13"/>
+      <c r="AY98" s="13"/>
+      <c r="AZ98" s="14"/>
+    </row>
+    <row r="99" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A99" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="4"/>
+      <c r="L99" s="4"/>
+      <c r="M99" s="4"/>
+      <c r="N99" s="4"/>
+      <c r="O99" s="4"/>
+      <c r="P99" s="4"/>
+      <c r="Q99" s="4"/>
+      <c r="R99" s="4"/>
+      <c r="S99" s="4"/>
+      <c r="T99" s="4"/>
+      <c r="U99" s="4"/>
+      <c r="V99" s="4"/>
+      <c r="W99" s="4"/>
+      <c r="X99" s="4"/>
+      <c r="Y99" s="4"/>
+      <c r="Z99" s="4"/>
+      <c r="AA99" s="4"/>
+      <c r="AB99" s="4"/>
+      <c r="AC99" s="4"/>
+      <c r="AD99" s="4"/>
+      <c r="AE99" s="4"/>
+      <c r="AF99" s="4"/>
+      <c r="AG99" s="4"/>
+      <c r="AH99" s="4"/>
+      <c r="AI99" s="4"/>
+      <c r="AJ99" s="4"/>
+      <c r="AK99" s="4"/>
+      <c r="AL99" s="4"/>
+      <c r="AM99" s="4"/>
+      <c r="AN99" s="4"/>
+      <c r="AO99" s="4"/>
+      <c r="AP99" s="4"/>
+      <c r="AQ99" s="4"/>
+      <c r="AR99" s="4"/>
+      <c r="AS99" s="4"/>
+      <c r="AT99" s="4"/>
+      <c r="AU99" s="4"/>
+      <c r="AV99" s="4"/>
+      <c r="AW99" s="4"/>
+      <c r="AX99" s="4"/>
+      <c r="AY99" s="4"/>
+      <c r="AZ99" s="5"/>
+    </row>
+    <row r="100" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A100" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="7"/>
+      <c r="J100" s="7"/>
+      <c r="K100" s="7"/>
+      <c r="L100" s="7"/>
+      <c r="M100" s="7"/>
+      <c r="N100" s="7"/>
+      <c r="O100" s="7"/>
+      <c r="P100" s="7"/>
+      <c r="Q100" s="7"/>
+      <c r="R100" s="7"/>
+      <c r="S100" s="7"/>
+      <c r="T100" s="7"/>
+      <c r="U100" s="7"/>
+      <c r="V100" s="7"/>
+      <c r="W100" s="7"/>
+      <c r="X100" s="7"/>
+      <c r="Y100" s="7"/>
+      <c r="Z100" s="7"/>
+      <c r="AA100" s="7"/>
+      <c r="AB100" s="7"/>
+      <c r="AC100" s="7"/>
+      <c r="AD100" s="7"/>
+      <c r="AE100" s="7"/>
+      <c r="AF100" s="7"/>
+      <c r="AG100" s="7"/>
+      <c r="AH100" s="7"/>
+      <c r="AI100" s="7"/>
+      <c r="AJ100" s="7"/>
+      <c r="AK100" s="7"/>
+      <c r="AL100" s="7"/>
+      <c r="AM100" s="7"/>
+      <c r="AN100" s="7"/>
+      <c r="AO100" s="7"/>
+      <c r="AP100" s="7"/>
+      <c r="AQ100" s="7"/>
+      <c r="AR100" s="7"/>
+      <c r="AS100" s="7"/>
+      <c r="AT100" s="7"/>
+      <c r="AU100" s="7"/>
+      <c r="AV100" s="7"/>
+      <c r="AW100" s="7"/>
+      <c r="AX100" s="7"/>
+      <c r="AY100" s="7"/>
+      <c r="AZ100" s="8"/>
+    </row>
+    <row r="101" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A101" s="9"/>
+      <c r="B101" s="10"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="10"/>
+      <c r="I101" s="10"/>
+      <c r="J101" s="10"/>
+      <c r="K101" s="10"/>
+      <c r="L101" s="10"/>
+      <c r="M101" s="10"/>
+      <c r="N101" s="10"/>
+      <c r="O101" s="10"/>
+      <c r="P101" s="10"/>
+      <c r="Q101" s="10"/>
+      <c r="R101" s="10"/>
+      <c r="S101" s="10"/>
+      <c r="T101" s="10"/>
+      <c r="U101" s="10"/>
+      <c r="V101" s="10"/>
+      <c r="W101" s="10"/>
+      <c r="X101" s="10"/>
+      <c r="Y101" s="10"/>
+      <c r="Z101" s="10"/>
+      <c r="AA101" s="10"/>
+      <c r="AB101" s="10"/>
+      <c r="AC101" s="10"/>
+      <c r="AD101" s="10"/>
+      <c r="AE101" s="10"/>
+      <c r="AF101" s="10"/>
+      <c r="AG101" s="10"/>
+      <c r="AH101" s="10"/>
+      <c r="AI101" s="10"/>
+      <c r="AJ101" s="10"/>
+      <c r="AK101" s="10"/>
+      <c r="AL101" s="10"/>
+      <c r="AM101" s="10"/>
+      <c r="AN101" s="10"/>
+      <c r="AO101" s="10"/>
+      <c r="AP101" s="10"/>
+      <c r="AQ101" s="10"/>
+      <c r="AR101" s="10"/>
+      <c r="AS101" s="10"/>
+      <c r="AT101" s="10"/>
+      <c r="AU101" s="10"/>
+      <c r="AV101" s="10"/>
+      <c r="AW101" s="10"/>
+      <c r="AX101" s="10"/>
+      <c r="AY101" s="10"/>
+      <c r="AZ101" s="11"/>
+    </row>
+    <row r="102" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A102" s="12"/>
+      <c r="B102" s="13"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="13"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="13"/>
+      <c r="I102" s="13"/>
+      <c r="J102" s="13"/>
+      <c r="K102" s="13"/>
+      <c r="L102" s="13"/>
+      <c r="M102" s="13"/>
+      <c r="N102" s="13"/>
+      <c r="O102" s="13"/>
+      <c r="P102" s="13"/>
+      <c r="Q102" s="13"/>
+      <c r="R102" s="13"/>
+      <c r="S102" s="13"/>
+      <c r="T102" s="13"/>
+      <c r="U102" s="13"/>
+      <c r="V102" s="13"/>
+      <c r="W102" s="13"/>
+      <c r="X102" s="13"/>
+      <c r="Y102" s="13"/>
+      <c r="Z102" s="13"/>
+      <c r="AA102" s="13"/>
+      <c r="AB102" s="13"/>
+      <c r="AC102" s="13"/>
+      <c r="AD102" s="13"/>
+      <c r="AE102" s="13"/>
+      <c r="AF102" s="13"/>
+      <c r="AG102" s="13"/>
+      <c r="AH102" s="13"/>
+      <c r="AI102" s="13"/>
+      <c r="AJ102" s="13"/>
+      <c r="AK102" s="13"/>
+      <c r="AL102" s="13"/>
+      <c r="AM102" s="13"/>
+      <c r="AN102" s="13"/>
+      <c r="AO102" s="13"/>
+      <c r="AP102" s="13"/>
+      <c r="AQ102" s="13"/>
+      <c r="AR102" s="13"/>
+      <c r="AS102" s="13"/>
+      <c r="AT102" s="13"/>
+      <c r="AU102" s="13"/>
+      <c r="AV102" s="13"/>
+      <c r="AW102" s="13"/>
+      <c r="AX102" s="13"/>
+      <c r="AY102" s="13"/>
+      <c r="AZ102" s="14"/>
+    </row>
+    <row r="103" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A103" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
+      <c r="K103" s="4"/>
+      <c r="L103" s="4"/>
+      <c r="M103" s="4"/>
+      <c r="N103" s="4"/>
+      <c r="O103" s="4"/>
+      <c r="P103" s="4"/>
+      <c r="Q103" s="4"/>
+      <c r="R103" s="4"/>
+      <c r="S103" s="4"/>
+      <c r="T103" s="4"/>
+      <c r="U103" s="4"/>
+      <c r="V103" s="4"/>
+      <c r="W103" s="4"/>
+      <c r="X103" s="4"/>
+      <c r="Y103" s="4"/>
+      <c r="Z103" s="4"/>
+      <c r="AA103" s="4"/>
+      <c r="AB103" s="4"/>
+      <c r="AC103" s="4"/>
+      <c r="AD103" s="4"/>
+      <c r="AE103" s="4"/>
+      <c r="AF103" s="4"/>
+      <c r="AG103" s="4"/>
+      <c r="AH103" s="4"/>
+      <c r="AI103" s="4"/>
+      <c r="AJ103" s="4"/>
+      <c r="AK103" s="4"/>
+      <c r="AL103" s="4"/>
+      <c r="AM103" s="4"/>
+      <c r="AN103" s="4"/>
+      <c r="AO103" s="4"/>
+      <c r="AP103" s="4"/>
+      <c r="AQ103" s="4"/>
+      <c r="AR103" s="4"/>
+      <c r="AS103" s="4"/>
+      <c r="AT103" s="4"/>
+      <c r="AU103" s="4"/>
+      <c r="AV103" s="4"/>
+      <c r="AW103" s="4"/>
+      <c r="AX103" s="4"/>
+      <c r="AY103" s="4"/>
+      <c r="AZ103" s="5"/>
+    </row>
+    <row r="104" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A104" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="7"/>
+      <c r="J104" s="7"/>
+      <c r="K104" s="7"/>
+      <c r="L104" s="7"/>
+      <c r="M104" s="7"/>
+      <c r="N104" s="7"/>
+      <c r="O104" s="7"/>
+      <c r="P104" s="7"/>
+      <c r="Q104" s="7"/>
+      <c r="R104" s="7"/>
+      <c r="S104" s="7"/>
+      <c r="T104" s="7"/>
+      <c r="U104" s="7"/>
+      <c r="V104" s="7"/>
+      <c r="W104" s="7"/>
+      <c r="X104" s="7"/>
+      <c r="Y104" s="7"/>
+      <c r="Z104" s="7"/>
+      <c r="AA104" s="7"/>
+      <c r="AB104" s="7"/>
+      <c r="AC104" s="7"/>
+      <c r="AD104" s="7"/>
+      <c r="AE104" s="7"/>
+      <c r="AF104" s="7"/>
+      <c r="AG104" s="7"/>
+      <c r="AH104" s="7"/>
+      <c r="AI104" s="7"/>
+      <c r="AJ104" s="7"/>
+      <c r="AK104" s="7"/>
+      <c r="AL104" s="7"/>
+      <c r="AM104" s="7"/>
+      <c r="AN104" s="7"/>
+      <c r="AO104" s="7"/>
+      <c r="AP104" s="7"/>
+      <c r="AQ104" s="7"/>
+      <c r="AR104" s="7"/>
+      <c r="AS104" s="7"/>
+      <c r="AT104" s="7"/>
+      <c r="AU104" s="7"/>
+      <c r="AV104" s="7"/>
+      <c r="AW104" s="7"/>
+      <c r="AX104" s="7"/>
+      <c r="AY104" s="7"/>
+      <c r="AZ104" s="8"/>
+    </row>
+    <row r="105" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A105" s="9"/>
+      <c r="B105" s="10"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="10"/>
+      <c r="I105" s="10"/>
+      <c r="J105" s="10"/>
+      <c r="K105" s="10"/>
+      <c r="L105" s="10"/>
+      <c r="M105" s="10"/>
+      <c r="N105" s="10"/>
+      <c r="O105" s="10"/>
+      <c r="P105" s="10"/>
+      <c r="Q105" s="10"/>
+      <c r="R105" s="10"/>
+      <c r="S105" s="10"/>
+      <c r="T105" s="10"/>
+      <c r="U105" s="10"/>
+      <c r="V105" s="10"/>
+      <c r="W105" s="10"/>
+      <c r="X105" s="10"/>
+      <c r="Y105" s="10"/>
+      <c r="Z105" s="10"/>
+      <c r="AA105" s="10"/>
+      <c r="AB105" s="10"/>
+      <c r="AC105" s="10"/>
+      <c r="AD105" s="10"/>
+      <c r="AE105" s="10"/>
+      <c r="AF105" s="10"/>
+      <c r="AG105" s="10"/>
+      <c r="AH105" s="10"/>
+      <c r="AI105" s="10"/>
+      <c r="AJ105" s="10"/>
+      <c r="AK105" s="10"/>
+      <c r="AL105" s="10"/>
+      <c r="AM105" s="10"/>
+      <c r="AN105" s="10"/>
+      <c r="AO105" s="10"/>
+      <c r="AP105" s="10"/>
+      <c r="AQ105" s="10"/>
+      <c r="AR105" s="10"/>
+      <c r="AS105" s="10"/>
+      <c r="AT105" s="10"/>
+      <c r="AU105" s="10"/>
+      <c r="AV105" s="10"/>
+      <c r="AW105" s="10"/>
+      <c r="AX105" s="10"/>
+      <c r="AY105" s="10"/>
+      <c r="AZ105" s="11"/>
+    </row>
+    <row r="106" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A106" s="12"/>
+      <c r="B106" s="13"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="13"/>
+      <c r="F106" s="13"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="13"/>
+      <c r="I106" s="13"/>
+      <c r="J106" s="13"/>
+      <c r="K106" s="13"/>
+      <c r="L106" s="13"/>
+      <c r="M106" s="13"/>
+      <c r="N106" s="13"/>
+      <c r="O106" s="13"/>
+      <c r="P106" s="13"/>
+      <c r="Q106" s="13"/>
+      <c r="R106" s="13"/>
+      <c r="S106" s="13"/>
+      <c r="T106" s="13"/>
+      <c r="U106" s="13"/>
+      <c r="V106" s="13"/>
+      <c r="W106" s="13"/>
+      <c r="X106" s="13"/>
+      <c r="Y106" s="13"/>
+      <c r="Z106" s="13"/>
+      <c r="AA106" s="13"/>
+      <c r="AB106" s="13"/>
+      <c r="AC106" s="13"/>
+      <c r="AD106" s="13"/>
+      <c r="AE106" s="13"/>
+      <c r="AF106" s="13"/>
+      <c r="AG106" s="13"/>
+      <c r="AH106" s="13"/>
+      <c r="AI106" s="13"/>
+      <c r="AJ106" s="13"/>
+      <c r="AK106" s="13"/>
+      <c r="AL106" s="13"/>
+      <c r="AM106" s="13"/>
+      <c r="AN106" s="13"/>
+      <c r="AO106" s="13"/>
+      <c r="AP106" s="13"/>
+      <c r="AQ106" s="13"/>
+      <c r="AR106" s="13"/>
+      <c r="AS106" s="13"/>
+      <c r="AT106" s="13"/>
+      <c r="AU106" s="13"/>
+      <c r="AV106" s="13"/>
+      <c r="AW106" s="13"/>
+      <c r="AX106" s="13"/>
+      <c r="AY106" s="13"/>
+      <c r="AZ106" s="14"/>
+    </row>
+    <row r="107" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A107" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="4"/>
+      <c r="J107" s="4"/>
+      <c r="K107" s="4"/>
+      <c r="L107" s="4"/>
+      <c r="M107" s="4"/>
+      <c r="N107" s="4"/>
+      <c r="O107" s="4"/>
+      <c r="P107" s="4"/>
+      <c r="Q107" s="4"/>
+      <c r="R107" s="4"/>
+      <c r="S107" s="4"/>
+      <c r="T107" s="4"/>
+      <c r="U107" s="4"/>
+      <c r="V107" s="4"/>
+      <c r="W107" s="4"/>
+      <c r="X107" s="4"/>
+      <c r="Y107" s="4"/>
+      <c r="Z107" s="4"/>
+      <c r="AA107" s="4"/>
+      <c r="AB107" s="4"/>
+      <c r="AC107" s="4"/>
+      <c r="AD107" s="4"/>
+      <c r="AE107" s="4"/>
+      <c r="AF107" s="4"/>
+      <c r="AG107" s="4"/>
+      <c r="AH107" s="4"/>
+      <c r="AI107" s="4"/>
+      <c r="AJ107" s="4"/>
+      <c r="AK107" s="4"/>
+      <c r="AL107" s="4"/>
+      <c r="AM107" s="4"/>
+      <c r="AN107" s="4"/>
+      <c r="AO107" s="4"/>
+      <c r="AP107" s="4"/>
+      <c r="AQ107" s="4"/>
+      <c r="AR107" s="4"/>
+      <c r="AS107" s="4"/>
+      <c r="AT107" s="4"/>
+      <c r="AU107" s="4"/>
+      <c r="AV107" s="4"/>
+      <c r="AW107" s="4"/>
+      <c r="AX107" s="4"/>
+      <c r="AY107" s="4"/>
+      <c r="AZ107" s="5"/>
+    </row>
+    <row r="108" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A108" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="7"/>
+      <c r="I108" s="7"/>
+      <c r="J108" s="7"/>
+      <c r="K108" s="7"/>
+      <c r="L108" s="7"/>
+      <c r="M108" s="7"/>
+      <c r="N108" s="7"/>
+      <c r="O108" s="7"/>
+      <c r="P108" s="7"/>
+      <c r="Q108" s="7"/>
+      <c r="R108" s="7"/>
+      <c r="S108" s="7"/>
+      <c r="T108" s="7"/>
+      <c r="U108" s="7"/>
+      <c r="V108" s="7"/>
+      <c r="W108" s="7"/>
+      <c r="X108" s="7"/>
+      <c r="Y108" s="7"/>
+      <c r="Z108" s="7"/>
+      <c r="AA108" s="7"/>
+      <c r="AB108" s="7"/>
+      <c r="AC108" s="7"/>
+      <c r="AD108" s="7"/>
+      <c r="AE108" s="7"/>
+      <c r="AF108" s="7"/>
+      <c r="AG108" s="7"/>
+      <c r="AH108" s="7"/>
+      <c r="AI108" s="7"/>
+      <c r="AJ108" s="7"/>
+      <c r="AK108" s="7"/>
+      <c r="AL108" s="7"/>
+      <c r="AM108" s="7"/>
+      <c r="AN108" s="7"/>
+      <c r="AO108" s="7"/>
+      <c r="AP108" s="7"/>
+      <c r="AQ108" s="7"/>
+      <c r="AR108" s="7"/>
+      <c r="AS108" s="7"/>
+      <c r="AT108" s="7"/>
+      <c r="AU108" s="7"/>
+      <c r="AV108" s="7"/>
+      <c r="AW108" s="7"/>
+      <c r="AX108" s="7"/>
+      <c r="AY108" s="7"/>
+      <c r="AZ108" s="8"/>
+    </row>
+    <row r="109" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A109" s="9"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10"/>
+      <c r="H109" s="10"/>
+      <c r="I109" s="10"/>
+      <c r="J109" s="10"/>
+      <c r="K109" s="10"/>
+      <c r="L109" s="10"/>
+      <c r="M109" s="10"/>
+      <c r="N109" s="10"/>
+      <c r="O109" s="10"/>
+      <c r="P109" s="10"/>
+      <c r="Q109" s="10"/>
+      <c r="R109" s="10"/>
+      <c r="S109" s="10"/>
+      <c r="T109" s="10"/>
+      <c r="U109" s="10"/>
+      <c r="V109" s="10"/>
+      <c r="W109" s="10"/>
+      <c r="X109" s="10"/>
+      <c r="Y109" s="10"/>
+      <c r="Z109" s="10"/>
+      <c r="AA109" s="10"/>
+      <c r="AB109" s="10"/>
+      <c r="AC109" s="10"/>
+      <c r="AD109" s="10"/>
+      <c r="AE109" s="10"/>
+      <c r="AF109" s="10"/>
+      <c r="AG109" s="10"/>
+      <c r="AH109" s="10"/>
+      <c r="AI109" s="10"/>
+      <c r="AJ109" s="10"/>
+      <c r="AK109" s="10"/>
+      <c r="AL109" s="10"/>
+      <c r="AM109" s="10"/>
+      <c r="AN109" s="10"/>
+      <c r="AO109" s="10"/>
+      <c r="AP109" s="10"/>
+      <c r="AQ109" s="10"/>
+      <c r="AR109" s="10"/>
+      <c r="AS109" s="10"/>
+      <c r="AT109" s="10"/>
+      <c r="AU109" s="10"/>
+      <c r="AV109" s="10"/>
+      <c r="AW109" s="10"/>
+      <c r="AX109" s="10"/>
+      <c r="AY109" s="10"/>
+      <c r="AZ109" s="11"/>
+    </row>
+    <row r="110" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A110" s="12"/>
+      <c r="B110" s="13"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="13"/>
+      <c r="F110" s="13"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="13"/>
+      <c r="I110" s="13"/>
+      <c r="J110" s="13"/>
+      <c r="K110" s="13"/>
+      <c r="L110" s="13"/>
+      <c r="M110" s="13"/>
+      <c r="N110" s="13"/>
+      <c r="O110" s="13"/>
+      <c r="P110" s="13"/>
+      <c r="Q110" s="13"/>
+      <c r="R110" s="13"/>
+      <c r="S110" s="13"/>
+      <c r="T110" s="13"/>
+      <c r="U110" s="13"/>
+      <c r="V110" s="13"/>
+      <c r="W110" s="13"/>
+      <c r="X110" s="13"/>
+      <c r="Y110" s="13"/>
+      <c r="Z110" s="13"/>
+      <c r="AA110" s="13"/>
+      <c r="AB110" s="13"/>
+      <c r="AC110" s="13"/>
+      <c r="AD110" s="13"/>
+      <c r="AE110" s="13"/>
+      <c r="AF110" s="13"/>
+      <c r="AG110" s="13"/>
+      <c r="AH110" s="13"/>
+      <c r="AI110" s="13"/>
+      <c r="AJ110" s="13"/>
+      <c r="AK110" s="13"/>
+      <c r="AL110" s="13"/>
+      <c r="AM110" s="13"/>
+      <c r="AN110" s="13"/>
+      <c r="AO110" s="13"/>
+      <c r="AP110" s="13"/>
+      <c r="AQ110" s="13"/>
+      <c r="AR110" s="13"/>
+      <c r="AS110" s="13"/>
+      <c r="AT110" s="13"/>
+      <c r="AU110" s="13"/>
+      <c r="AV110" s="13"/>
+      <c r="AW110" s="13"/>
+      <c r="AX110" s="13"/>
+      <c r="AY110" s="13"/>
+      <c r="AZ110" s="14"/>
+    </row>
   </sheetData>
-  <mergeCells count="190">
+  <mergeCells count="192">
+    <mergeCell ref="BF6:BT7"/>
+    <mergeCell ref="BY14:BZ16"/>
+    <mergeCell ref="AQ1:AZ1"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:X2"/>
+    <mergeCell ref="Y2:AB2"/>
+    <mergeCell ref="AC2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AZ2"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:X1"/>
+    <mergeCell ref="Y1:AB1"/>
+    <mergeCell ref="AC1:AL1"/>
+    <mergeCell ref="AM1:AP1"/>
+    <mergeCell ref="AO56:AV56"/>
+    <mergeCell ref="AW56:AZ56"/>
+    <mergeCell ref="B57:K57"/>
+    <mergeCell ref="L57:U57"/>
+    <mergeCell ref="V57:W57"/>
+    <mergeCell ref="X57:Y57"/>
+    <mergeCell ref="Z57:AF57"/>
+    <mergeCell ref="AG57:AN57"/>
+    <mergeCell ref="AO57:AV57"/>
+    <mergeCell ref="AW57:AZ57"/>
+    <mergeCell ref="B56:K56"/>
+    <mergeCell ref="L56:U56"/>
+    <mergeCell ref="V56:W56"/>
+    <mergeCell ref="X56:Y56"/>
+    <mergeCell ref="Z56:AF56"/>
+    <mergeCell ref="AG56:AN56"/>
+    <mergeCell ref="AO58:AV58"/>
+    <mergeCell ref="AW58:AZ58"/>
+    <mergeCell ref="B59:K59"/>
+    <mergeCell ref="L59:U59"/>
+    <mergeCell ref="V59:W59"/>
+    <mergeCell ref="X59:Y59"/>
+    <mergeCell ref="Z59:AF59"/>
+    <mergeCell ref="AG59:AN59"/>
+    <mergeCell ref="AO59:AV59"/>
+    <mergeCell ref="AW59:AZ59"/>
+    <mergeCell ref="B58:K58"/>
+    <mergeCell ref="L58:U58"/>
+    <mergeCell ref="V58:W58"/>
+    <mergeCell ref="X58:Y58"/>
+    <mergeCell ref="Z58:AF58"/>
+    <mergeCell ref="AG58:AN58"/>
+    <mergeCell ref="AO60:AV60"/>
+    <mergeCell ref="AW60:AZ60"/>
+    <mergeCell ref="B61:K61"/>
+    <mergeCell ref="L61:U61"/>
+    <mergeCell ref="V61:W61"/>
+    <mergeCell ref="X61:Y61"/>
+    <mergeCell ref="Z61:AF61"/>
+    <mergeCell ref="AG61:AN61"/>
+    <mergeCell ref="AO61:AV61"/>
+    <mergeCell ref="AW61:AZ61"/>
+    <mergeCell ref="B60:K60"/>
+    <mergeCell ref="L60:U60"/>
+    <mergeCell ref="V60:W60"/>
+    <mergeCell ref="X60:Y60"/>
+    <mergeCell ref="Z60:AF60"/>
+    <mergeCell ref="AG60:AN60"/>
+    <mergeCell ref="AO62:AV62"/>
+    <mergeCell ref="AW62:AZ62"/>
+    <mergeCell ref="B63:K63"/>
+    <mergeCell ref="L63:U63"/>
+    <mergeCell ref="V63:W63"/>
+    <mergeCell ref="X63:Y63"/>
+    <mergeCell ref="Z63:AF63"/>
+    <mergeCell ref="AG63:AN63"/>
+    <mergeCell ref="AO63:AV63"/>
+    <mergeCell ref="AW63:AZ63"/>
+    <mergeCell ref="B62:K62"/>
+    <mergeCell ref="L62:U62"/>
+    <mergeCell ref="V62:W62"/>
+    <mergeCell ref="X62:Y62"/>
+    <mergeCell ref="Z62:AF62"/>
+    <mergeCell ref="AG62:AN62"/>
+    <mergeCell ref="AO64:AV64"/>
+    <mergeCell ref="AW64:AZ64"/>
+    <mergeCell ref="B65:K65"/>
+    <mergeCell ref="L65:U65"/>
+    <mergeCell ref="V65:W65"/>
+    <mergeCell ref="X65:Y65"/>
+    <mergeCell ref="Z65:AF65"/>
+    <mergeCell ref="AG65:AN65"/>
+    <mergeCell ref="AO65:AV65"/>
+    <mergeCell ref="AW65:AZ65"/>
+    <mergeCell ref="B64:K64"/>
+    <mergeCell ref="L64:U64"/>
+    <mergeCell ref="V64:W64"/>
+    <mergeCell ref="X64:Y64"/>
+    <mergeCell ref="Z64:AF64"/>
+    <mergeCell ref="AG64:AN64"/>
+    <mergeCell ref="AO66:AV66"/>
+    <mergeCell ref="AW66:AZ66"/>
+    <mergeCell ref="B67:K67"/>
+    <mergeCell ref="L67:U67"/>
+    <mergeCell ref="V67:W67"/>
+    <mergeCell ref="X67:Y67"/>
+    <mergeCell ref="Z67:AF67"/>
+    <mergeCell ref="AG67:AN67"/>
+    <mergeCell ref="AO67:AV67"/>
+    <mergeCell ref="AW67:AZ67"/>
+    <mergeCell ref="B66:K66"/>
+    <mergeCell ref="L66:U66"/>
+    <mergeCell ref="V66:W66"/>
+    <mergeCell ref="X66:Y66"/>
+    <mergeCell ref="Z66:AF66"/>
+    <mergeCell ref="AG66:AN66"/>
+    <mergeCell ref="AO68:AV68"/>
+    <mergeCell ref="AW68:AZ68"/>
+    <mergeCell ref="B69:K69"/>
+    <mergeCell ref="L69:U69"/>
+    <mergeCell ref="V69:W69"/>
+    <mergeCell ref="X69:Y69"/>
+    <mergeCell ref="Z69:AF69"/>
+    <mergeCell ref="AG69:AN69"/>
+    <mergeCell ref="AO69:AV69"/>
+    <mergeCell ref="AW69:AZ69"/>
+    <mergeCell ref="B68:K68"/>
+    <mergeCell ref="L68:U68"/>
+    <mergeCell ref="V68:W68"/>
+    <mergeCell ref="X68:Y68"/>
+    <mergeCell ref="Z68:AF68"/>
+    <mergeCell ref="AG68:AN68"/>
+    <mergeCell ref="AO70:AV70"/>
+    <mergeCell ref="AW70:AZ70"/>
+    <mergeCell ref="B71:K71"/>
+    <mergeCell ref="L71:U71"/>
+    <mergeCell ref="V71:W71"/>
+    <mergeCell ref="X71:Y71"/>
+    <mergeCell ref="Z71:AF71"/>
+    <mergeCell ref="AG71:AN71"/>
+    <mergeCell ref="AO71:AV71"/>
+    <mergeCell ref="AW71:AZ71"/>
+    <mergeCell ref="B70:K70"/>
+    <mergeCell ref="L70:U70"/>
+    <mergeCell ref="V70:W70"/>
+    <mergeCell ref="X70:Y70"/>
+    <mergeCell ref="Z70:AF70"/>
+    <mergeCell ref="AG70:AN70"/>
+    <mergeCell ref="AO72:AV72"/>
+    <mergeCell ref="AW72:AZ72"/>
+    <mergeCell ref="B73:K73"/>
+    <mergeCell ref="L73:U73"/>
+    <mergeCell ref="V73:W73"/>
+    <mergeCell ref="X73:Y73"/>
+    <mergeCell ref="Z73:AF73"/>
+    <mergeCell ref="AG73:AN73"/>
+    <mergeCell ref="AO73:AV73"/>
+    <mergeCell ref="AW73:AZ73"/>
+    <mergeCell ref="B72:K72"/>
+    <mergeCell ref="L72:U72"/>
+    <mergeCell ref="V72:W72"/>
+    <mergeCell ref="X72:Y72"/>
+    <mergeCell ref="Z72:AF72"/>
+    <mergeCell ref="AG72:AN72"/>
+    <mergeCell ref="AG75:AN75"/>
+    <mergeCell ref="AO75:AV75"/>
+    <mergeCell ref="AW75:AZ75"/>
+    <mergeCell ref="B74:K74"/>
+    <mergeCell ref="L74:U74"/>
+    <mergeCell ref="V74:W74"/>
+    <mergeCell ref="X74:Y74"/>
+    <mergeCell ref="Z74:AF74"/>
+    <mergeCell ref="AG74:AN74"/>
     <mergeCell ref="R7:AG10"/>
     <mergeCell ref="AO76:AV76"/>
     <mergeCell ref="AW76:AZ76"/>
@@ -7911,172 +13623,6 @@
     <mergeCell ref="V75:W75"/>
     <mergeCell ref="X75:Y75"/>
     <mergeCell ref="Z75:AF75"/>
-    <mergeCell ref="AG75:AN75"/>
-    <mergeCell ref="AO75:AV75"/>
-    <mergeCell ref="AW75:AZ75"/>
-    <mergeCell ref="B74:K74"/>
-    <mergeCell ref="L74:U74"/>
-    <mergeCell ref="V74:W74"/>
-    <mergeCell ref="X74:Y74"/>
-    <mergeCell ref="Z74:AF74"/>
-    <mergeCell ref="AG74:AN74"/>
-    <mergeCell ref="AO72:AV72"/>
-    <mergeCell ref="AW72:AZ72"/>
-    <mergeCell ref="B73:K73"/>
-    <mergeCell ref="L73:U73"/>
-    <mergeCell ref="V73:W73"/>
-    <mergeCell ref="X73:Y73"/>
-    <mergeCell ref="Z73:AF73"/>
-    <mergeCell ref="AG73:AN73"/>
-    <mergeCell ref="AO73:AV73"/>
-    <mergeCell ref="AW73:AZ73"/>
-    <mergeCell ref="B72:K72"/>
-    <mergeCell ref="L72:U72"/>
-    <mergeCell ref="V72:W72"/>
-    <mergeCell ref="X72:Y72"/>
-    <mergeCell ref="Z72:AF72"/>
-    <mergeCell ref="AG72:AN72"/>
-    <mergeCell ref="AO70:AV70"/>
-    <mergeCell ref="AW70:AZ70"/>
-    <mergeCell ref="B71:K71"/>
-    <mergeCell ref="L71:U71"/>
-    <mergeCell ref="V71:W71"/>
-    <mergeCell ref="X71:Y71"/>
-    <mergeCell ref="Z71:AF71"/>
-    <mergeCell ref="AG71:AN71"/>
-    <mergeCell ref="AO71:AV71"/>
-    <mergeCell ref="AW71:AZ71"/>
-    <mergeCell ref="B70:K70"/>
-    <mergeCell ref="L70:U70"/>
-    <mergeCell ref="V70:W70"/>
-    <mergeCell ref="X70:Y70"/>
-    <mergeCell ref="Z70:AF70"/>
-    <mergeCell ref="AG70:AN70"/>
-    <mergeCell ref="AO68:AV68"/>
-    <mergeCell ref="AW68:AZ68"/>
-    <mergeCell ref="B69:K69"/>
-    <mergeCell ref="L69:U69"/>
-    <mergeCell ref="V69:W69"/>
-    <mergeCell ref="X69:Y69"/>
-    <mergeCell ref="Z69:AF69"/>
-    <mergeCell ref="AG69:AN69"/>
-    <mergeCell ref="AO69:AV69"/>
-    <mergeCell ref="AW69:AZ69"/>
-    <mergeCell ref="B68:K68"/>
-    <mergeCell ref="L68:U68"/>
-    <mergeCell ref="V68:W68"/>
-    <mergeCell ref="X68:Y68"/>
-    <mergeCell ref="Z68:AF68"/>
-    <mergeCell ref="AG68:AN68"/>
-    <mergeCell ref="AO66:AV66"/>
-    <mergeCell ref="AW66:AZ66"/>
-    <mergeCell ref="B67:K67"/>
-    <mergeCell ref="L67:U67"/>
-    <mergeCell ref="V67:W67"/>
-    <mergeCell ref="X67:Y67"/>
-    <mergeCell ref="Z67:AF67"/>
-    <mergeCell ref="AG67:AN67"/>
-    <mergeCell ref="AO67:AV67"/>
-    <mergeCell ref="AW67:AZ67"/>
-    <mergeCell ref="B66:K66"/>
-    <mergeCell ref="L66:U66"/>
-    <mergeCell ref="V66:W66"/>
-    <mergeCell ref="X66:Y66"/>
-    <mergeCell ref="Z66:AF66"/>
-    <mergeCell ref="AG66:AN66"/>
-    <mergeCell ref="AO64:AV64"/>
-    <mergeCell ref="AW64:AZ64"/>
-    <mergeCell ref="B65:K65"/>
-    <mergeCell ref="L65:U65"/>
-    <mergeCell ref="V65:W65"/>
-    <mergeCell ref="X65:Y65"/>
-    <mergeCell ref="Z65:AF65"/>
-    <mergeCell ref="AG65:AN65"/>
-    <mergeCell ref="AO65:AV65"/>
-    <mergeCell ref="AW65:AZ65"/>
-    <mergeCell ref="B64:K64"/>
-    <mergeCell ref="L64:U64"/>
-    <mergeCell ref="V64:W64"/>
-    <mergeCell ref="X64:Y64"/>
-    <mergeCell ref="Z64:AF64"/>
-    <mergeCell ref="AG64:AN64"/>
-    <mergeCell ref="AO62:AV62"/>
-    <mergeCell ref="AW62:AZ62"/>
-    <mergeCell ref="B63:K63"/>
-    <mergeCell ref="L63:U63"/>
-    <mergeCell ref="V63:W63"/>
-    <mergeCell ref="X63:Y63"/>
-    <mergeCell ref="Z63:AF63"/>
-    <mergeCell ref="AG63:AN63"/>
-    <mergeCell ref="AO63:AV63"/>
-    <mergeCell ref="AW63:AZ63"/>
-    <mergeCell ref="B62:K62"/>
-    <mergeCell ref="L62:U62"/>
-    <mergeCell ref="V62:W62"/>
-    <mergeCell ref="X62:Y62"/>
-    <mergeCell ref="Z62:AF62"/>
-    <mergeCell ref="AG62:AN62"/>
-    <mergeCell ref="AO60:AV60"/>
-    <mergeCell ref="AW60:AZ60"/>
-    <mergeCell ref="B61:K61"/>
-    <mergeCell ref="L61:U61"/>
-    <mergeCell ref="V61:W61"/>
-    <mergeCell ref="X61:Y61"/>
-    <mergeCell ref="Z61:AF61"/>
-    <mergeCell ref="AG61:AN61"/>
-    <mergeCell ref="AO61:AV61"/>
-    <mergeCell ref="AW61:AZ61"/>
-    <mergeCell ref="B60:K60"/>
-    <mergeCell ref="L60:U60"/>
-    <mergeCell ref="V60:W60"/>
-    <mergeCell ref="X60:Y60"/>
-    <mergeCell ref="Z60:AF60"/>
-    <mergeCell ref="AG60:AN60"/>
-    <mergeCell ref="AO58:AV58"/>
-    <mergeCell ref="AW58:AZ58"/>
-    <mergeCell ref="B59:K59"/>
-    <mergeCell ref="L59:U59"/>
-    <mergeCell ref="V59:W59"/>
-    <mergeCell ref="X59:Y59"/>
-    <mergeCell ref="Z59:AF59"/>
-    <mergeCell ref="AG59:AN59"/>
-    <mergeCell ref="AO59:AV59"/>
-    <mergeCell ref="AW59:AZ59"/>
-    <mergeCell ref="B58:K58"/>
-    <mergeCell ref="L58:U58"/>
-    <mergeCell ref="V58:W58"/>
-    <mergeCell ref="X58:Y58"/>
-    <mergeCell ref="Z58:AF58"/>
-    <mergeCell ref="AG58:AN58"/>
-    <mergeCell ref="AO56:AV56"/>
-    <mergeCell ref="AW56:AZ56"/>
-    <mergeCell ref="B57:K57"/>
-    <mergeCell ref="L57:U57"/>
-    <mergeCell ref="V57:W57"/>
-    <mergeCell ref="X57:Y57"/>
-    <mergeCell ref="Z57:AF57"/>
-    <mergeCell ref="AG57:AN57"/>
-    <mergeCell ref="AO57:AV57"/>
-    <mergeCell ref="AW57:AZ57"/>
-    <mergeCell ref="B56:K56"/>
-    <mergeCell ref="L56:U56"/>
-    <mergeCell ref="V56:W56"/>
-    <mergeCell ref="X56:Y56"/>
-    <mergeCell ref="Z56:AF56"/>
-    <mergeCell ref="AG56:AN56"/>
-    <mergeCell ref="AQ1:AZ1"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:X2"/>
-    <mergeCell ref="Y2:AB2"/>
-    <mergeCell ref="AC2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AZ2"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:X1"/>
-    <mergeCell ref="Y1:AB1"/>
-    <mergeCell ref="AC1:AL1"/>
-    <mergeCell ref="AM1:AP1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
